--- a/BackTest/2019-11-01 BackTest LOOM.xlsx
+++ b/BackTest/2019-11-01 BackTest LOOM.xlsx
@@ -661,17 +661,13 @@
         <v>27.20333333333331</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K8" t="n">
-        <v>26.9</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -700,22 +696,14 @@
         <v>27.20166666666665</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K9" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -743,22 +731,14 @@
         <v>27.19666666666665</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K10" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -786,22 +766,14 @@
         <v>27.19666666666665</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K11" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -838,13 +810,9 @@
         <v>27.2</v>
       </c>
       <c r="K12" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>27.2</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -878,14 +846,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="K13" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -915,16 +883,14 @@
         <v>27.21666666666665</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>27.5</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -965,7 +931,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1006,7 +972,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1047,7 +1013,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1088,7 +1054,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1129,7 +1095,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1170,7 +1136,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1211,7 +1177,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1252,7 +1218,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1293,7 +1259,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1334,7 +1300,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1375,7 +1341,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1416,7 +1382,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1457,7 +1423,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1498,7 +1464,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1539,7 +1505,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1580,7 +1546,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1621,7 +1587,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1662,7 +1628,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1703,7 +1669,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1744,7 +1710,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1785,7 +1751,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1826,7 +1792,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1867,7 +1833,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1908,7 +1874,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1949,7 +1915,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1990,7 +1956,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2031,7 +1997,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2072,7 +2038,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2113,7 +2079,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2154,7 +2120,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2195,7 +2161,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2236,7 +2202,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2277,7 +2243,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2318,7 +2284,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2359,7 +2325,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2400,7 +2366,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2441,7 +2407,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2482,7 +2448,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2523,7 +2489,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2564,7 +2530,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2605,7 +2571,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2646,7 +2612,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2687,7 +2653,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2728,7 +2694,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2765,19 +2731,19 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>1.03589219330855</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2806,11 +2772,17 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2841,13 +2813,19 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M61" t="n">
-        <v>1</v>
+        <v>1.017058823529412</v>
       </c>
     </row>
     <row r="62">
@@ -2876,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>

--- a/BackTest/2019-11-01 BackTest LOOM.xlsx
+++ b/BackTest/2019-11-01 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M139"/>
+  <dimension ref="A1:M140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,19 +433,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="E2" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>19200</v>
       </c>
       <c r="G2" t="n">
         <v>27.23166666666664</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="D3" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="E3" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="F3" t="n">
-        <v>28927.7509</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>27.22833333333331</v>
+        <v>27.23166666666664</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>27</v>
       </c>
       <c r="F4" t="n">
-        <v>41839.5571</v>
+        <v>28927.7509</v>
       </c>
       <c r="G4" t="n">
-        <v>27.22499999999997</v>
+        <v>27.22833333333331</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>27</v>
       </c>
       <c r="F5" t="n">
-        <v>22000</v>
+        <v>41839.5571</v>
       </c>
       <c r="G5" t="n">
-        <v>27.21833333333331</v>
+        <v>27.22499999999997</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
         <v>27</v>
       </c>
       <c r="E6" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="F6" t="n">
-        <v>9034.5209</v>
+        <v>22000</v>
       </c>
       <c r="G6" t="n">
-        <v>27.20833333333331</v>
+        <v>27.21833333333331</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
         <v>26.9</v>
       </c>
       <c r="D7" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="E7" t="n">
         <v>26.9</v>
       </c>
       <c r="F7" t="n">
-        <v>77813.2205</v>
+        <v>9034.5209</v>
       </c>
       <c r="G7" t="n">
-        <v>27.20499999999998</v>
+        <v>27.20833333333331</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>26.9</v>
       </c>
       <c r="F8" t="n">
-        <v>27823.9204</v>
+        <v>77813.2205</v>
       </c>
       <c r="G8" t="n">
-        <v>27.20333333333331</v>
+        <v>27.20499999999998</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>26.9</v>
       </c>
       <c r="F9" t="n">
-        <v>1116.9144</v>
+        <v>27823.9204</v>
       </c>
       <c r="G9" t="n">
-        <v>27.20166666666665</v>
+        <v>27.20333333333331</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,19 +725,23 @@
         <v>26.9</v>
       </c>
       <c r="F10" t="n">
-        <v>1808.2998</v>
+        <v>1116.9144</v>
       </c>
       <c r="G10" t="n">
-        <v>27.19666666666665</v>
+        <v>27.20166666666665</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K10" t="n">
+        <v>26.9</v>
+      </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
@@ -751,16 +755,16 @@
         <v>26.9</v>
       </c>
       <c r="C11" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="D11" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="E11" t="n">
         <v>26.9</v>
       </c>
       <c r="F11" t="n">
-        <v>3833</v>
+        <v>1808.2998</v>
       </c>
       <c r="G11" t="n">
         <v>27.19666666666665</v>
@@ -772,8 +776,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -783,7 +793,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="C12" t="n">
         <v>27.2</v>
@@ -792,13 +802,13 @@
         <v>27.2</v>
       </c>
       <c r="E12" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="F12" t="n">
-        <v>7881.3308</v>
+        <v>3833</v>
       </c>
       <c r="G12" t="n">
-        <v>27.19999999999998</v>
+        <v>27.19666666666665</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -807,12 +817,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="K12" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -822,38 +836,36 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C13" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="D13" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="E13" t="n">
-        <v>26.9</v>
+        <v>27.2</v>
       </c>
       <c r="F13" t="n">
-        <v>7318.5127</v>
+        <v>7881.3308</v>
       </c>
       <c r="G13" t="n">
-        <v>27.20833333333331</v>
+        <v>27.19999999999998</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>27.2</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -865,7 +877,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C14" t="n">
         <v>27.5</v>
@@ -874,13 +886,13 @@
         <v>27.5</v>
       </c>
       <c r="E14" t="n">
-        <v>27.5</v>
+        <v>26.9</v>
       </c>
       <c r="F14" t="n">
-        <v>63321.3636</v>
+        <v>7318.5127</v>
       </c>
       <c r="G14" t="n">
-        <v>27.21666666666665</v>
+        <v>27.20833333333331</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -890,7 +902,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -906,22 +918,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>27</v>
+        <v>27.5</v>
       </c>
       <c r="C15" t="n">
-        <v>27</v>
+        <v>27.5</v>
       </c>
       <c r="D15" t="n">
-        <v>27</v>
+        <v>27.5</v>
       </c>
       <c r="E15" t="n">
-        <v>27</v>
+        <v>27.5</v>
       </c>
       <c r="F15" t="n">
-        <v>3227.905</v>
+        <v>63321.3636</v>
       </c>
       <c r="G15" t="n">
-        <v>27.21499999999998</v>
+        <v>27.21666666666665</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -931,7 +943,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -947,19 +959,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="C16" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="D16" t="n">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="E16" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="F16" t="n">
-        <v>90</v>
+        <v>3227.905</v>
       </c>
       <c r="G16" t="n">
         <v>27.21499999999998</v>
@@ -972,7 +984,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -988,22 +1000,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="C17" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="D17" t="n">
         <v>27.4</v>
       </c>
       <c r="E17" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="G17" t="n">
-        <v>27.21666666666665</v>
+        <v>27.21499999999998</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1013,7 +1025,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1029,19 +1041,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C18" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D18" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E18" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F18" t="n">
-        <v>25713.3522</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
         <v>27.21666666666665</v>
@@ -1054,7 +1066,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1082,10 +1094,10 @@
         <v>27.3</v>
       </c>
       <c r="F19" t="n">
-        <v>1759.1752</v>
+        <v>25713.3522</v>
       </c>
       <c r="G19" t="n">
-        <v>27.21999999999998</v>
+        <v>27.21666666666665</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1095,7 +1107,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1123,7 +1135,7 @@
         <v>27.3</v>
       </c>
       <c r="F20" t="n">
-        <v>643.1135</v>
+        <v>1759.1752</v>
       </c>
       <c r="G20" t="n">
         <v>27.21999999999998</v>
@@ -1136,7 +1148,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1152,22 +1164,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C21" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D21" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E21" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F21" t="n">
-        <v>43210.8471</v>
+        <v>643.1135</v>
       </c>
       <c r="G21" t="n">
-        <v>27.22333333333332</v>
+        <v>27.21999999999998</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1177,7 +1189,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1193,22 +1205,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="C22" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="D22" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E22" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="F22" t="n">
-        <v>24593.1517</v>
+        <v>43210.8471</v>
       </c>
       <c r="G22" t="n">
-        <v>27.21999999999998</v>
+        <v>27.22333333333332</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1218,7 +1230,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1234,22 +1246,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="C23" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="D23" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E23" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="F23" t="n">
-        <v>1835.9674</v>
+        <v>24593.1517</v>
       </c>
       <c r="G23" t="n">
-        <v>27.21833333333332</v>
+        <v>27.21999999999998</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1259,7 +1271,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1275,22 +1287,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="C24" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="D24" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="E24" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="F24" t="n">
-        <v>15004.4183</v>
+        <v>1835.9674</v>
       </c>
       <c r="G24" t="n">
-        <v>27.21333333333332</v>
+        <v>27.21833333333332</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1300,7 +1312,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1316,19 +1328,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="C25" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="D25" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="E25" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="F25" t="n">
-        <v>380</v>
+        <v>15004.4183</v>
       </c>
       <c r="G25" t="n">
         <v>27.21333333333332</v>
@@ -1341,7 +1353,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1357,22 +1369,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="C26" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="D26" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="E26" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="F26" t="n">
-        <v>18885.9131</v>
+        <v>380</v>
       </c>
       <c r="G26" t="n">
-        <v>27.20666666666665</v>
+        <v>27.21333333333332</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1382,7 +1394,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1410,7 +1422,7 @@
         <v>27.1</v>
       </c>
       <c r="F27" t="n">
-        <v>17524</v>
+        <v>18885.9131</v>
       </c>
       <c r="G27" t="n">
         <v>27.20666666666665</v>
@@ -1423,7 +1435,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1439,22 +1451,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="C28" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="D28" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="E28" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="F28" t="n">
-        <v>35100</v>
+        <v>17524</v>
       </c>
       <c r="G28" t="n">
-        <v>27.20166666666665</v>
+        <v>27.20666666666665</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1464,7 +1476,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1480,22 +1492,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C29" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D29" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E29" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F29" t="n">
-        <v>7900</v>
+        <v>35100</v>
       </c>
       <c r="G29" t="n">
-        <v>27.19833333333332</v>
+        <v>27.20166666666665</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1505,7 +1517,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1533,20 +1545,22 @@
         <v>27.3</v>
       </c>
       <c r="F30" t="n">
-        <v>2900</v>
+        <v>7900</v>
       </c>
       <c r="G30" t="n">
-        <v>27.19999999999998</v>
+        <v>27.19833333333332</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K30" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1565,19 +1579,19 @@
         <v>27.3</v>
       </c>
       <c r="C31" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D31" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E31" t="n">
         <v>27.3</v>
       </c>
       <c r="F31" t="n">
-        <v>87266</v>
+        <v>2900</v>
       </c>
       <c r="G31" t="n">
-        <v>27.20333333333332</v>
+        <v>27.19999999999998</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1587,7 +1601,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1603,22 +1617,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C32" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="D32" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="E32" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F32" t="n">
-        <v>6600</v>
+        <v>87266</v>
       </c>
       <c r="G32" t="n">
-        <v>27.20499999999998</v>
+        <v>27.20333333333332</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1628,7 +1642,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1644,19 +1658,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C33" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D33" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E33" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F33" t="n">
-        <v>8180</v>
+        <v>6600</v>
       </c>
       <c r="G33" t="n">
         <v>27.20499999999998</v>
@@ -1669,7 +1683,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1685,22 +1699,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C34" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D34" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E34" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F34" t="n">
-        <v>1898.1989</v>
+        <v>8180</v>
       </c>
       <c r="G34" t="n">
-        <v>27.20333333333332</v>
+        <v>27.20499999999998</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1710,7 +1724,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1729,19 +1743,19 @@
         <v>27.2</v>
       </c>
       <c r="C35" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="D35" t="n">
         <v>27.2</v>
       </c>
       <c r="E35" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="F35" t="n">
-        <v>35908.672</v>
+        <v>1898.1989</v>
       </c>
       <c r="G35" t="n">
-        <v>27.19999999999999</v>
+        <v>27.20333333333332</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1751,7 +1765,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1767,19 +1781,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C36" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="D36" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E36" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>35908.672</v>
       </c>
       <c r="G36" t="n">
         <v>27.19999999999999</v>
@@ -1792,7 +1806,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1820,10 +1834,10 @@
         <v>27.3</v>
       </c>
       <c r="F37" t="n">
-        <v>23952.6623</v>
+        <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>27.20499999999998</v>
+        <v>27.19999999999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1833,7 +1847,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1849,19 +1863,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C38" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D38" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E38" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F38" t="n">
-        <v>10</v>
+        <v>23952.6623</v>
       </c>
       <c r="G38" t="n">
         <v>27.20499999999998</v>
@@ -1874,7 +1888,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1902,7 +1916,7 @@
         <v>27.4</v>
       </c>
       <c r="F39" t="n">
-        <v>19373.6496</v>
+        <v>10</v>
       </c>
       <c r="G39" t="n">
         <v>27.20499999999998</v>
@@ -1915,7 +1929,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1943,10 +1957,10 @@
         <v>27.4</v>
       </c>
       <c r="F40" t="n">
-        <v>2000</v>
+        <v>19373.6496</v>
       </c>
       <c r="G40" t="n">
-        <v>27.21166666666665</v>
+        <v>27.20499999999998</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1956,7 +1970,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -1984,10 +1998,10 @@
         <v>27.4</v>
       </c>
       <c r="F41" t="n">
-        <v>6616.3776</v>
+        <v>2000</v>
       </c>
       <c r="G41" t="n">
-        <v>27.21833333333332</v>
+        <v>27.21166666666665</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1997,7 +2011,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2013,22 +2027,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C42" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D42" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E42" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F42" t="n">
-        <v>19293.2642</v>
+        <v>6616.3776</v>
       </c>
       <c r="G42" t="n">
-        <v>27.21999999999998</v>
+        <v>27.21833333333332</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2038,7 +2052,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2054,19 +2068,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C43" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D43" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E43" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F43" t="n">
-        <v>21725.1739</v>
+        <v>19293.2642</v>
       </c>
       <c r="G43" t="n">
         <v>27.21999999999998</v>
@@ -2079,7 +2093,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2107,7 +2121,7 @@
         <v>27.4</v>
       </c>
       <c r="F44" t="n">
-        <v>6089.1131</v>
+        <v>21725.1739</v>
       </c>
       <c r="G44" t="n">
         <v>27.21999999999998</v>
@@ -2120,7 +2134,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2136,22 +2150,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C45" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D45" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E45" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F45" t="n">
-        <v>10751</v>
+        <v>6089.1131</v>
       </c>
       <c r="G45" t="n">
-        <v>27.21833333333332</v>
+        <v>27.21999999999998</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2161,7 +2175,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2177,19 +2191,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C46" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="D46" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E46" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F46" t="n">
-        <v>22600</v>
+        <v>10751</v>
       </c>
       <c r="G46" t="n">
         <v>27.21833333333332</v>
@@ -2202,7 +2216,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2218,22 +2232,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C47" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="D47" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="E47" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F47" t="n">
-        <v>35.7568</v>
+        <v>22600</v>
       </c>
       <c r="G47" t="n">
-        <v>27.21666666666665</v>
+        <v>27.21833333333332</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2243,7 +2257,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2259,19 +2273,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C48" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="D48" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E48" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="F48" t="n">
-        <v>9588</v>
+        <v>35.7568</v>
       </c>
       <c r="G48" t="n">
         <v>27.21666666666665</v>
@@ -2284,7 +2298,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2312,7 +2326,7 @@
         <v>27.5</v>
       </c>
       <c r="F49" t="n">
-        <v>83167</v>
+        <v>9588</v>
       </c>
       <c r="G49" t="n">
         <v>27.21666666666665</v>
@@ -2325,7 +2339,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2344,19 +2358,19 @@
         <v>27.5</v>
       </c>
       <c r="C50" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="D50" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E50" t="n">
         <v>27.5</v>
       </c>
       <c r="F50" t="n">
-        <v>17800</v>
+        <v>83167</v>
       </c>
       <c r="G50" t="n">
-        <v>27.21999999999998</v>
+        <v>27.21666666666665</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2366,7 +2380,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2382,7 +2396,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C51" t="n">
         <v>27.6</v>
@@ -2391,13 +2405,13 @@
         <v>27.6</v>
       </c>
       <c r="E51" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F51" t="n">
-        <v>5400</v>
+        <v>17800</v>
       </c>
       <c r="G51" t="n">
-        <v>27.22499999999998</v>
+        <v>27.21999999999998</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2407,7 +2421,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2435,10 +2449,10 @@
         <v>27.6</v>
       </c>
       <c r="F52" t="n">
-        <v>22.7009</v>
+        <v>5400</v>
       </c>
       <c r="G52" t="n">
-        <v>27.23333333333331</v>
+        <v>27.22499999999998</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2448,7 +2462,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2464,22 +2478,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="C53" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="D53" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E53" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F53" t="n">
-        <v>500</v>
+        <v>22.7009</v>
       </c>
       <c r="G53" t="n">
-        <v>27.24333333333331</v>
+        <v>27.23333333333331</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2489,7 +2503,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2505,22 +2519,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C54" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="D54" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="E54" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F54" t="n">
-        <v>25065.2158</v>
+        <v>500</v>
       </c>
       <c r="G54" t="n">
-        <v>27.25499999999998</v>
+        <v>27.24333333333331</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2530,7 +2544,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2546,22 +2560,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="C55" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="D55" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="E55" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="F55" t="n">
-        <v>588.7641</v>
+        <v>25065.2158</v>
       </c>
       <c r="G55" t="n">
-        <v>27.26333333333331</v>
+        <v>27.25499999999998</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2571,7 +2585,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2587,22 +2601,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C56" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="D56" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="E56" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F56" t="n">
-        <v>2059</v>
+        <v>588.7641</v>
       </c>
       <c r="G56" t="n">
-        <v>27.27333333333331</v>
+        <v>27.26333333333331</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2612,7 +2626,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2640,10 +2654,10 @@
         <v>27.8</v>
       </c>
       <c r="F57" t="n">
-        <v>63400</v>
+        <v>2059</v>
       </c>
       <c r="G57" t="n">
-        <v>27.28333333333331</v>
+        <v>27.27333333333331</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2653,7 +2667,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2669,40 +2683,40 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="C58" t="n">
         <v>27.8</v>
       </c>
       <c r="D58" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="E58" t="n">
         <v>27.8</v>
       </c>
       <c r="F58" t="n">
-        <v>32659.75</v>
+        <v>63400</v>
       </c>
       <c r="G58" t="n">
-        <v>27.29499999999998</v>
+        <v>27.28333333333331</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>1.028457249070632</v>
       </c>
     </row>
     <row r="59">
@@ -2710,38 +2724,32 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="C59" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="D59" t="n">
         <v>28</v>
       </c>
       <c r="E59" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="F59" t="n">
-        <v>1409.8214</v>
+        <v>32659.75</v>
       </c>
       <c r="G59" t="n">
-        <v>27.31166666666665</v>
+        <v>27.29499999999998</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2751,7 +2759,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="C60" t="n">
         <v>28</v>
@@ -2760,13 +2768,13 @@
         <v>28</v>
       </c>
       <c r="E60" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="F60" t="n">
-        <v>74609.68610000001</v>
+        <v>1409.8214</v>
       </c>
       <c r="G60" t="n">
-        <v>27.32666666666665</v>
+        <v>27.31166666666665</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2775,14 +2783,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2795,37 +2797,31 @@
         <v>27.9</v>
       </c>
       <c r="C61" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="D61" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="E61" t="n">
         <v>27.8</v>
       </c>
       <c r="F61" t="n">
-        <v>1040</v>
+        <v>74609.68610000001</v>
       </c>
       <c r="G61" t="n">
-        <v>27.33999999999998</v>
+        <v>27.32666666666665</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>1.017058823529412</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2833,22 +2829,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="C62" t="n">
         <v>27.8</v>
       </c>
-      <c r="C62" t="n">
-        <v>27.6</v>
-      </c>
       <c r="D62" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E62" t="n">
         <v>27.8</v>
       </c>
-      <c r="E62" t="n">
-        <v>27.6</v>
-      </c>
       <c r="F62" t="n">
-        <v>3800.1499</v>
+        <v>1040</v>
       </c>
       <c r="G62" t="n">
-        <v>27.34666666666664</v>
+        <v>27.33999999999998</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2868,22 +2864,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="C63" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="D63" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="E63" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F63" t="n">
-        <v>10</v>
+        <v>3800.1499</v>
       </c>
       <c r="G63" t="n">
-        <v>27.35833333333331</v>
+        <v>27.34666666666664</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2903,22 +2899,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="C64" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="D64" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="E64" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="F64" t="n">
-        <v>6400</v>
+        <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>27.36666666666664</v>
+        <v>27.35833333333331</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2950,10 +2946,10 @@
         <v>27.5</v>
       </c>
       <c r="F65" t="n">
-        <v>8600</v>
+        <v>6400</v>
       </c>
       <c r="G65" t="n">
-        <v>27.37499999999998</v>
+        <v>27.36666666666664</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2985,10 +2981,10 @@
         <v>27.5</v>
       </c>
       <c r="F66" t="n">
-        <v>225488.7964</v>
+        <v>8600</v>
       </c>
       <c r="G66" t="n">
-        <v>27.38499999999998</v>
+        <v>27.37499999999998</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3008,22 +3004,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C67" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D67" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E67" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F67" t="n">
-        <v>8691.758</v>
+        <v>225488.7964</v>
       </c>
       <c r="G67" t="n">
-        <v>27.39333333333331</v>
+        <v>27.38499999999998</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3043,22 +3039,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C68" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D68" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E68" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F68" t="n">
-        <v>10</v>
+        <v>8691.758</v>
       </c>
       <c r="G68" t="n">
-        <v>27.40333333333331</v>
+        <v>27.39333333333331</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3078,22 +3074,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C69" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D69" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E69" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F69" t="n">
-        <v>1406.2968</v>
+        <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>27.41166666666664</v>
+        <v>27.40333333333331</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3113,22 +3109,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C70" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D70" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E70" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F70" t="n">
-        <v>23823.5192</v>
+        <v>1406.2968</v>
       </c>
       <c r="G70" t="n">
-        <v>27.42166666666664</v>
+        <v>27.41166666666664</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3148,22 +3144,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C71" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D71" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E71" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F71" t="n">
-        <v>3865.2932</v>
+        <v>23823.5192</v>
       </c>
       <c r="G71" t="n">
-        <v>27.42499999999997</v>
+        <v>27.42166666666664</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3195,10 +3191,10 @@
         <v>27.4</v>
       </c>
       <c r="F72" t="n">
-        <v>10661.3525</v>
+        <v>3865.2932</v>
       </c>
       <c r="G72" t="n">
-        <v>27.42833333333331</v>
+        <v>27.42499999999997</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3218,22 +3214,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C73" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D73" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E73" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F73" t="n">
-        <v>118485.5596</v>
+        <v>10661.3525</v>
       </c>
       <c r="G73" t="n">
-        <v>27.42499999999997</v>
+        <v>27.42833333333331</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3253,22 +3249,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C74" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D74" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E74" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F74" t="n">
-        <v>33571.3254</v>
+        <v>118485.5596</v>
       </c>
       <c r="G74" t="n">
-        <v>27.41999999999997</v>
+        <v>27.42499999999997</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3291,19 +3287,19 @@
         <v>27.2</v>
       </c>
       <c r="C75" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="D75" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="E75" t="n">
         <v>27.2</v>
       </c>
       <c r="F75" t="n">
-        <v>17335.8794</v>
+        <v>33571.3254</v>
       </c>
       <c r="G75" t="n">
-        <v>27.42666666666664</v>
+        <v>27.41999999999997</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3323,7 +3319,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="C76" t="n">
         <v>27.4</v>
@@ -3332,13 +3328,13 @@
         <v>27.4</v>
       </c>
       <c r="E76" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="F76" t="n">
-        <v>2031.0653</v>
+        <v>17335.8794</v>
       </c>
       <c r="G76" t="n">
-        <v>27.43166666666665</v>
+        <v>27.42666666666664</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3358,22 +3354,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C77" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D77" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E77" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F77" t="n">
-        <v>27124.7375</v>
+        <v>2031.0653</v>
       </c>
       <c r="G77" t="n">
-        <v>27.42999999999997</v>
+        <v>27.43166666666665</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3405,7 +3401,7 @@
         <v>27.3</v>
       </c>
       <c r="F78" t="n">
-        <v>14084.2124</v>
+        <v>27124.7375</v>
       </c>
       <c r="G78" t="n">
         <v>27.42999999999997</v>
@@ -3440,7 +3436,7 @@
         <v>27.3</v>
       </c>
       <c r="F79" t="n">
-        <v>7000</v>
+        <v>14084.2124</v>
       </c>
       <c r="G79" t="n">
         <v>27.42999999999997</v>
@@ -3475,7 +3471,7 @@
         <v>27.3</v>
       </c>
       <c r="F80" t="n">
-        <v>12963.9999</v>
+        <v>7000</v>
       </c>
       <c r="G80" t="n">
         <v>27.42999999999997</v>
@@ -3510,10 +3506,10 @@
         <v>27.3</v>
       </c>
       <c r="F81" t="n">
-        <v>11582.2102</v>
+        <v>12963.9999</v>
       </c>
       <c r="G81" t="n">
-        <v>27.43166666666664</v>
+        <v>27.42999999999997</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3545,10 +3541,10 @@
         <v>27.3</v>
       </c>
       <c r="F82" t="n">
-        <v>9604.2912</v>
+        <v>11582.2102</v>
       </c>
       <c r="G82" t="n">
-        <v>27.43499999999998</v>
+        <v>27.43166666666664</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3568,22 +3564,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C83" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="D83" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E83" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="F83" t="n">
-        <v>42933.1122</v>
+        <v>9604.2912</v>
       </c>
       <c r="G83" t="n">
-        <v>27.43333333333331</v>
+        <v>27.43499999999998</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3606,19 +3602,19 @@
         <v>27.2</v>
       </c>
       <c r="C84" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="D84" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E84" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="F84" t="n">
-        <v>2442.6187</v>
+        <v>42933.1122</v>
       </c>
       <c r="G84" t="n">
-        <v>27.43666666666664</v>
+        <v>27.43333333333331</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3638,22 +3634,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="C85" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D85" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E85" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="F85" t="n">
-        <v>19497</v>
+        <v>2442.6187</v>
       </c>
       <c r="G85" t="n">
-        <v>27.43833333333331</v>
+        <v>27.43666666666664</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3673,22 +3669,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C86" t="n">
         <v>27.4</v>
       </c>
       <c r="D86" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E86" t="n">
         <v>27.4</v>
       </c>
       <c r="F86" t="n">
-        <v>7287.1636</v>
+        <v>19497</v>
       </c>
       <c r="G86" t="n">
-        <v>27.44333333333331</v>
+        <v>27.43833333333331</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3708,7 +3704,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C87" t="n">
         <v>27.4</v>
@@ -3720,10 +3716,10 @@
         <v>27.4</v>
       </c>
       <c r="F87" t="n">
-        <v>3964.7432</v>
+        <v>7287.1636</v>
       </c>
       <c r="G87" t="n">
-        <v>27.44833333333332</v>
+        <v>27.44333333333331</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3743,7 +3739,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C88" t="n">
         <v>27.4</v>
@@ -3755,10 +3751,10 @@
         <v>27.4</v>
       </c>
       <c r="F88" t="n">
-        <v>3376.8789</v>
+        <v>3964.7432</v>
       </c>
       <c r="G88" t="n">
-        <v>27.45166666666665</v>
+        <v>27.44833333333332</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3778,22 +3774,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C89" t="n">
         <v>27.4</v>
       </c>
       <c r="D89" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E89" t="n">
         <v>27.4</v>
       </c>
       <c r="F89" t="n">
-        <v>46587.0745</v>
+        <v>3376.8789</v>
       </c>
       <c r="G89" t="n">
-        <v>27.45333333333332</v>
+        <v>27.45166666666665</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3825,10 +3821,10 @@
         <v>27.4</v>
       </c>
       <c r="F90" t="n">
-        <v>9375.844800000001</v>
+        <v>46587.0745</v>
       </c>
       <c r="G90" t="n">
-        <v>27.45499999999999</v>
+        <v>27.45333333333332</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3860,7 +3856,7 @@
         <v>27.4</v>
       </c>
       <c r="F91" t="n">
-        <v>9936.7816</v>
+        <v>9375.844800000001</v>
       </c>
       <c r="G91" t="n">
         <v>27.45499999999999</v>
@@ -3895,10 +3891,10 @@
         <v>27.4</v>
       </c>
       <c r="F92" t="n">
-        <v>5259.1263</v>
+        <v>9936.7816</v>
       </c>
       <c r="G92" t="n">
-        <v>27.45833333333332</v>
+        <v>27.45499999999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3930,10 +3926,10 @@
         <v>27.4</v>
       </c>
       <c r="F93" t="n">
-        <v>10035.0976</v>
+        <v>5259.1263</v>
       </c>
       <c r="G93" t="n">
-        <v>27.45999999999999</v>
+        <v>27.45833333333332</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3965,10 +3961,10 @@
         <v>27.4</v>
       </c>
       <c r="F94" t="n">
-        <v>78171.17110000001</v>
+        <v>10035.0976</v>
       </c>
       <c r="G94" t="n">
-        <v>27.46333333333332</v>
+        <v>27.45999999999999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4000,10 +3996,10 @@
         <v>27.4</v>
       </c>
       <c r="F95" t="n">
-        <v>16818.7826</v>
+        <v>78171.17110000001</v>
       </c>
       <c r="G95" t="n">
-        <v>27.46833333333333</v>
+        <v>27.46333333333332</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4035,10 +4031,10 @@
         <v>27.4</v>
       </c>
       <c r="F96" t="n">
-        <v>3778.4091</v>
+        <v>16818.7826</v>
       </c>
       <c r="G96" t="n">
-        <v>27.47</v>
+        <v>27.46833333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4058,22 +4054,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="C97" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="D97" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="E97" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="F97" t="n">
-        <v>10</v>
+        <v>3778.4091</v>
       </c>
       <c r="G97" t="n">
-        <v>27.47666666666667</v>
+        <v>27.47</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4093,19 +4089,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="C98" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="D98" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="E98" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="F98" t="n">
-        <v>5929.1998</v>
+        <v>10</v>
       </c>
       <c r="G98" t="n">
         <v>27.47666666666667</v>
@@ -4128,22 +4124,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="C99" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D99" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="E99" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F99" t="n">
-        <v>16904.4151</v>
+        <v>5929.1998</v>
       </c>
       <c r="G99" t="n">
-        <v>27.475</v>
+        <v>27.47666666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4175,10 +4171,10 @@
         <v>27.3</v>
       </c>
       <c r="F100" t="n">
-        <v>1301.1475</v>
+        <v>16904.4151</v>
       </c>
       <c r="G100" t="n">
-        <v>27.47333333333333</v>
+        <v>27.475</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4210,10 +4206,10 @@
         <v>27.3</v>
       </c>
       <c r="F101" t="n">
-        <v>15718.7765</v>
+        <v>1301.1475</v>
       </c>
       <c r="G101" t="n">
-        <v>27.47166666666666</v>
+        <v>27.47333333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4245,10 +4241,10 @@
         <v>27.3</v>
       </c>
       <c r="F102" t="n">
-        <v>3755.7862</v>
+        <v>15718.7765</v>
       </c>
       <c r="G102" t="n">
-        <v>27.46833333333332</v>
+        <v>27.47166666666666</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4280,10 +4276,10 @@
         <v>27.3</v>
       </c>
       <c r="F103" t="n">
-        <v>682.5018</v>
+        <v>3755.7862</v>
       </c>
       <c r="G103" t="n">
-        <v>27.46666666666665</v>
+        <v>27.46833333333332</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4315,10 +4311,10 @@
         <v>27.3</v>
       </c>
       <c r="F104" t="n">
-        <v>8474</v>
+        <v>682.5018</v>
       </c>
       <c r="G104" t="n">
-        <v>27.46499999999999</v>
+        <v>27.46666666666665</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4341,19 +4337,19 @@
         <v>27.3</v>
       </c>
       <c r="C105" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D105" t="n">
         <v>27.3</v>
       </c>
       <c r="E105" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F105" t="n">
-        <v>3726.37</v>
+        <v>8474</v>
       </c>
       <c r="G105" t="n">
-        <v>27.46333333333332</v>
+        <v>27.46499999999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4376,19 +4372,19 @@
         <v>27.3</v>
       </c>
       <c r="C106" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D106" t="n">
         <v>27.3</v>
       </c>
       <c r="E106" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F106" t="n">
-        <v>8402.567300000001</v>
+        <v>3726.37</v>
       </c>
       <c r="G106" t="n">
-        <v>27.45999999999999</v>
+        <v>27.46333333333332</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4420,7 +4416,7 @@
         <v>27.3</v>
       </c>
       <c r="F107" t="n">
-        <v>13503.9765</v>
+        <v>8402.567300000001</v>
       </c>
       <c r="G107" t="n">
         <v>27.45999999999999</v>
@@ -4455,10 +4451,10 @@
         <v>27.3</v>
       </c>
       <c r="F108" t="n">
-        <v>1532.9071</v>
+        <v>13503.9765</v>
       </c>
       <c r="G108" t="n">
-        <v>27.45666666666665</v>
+        <v>27.45999999999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4478,22 +4474,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C109" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D109" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E109" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F109" t="n">
-        <v>14600</v>
+        <v>1532.9071</v>
       </c>
       <c r="G109" t="n">
-        <v>27.45166666666665</v>
+        <v>27.45666666666665</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4513,22 +4509,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C110" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D110" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E110" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F110" t="n">
-        <v>1659</v>
+        <v>14600</v>
       </c>
       <c r="G110" t="n">
-        <v>27.44666666666665</v>
+        <v>27.45166666666665</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4560,10 +4556,10 @@
         <v>27.3</v>
       </c>
       <c r="F111" t="n">
-        <v>5830.9069</v>
+        <v>1659</v>
       </c>
       <c r="G111" t="n">
-        <v>27.44166666666666</v>
+        <v>27.44666666666665</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4586,19 +4582,19 @@
         <v>27.3</v>
       </c>
       <c r="C112" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D112" t="n">
         <v>27.3</v>
       </c>
       <c r="E112" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F112" t="n">
-        <v>37632.139</v>
+        <v>5830.9069</v>
       </c>
       <c r="G112" t="n">
-        <v>27.43499999999999</v>
+        <v>27.44166666666666</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4618,22 +4614,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C113" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="D113" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E113" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="F113" t="n">
-        <v>8769.0931</v>
+        <v>37632.139</v>
       </c>
       <c r="G113" t="n">
-        <v>27.42999999999999</v>
+        <v>27.43499999999999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4653,22 +4649,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C114" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D114" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E114" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="F114" t="n">
-        <v>10</v>
+        <v>8769.0931</v>
       </c>
       <c r="G114" t="n">
-        <v>27.42666666666666</v>
+        <v>27.42999999999999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4688,22 +4684,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="C115" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="D115" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="E115" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="F115" t="n">
-        <v>4903.6038</v>
+        <v>10</v>
       </c>
       <c r="G115" t="n">
-        <v>27.42166666666666</v>
+        <v>27.42666666666666</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4723,22 +4719,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C116" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D116" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E116" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="F116" t="n">
-        <v>10</v>
+        <v>4903.6038</v>
       </c>
       <c r="G116" t="n">
-        <v>27.41833333333333</v>
+        <v>27.42166666666666</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4758,22 +4754,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="C117" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="D117" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="E117" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="F117" t="n">
         <v>10</v>
       </c>
       <c r="G117" t="n">
-        <v>27.40833333333332</v>
+        <v>27.41833333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4793,22 +4789,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="C118" t="n">
         <v>27.2</v>
       </c>
       <c r="D118" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="E118" t="n">
         <v>27.2</v>
       </c>
       <c r="F118" t="n">
-        <v>15810</v>
+        <v>10</v>
       </c>
       <c r="G118" t="n">
-        <v>27.39833333333333</v>
+        <v>27.40833333333332</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4828,10 +4824,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="C119" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="D119" t="n">
         <v>27.6</v>
@@ -4840,10 +4836,10 @@
         <v>27.2</v>
       </c>
       <c r="F119" t="n">
-        <v>70</v>
+        <v>15810</v>
       </c>
       <c r="G119" t="n">
-        <v>27.39166666666666</v>
+        <v>27.39833333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4863,7 +4859,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="C120" t="n">
         <v>27.6</v>
@@ -4872,13 +4868,13 @@
         <v>27.6</v>
       </c>
       <c r="E120" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="F120" t="n">
-        <v>2188.4025</v>
+        <v>70</v>
       </c>
       <c r="G120" t="n">
-        <v>27.38499999999999</v>
+        <v>27.39166666666666</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4901,19 +4897,19 @@
         <v>27.6</v>
       </c>
       <c r="C121" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="D121" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E121" t="n">
         <v>27.6</v>
       </c>
       <c r="F121" t="n">
-        <v>400</v>
+        <v>2188.4025</v>
       </c>
       <c r="G121" t="n">
-        <v>27.38333333333333</v>
+        <v>27.38499999999999</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4933,7 +4929,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="C122" t="n">
         <v>27.7</v>
@@ -4942,13 +4938,13 @@
         <v>27.7</v>
       </c>
       <c r="E122" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F122" t="n">
-        <v>1323.7978</v>
+        <v>400</v>
       </c>
       <c r="G122" t="n">
-        <v>27.38499999999999</v>
+        <v>27.38333333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4968,22 +4964,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="C123" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="D123" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E123" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="F123" t="n">
-        <v>20</v>
+        <v>1323.7978</v>
       </c>
       <c r="G123" t="n">
-        <v>27.38166666666666</v>
+        <v>27.38499999999999</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5003,22 +4999,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="C124" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D124" t="n">
         <v>27.6</v>
       </c>
-      <c r="D124" t="n">
-        <v>27.7</v>
-      </c>
       <c r="E124" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F124" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G124" t="n">
-        <v>27.38333333333333</v>
+        <v>27.38166666666666</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5038,22 +5034,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C125" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="D125" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="E125" t="n">
         <v>27.4</v>
       </c>
       <c r="F125" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G125" t="n">
-        <v>27.38166666666666</v>
+        <v>27.38333333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5073,22 +5069,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C126" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D126" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E126" t="n">
         <v>27.4</v>
       </c>
       <c r="F126" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G126" t="n">
-        <v>27.38333333333333</v>
+        <v>27.38166666666666</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5111,7 +5107,7 @@
         <v>27.4</v>
       </c>
       <c r="C127" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="D127" t="n">
         <v>27.6</v>
@@ -5120,7 +5116,7 @@
         <v>27.4</v>
       </c>
       <c r="F127" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G127" t="n">
         <v>27.38333333333333</v>
@@ -5143,7 +5139,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C128" t="n">
         <v>27.4</v>
@@ -5155,10 +5151,10 @@
         <v>27.4</v>
       </c>
       <c r="F128" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G128" t="n">
-        <v>27.38166666666666</v>
+        <v>27.38333333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5181,19 +5177,19 @@
         <v>27.6</v>
       </c>
       <c r="C129" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D129" t="n">
         <v>27.6</v>
       </c>
       <c r="E129" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="F129" t="n">
-        <v>3587.5181</v>
+        <v>20</v>
       </c>
       <c r="G129" t="n">
-        <v>27.38499999999999</v>
+        <v>27.38166666666666</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5213,22 +5209,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C130" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="D130" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E130" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="F130" t="n">
-        <v>20</v>
+        <v>3587.5181</v>
       </c>
       <c r="G130" t="n">
-        <v>27.38333333333333</v>
+        <v>27.38499999999999</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5248,19 +5244,19 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C131" t="n">
         <v>27.4</v>
       </c>
       <c r="D131" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="E131" t="n">
         <v>27.4</v>
       </c>
       <c r="F131" t="n">
-        <v>39499.0397</v>
+        <v>20</v>
       </c>
       <c r="G131" t="n">
         <v>27.38333333333333</v>
@@ -5283,22 +5279,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C132" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D132" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="E132" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F132" t="n">
-        <v>10</v>
+        <v>39499.0397</v>
       </c>
       <c r="G132" t="n">
-        <v>27.38499999999999</v>
+        <v>27.38333333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5318,22 +5314,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="C133" t="n">
-        <v>27.9</v>
+        <v>27.5</v>
       </c>
       <c r="D133" t="n">
-        <v>27.9</v>
+        <v>27.5</v>
       </c>
       <c r="E133" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="F133" t="n">
-        <v>15300</v>
+        <v>10</v>
       </c>
       <c r="G133" t="n">
-        <v>27.39499999999999</v>
+        <v>27.38499999999999</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5353,22 +5349,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="C134" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="D134" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="E134" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="F134" t="n">
-        <v>20</v>
+        <v>15300</v>
       </c>
       <c r="G134" t="n">
-        <v>27.40833333333332</v>
+        <v>27.39499999999999</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5388,22 +5384,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="C135" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="D135" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="E135" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F135" t="n">
         <v>20</v>
       </c>
       <c r="G135" t="n">
-        <v>27.41166666666665</v>
+        <v>27.40833333333332</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5423,22 +5419,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="C136" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D136" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="E136" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F136" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G136" t="n">
-        <v>27.41333333333332</v>
+        <v>27.41166666666665</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5461,19 +5457,19 @@
         <v>27.5</v>
       </c>
       <c r="C137" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="D137" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="E137" t="n">
         <v>27.5</v>
       </c>
       <c r="F137" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G137" t="n">
-        <v>27.42499999999999</v>
+        <v>27.41333333333332</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5493,22 +5489,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="C138" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="D138" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="E138" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="F138" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="G138" t="n">
-        <v>27.43333333333332</v>
+        <v>27.42499999999999</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5528,22 +5524,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="C139" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="D139" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="E139" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="F139" t="n">
-        <v>95002.1182</v>
+        <v>10</v>
       </c>
       <c r="G139" t="n">
-        <v>27.44333333333332</v>
+        <v>27.43333333333332</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5558,6 +5554,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C140" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D140" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E140" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>95002.1182</v>
+      </c>
+      <c r="G140" t="n">
+        <v>27.44333333333332</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-01 BackTest LOOM.xlsx
+++ b/BackTest/2019-11-01 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M140"/>
+  <dimension ref="A1:N150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>19200</v>
       </c>
       <c r="G2" t="n">
+        <v>27.21333333333334</v>
+      </c>
+      <c r="H2" t="n">
         <v>27.23166666666664</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>10</v>
       </c>
       <c r="G3" t="n">
+        <v>27.20000000000001</v>
+      </c>
+      <c r="H3" t="n">
         <v>27.23166666666664</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>28927.7509</v>
       </c>
       <c r="G4" t="n">
+        <v>27.16666666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>27.22833333333331</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>41839.5571</v>
       </c>
       <c r="G5" t="n">
+        <v>27.13333333333334</v>
+      </c>
+      <c r="H5" t="n">
         <v>27.22499999999997</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>22000</v>
       </c>
       <c r="G6" t="n">
+        <v>27.10666666666668</v>
+      </c>
+      <c r="H6" t="n">
         <v>27.21833333333331</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>9034.5209</v>
       </c>
       <c r="G7" t="n">
+        <v>27.08000000000001</v>
+      </c>
+      <c r="H7" t="n">
         <v>27.20833333333331</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>77813.2205</v>
       </c>
       <c r="G8" t="n">
+        <v>27.06666666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>27.20499999999998</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>27823.9204</v>
       </c>
       <c r="G9" t="n">
+        <v>27.05333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>27.20333333333331</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,22 +757,21 @@
         <v>1116.9144</v>
       </c>
       <c r="G10" t="n">
+        <v>27.04</v>
+      </c>
+      <c r="H10" t="n">
         <v>27.20166666666665</v>
       </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K10" t="n">
-        <v>26.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -767,24 +795,25 @@
         <v>1808.2998</v>
       </c>
       <c r="G11" t="n">
+        <v>27.02</v>
+      </c>
+      <c r="H11" t="n">
         <v>27.19666666666665</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="n">
         <v>26.9</v>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
+      <c r="L11" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -808,26 +837,29 @@
         <v>3833</v>
       </c>
       <c r="G12" t="n">
+        <v>27.02</v>
+      </c>
+      <c r="H12" t="n">
         <v>27.19666666666665</v>
       </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>26.9</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>26.9</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -851,24 +883,29 @@
         <v>7881.3308</v>
       </c>
       <c r="G13" t="n">
+        <v>27.02</v>
+      </c>
+      <c r="H13" t="n">
         <v>27.19999999999998</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L13" t="inlineStr">
+        <v>27.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -892,24 +929,27 @@
         <v>7318.5127</v>
       </c>
       <c r="G14" t="n">
+        <v>27.04666666666666</v>
+      </c>
+      <c r="H14" t="n">
         <v>27.20833333333331</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -933,24 +973,27 @@
         <v>63321.3636</v>
       </c>
       <c r="G15" t="n">
+        <v>27.07999999999999</v>
+      </c>
+      <c r="H15" t="n">
         <v>27.21666666666665</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -974,24 +1017,27 @@
         <v>3227.905</v>
       </c>
       <c r="G16" t="n">
+        <v>27.07333333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>27.21499999999998</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1015,24 +1061,27 @@
         <v>90</v>
       </c>
       <c r="G17" t="n">
+        <v>27.07999999999999</v>
+      </c>
+      <c r="H17" t="n">
         <v>27.21499999999998</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1056,24 +1105,27 @@
         <v>10</v>
       </c>
       <c r="G18" t="n">
+        <v>27.09333333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>27.21666666666665</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1097,24 +1149,27 @@
         <v>25713.3522</v>
       </c>
       <c r="G19" t="n">
+        <v>27.11333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>27.21666666666665</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1138,24 +1193,27 @@
         <v>1759.1752</v>
       </c>
       <c r="G20" t="n">
+        <v>27.13333333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>27.21999999999998</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1179,24 +1237,27 @@
         <v>643.1135</v>
       </c>
       <c r="G21" t="n">
+        <v>27.15333333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>27.21999999999998</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1220,24 +1281,27 @@
         <v>43210.8471</v>
       </c>
       <c r="G22" t="n">
+        <v>27.17333333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>27.22333333333332</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1261,24 +1325,27 @@
         <v>24593.1517</v>
       </c>
       <c r="G23" t="n">
+        <v>27.18666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>27.21999999999998</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1302,24 +1369,29 @@
         <v>1835.9674</v>
       </c>
       <c r="G24" t="n">
+        <v>27.20666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>27.21833333333332</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L24" t="inlineStr">
+        <v>27.1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1343,24 +1415,29 @@
         <v>15004.4183</v>
       </c>
       <c r="G25" t="n">
+        <v>27.22000000000001</v>
+      </c>
+      <c r="H25" t="n">
         <v>27.21333333333332</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L25" t="inlineStr">
+        <v>27.2</v>
+      </c>
+      <c r="L25" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,24 +1461,29 @@
         <v>380</v>
       </c>
       <c r="G26" t="n">
+        <v>27.24666666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>27.21333333333332</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L26" t="inlineStr">
+        <v>27.1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1425,24 +1507,29 @@
         <v>18885.9131</v>
       </c>
       <c r="G27" t="n">
+        <v>27.24000000000001</v>
+      </c>
+      <c r="H27" t="n">
         <v>27.20666666666665</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L27" t="inlineStr">
+        <v>27.3</v>
+      </c>
+      <c r="L27" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1466,24 +1553,29 @@
         <v>17524</v>
       </c>
       <c r="G28" t="n">
+        <v>27.23333333333334</v>
+      </c>
+      <c r="H28" t="n">
         <v>27.20666666666665</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L28" t="inlineStr">
+        <v>27.1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1507,24 +1599,29 @@
         <v>35100</v>
       </c>
       <c r="G29" t="n">
+        <v>27.21333333333335</v>
+      </c>
+      <c r="H29" t="n">
         <v>27.20166666666665</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L29" t="inlineStr">
+        <v>27.1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1548,26 +1645,27 @@
         <v>7900</v>
       </c>
       <c r="G30" t="n">
+        <v>27.20000000000001</v>
+      </c>
+      <c r="H30" t="n">
         <v>27.19833333333332</v>
       </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K30" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L30" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1591,24 +1689,27 @@
         <v>2900</v>
       </c>
       <c r="G31" t="n">
+        <v>27.22000000000001</v>
+      </c>
+      <c r="H31" t="n">
         <v>27.19999999999998</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1632,24 +1733,27 @@
         <v>87266</v>
       </c>
       <c r="G32" t="n">
+        <v>27.24000000000001</v>
+      </c>
+      <c r="H32" t="n">
         <v>27.20333333333332</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,24 +1777,27 @@
         <v>6600</v>
       </c>
       <c r="G33" t="n">
+        <v>27.22666666666668</v>
+      </c>
+      <c r="H33" t="n">
         <v>27.20499999999998</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1714,24 +1821,27 @@
         <v>8180</v>
       </c>
       <c r="G34" t="n">
+        <v>27.22666666666668</v>
+      </c>
+      <c r="H34" t="n">
         <v>27.20499999999998</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1755,24 +1865,27 @@
         <v>1898.1989</v>
       </c>
       <c r="G35" t="n">
+        <v>27.22000000000001</v>
+      </c>
+      <c r="H35" t="n">
         <v>27.20333333333332</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1796,24 +1909,27 @@
         <v>35908.672</v>
       </c>
       <c r="G36" t="n">
+        <v>27.20666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>27.19999999999999</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1837,24 +1953,27 @@
         <v>10</v>
       </c>
       <c r="G37" t="n">
+        <v>27.21333333333335</v>
+      </c>
+      <c r="H37" t="n">
         <v>27.19999999999999</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1878,24 +1997,27 @@
         <v>23952.6623</v>
       </c>
       <c r="G38" t="n">
+        <v>27.22666666666668</v>
+      </c>
+      <c r="H38" t="n">
         <v>27.20499999999998</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1919,24 +2041,27 @@
         <v>10</v>
       </c>
       <c r="G39" t="n">
+        <v>27.24000000000001</v>
+      </c>
+      <c r="H39" t="n">
         <v>27.20499999999998</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1960,24 +2085,27 @@
         <v>19373.6496</v>
       </c>
       <c r="G40" t="n">
+        <v>27.26000000000001</v>
+      </c>
+      <c r="H40" t="n">
         <v>27.20499999999998</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2001,24 +2129,27 @@
         <v>2000</v>
       </c>
       <c r="G41" t="n">
+        <v>27.26666666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>27.21166666666665</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2042,24 +2173,27 @@
         <v>6616.3776</v>
       </c>
       <c r="G42" t="n">
+        <v>27.28666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>27.21833333333332</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2083,24 +2217,27 @@
         <v>19293.2642</v>
       </c>
       <c r="G43" t="n">
+        <v>27.31333333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>27.21999999999998</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2124,24 +2261,27 @@
         <v>21725.1739</v>
       </c>
       <c r="G44" t="n">
+        <v>27.32666666666666</v>
+      </c>
+      <c r="H44" t="n">
         <v>27.21999999999998</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2165,24 +2305,27 @@
         <v>6089.1131</v>
       </c>
       <c r="G45" t="n">
+        <v>27.33333333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>27.21999999999998</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2206,24 +2349,27 @@
         <v>10751</v>
       </c>
       <c r="G46" t="n">
+        <v>27.33333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>27.21833333333332</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2247,24 +2393,27 @@
         <v>22600</v>
       </c>
       <c r="G47" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="H47" t="n">
         <v>27.21833333333332</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L47" t="inlineStr">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2288,24 +2437,27 @@
         <v>35.7568</v>
       </c>
       <c r="G48" t="n">
+        <v>27.34666666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>27.21666666666665</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2329,24 +2481,27 @@
         <v>9588</v>
       </c>
       <c r="G49" t="n">
+        <v>27.36</v>
+      </c>
+      <c r="H49" t="n">
         <v>27.21666666666665</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2370,24 +2525,27 @@
         <v>83167</v>
       </c>
       <c r="G50" t="n">
+        <v>27.38</v>
+      </c>
+      <c r="H50" t="n">
         <v>27.21666666666665</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2411,24 +2569,27 @@
         <v>17800</v>
       </c>
       <c r="G51" t="n">
+        <v>27.41333333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>27.21999999999998</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,24 +2613,27 @@
         <v>5400</v>
       </c>
       <c r="G52" t="n">
+        <v>27.43333333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>27.22499999999998</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2493,24 +2657,27 @@
         <v>22.7009</v>
       </c>
       <c r="G53" t="n">
+        <v>27.45333333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>27.23333333333331</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2534,24 +2701,27 @@
         <v>500</v>
       </c>
       <c r="G54" t="n">
+        <v>27.47333333333334</v>
+      </c>
+      <c r="H54" t="n">
         <v>27.24333333333331</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2575,24 +2745,27 @@
         <v>25065.2158</v>
       </c>
       <c r="G55" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="H55" t="n">
         <v>27.25499999999998</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2616,24 +2789,27 @@
         <v>588.7641</v>
       </c>
       <c r="G56" t="n">
+        <v>27.52</v>
+      </c>
+      <c r="H56" t="n">
         <v>27.26333333333331</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2657,24 +2833,27 @@
         <v>2059</v>
       </c>
       <c r="G57" t="n">
+        <v>27.54666666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>27.27333333333331</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2698,130 +2877,160 @@
         <v>63400</v>
       </c>
       <c r="G58" t="n">
+        <v>27.56666666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>27.28333333333331</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="L58" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="C59" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D59" t="n">
+        <v>28</v>
+      </c>
+      <c r="E59" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F59" t="n">
+        <v>32659.75</v>
+      </c>
+      <c r="G59" t="n">
+        <v>27.59333333333334</v>
+      </c>
+      <c r="H59" t="n">
+        <v>27.29499999999998</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>28</v>
+      </c>
+      <c r="C60" t="n">
+        <v>28</v>
+      </c>
+      <c r="D60" t="n">
+        <v>28</v>
+      </c>
+      <c r="E60" t="n">
+        <v>28</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1409.8214</v>
+      </c>
+      <c r="G60" t="n">
+        <v>27.63333333333334</v>
+      </c>
+      <c r="H60" t="n">
+        <v>27.31166666666665</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="C61" t="n">
+        <v>28</v>
+      </c>
+      <c r="D61" t="n">
+        <v>28</v>
+      </c>
+      <c r="E61" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F61" t="n">
+        <v>74609.68610000001</v>
+      </c>
+      <c r="G61" t="n">
+        <v>27.68000000000001</v>
+      </c>
+      <c r="H61" t="n">
+        <v>27.32666666666665</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1.028457249070632</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="C59" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D59" t="n">
-        <v>28</v>
-      </c>
-      <c r="E59" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F59" t="n">
-        <v>32659.75</v>
-      </c>
-      <c r="G59" t="n">
-        <v>27.29499999999998</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>28</v>
-      </c>
-      <c r="C60" t="n">
-        <v>28</v>
-      </c>
-      <c r="D60" t="n">
-        <v>28</v>
-      </c>
-      <c r="E60" t="n">
-        <v>28</v>
-      </c>
-      <c r="F60" t="n">
-        <v>1409.8214</v>
-      </c>
-      <c r="G60" t="n">
-        <v>27.31166666666665</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="C61" t="n">
-        <v>28</v>
-      </c>
-      <c r="D61" t="n">
-        <v>28</v>
-      </c>
-      <c r="E61" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F61" t="n">
-        <v>74609.68610000001</v>
-      </c>
-      <c r="G61" t="n">
-        <v>27.32666666666665</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
+      <c r="N61" t="n">
+        <v>1.03589219330855</v>
       </c>
     </row>
     <row r="62">
@@ -2844,18 +3053,21 @@
         <v>1040</v>
       </c>
       <c r="G62" t="n">
+        <v>27.70000000000001</v>
+      </c>
+      <c r="H62" t="n">
         <v>27.33999999999998</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2879,18 +3091,21 @@
         <v>3800.1499</v>
       </c>
       <c r="G63" t="n">
+        <v>27.72000000000001</v>
+      </c>
+      <c r="H63" t="n">
         <v>27.34666666666664</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2914,18 +3129,21 @@
         <v>10</v>
       </c>
       <c r="G64" t="n">
+        <v>27.73333333333334</v>
+      </c>
+      <c r="H64" t="n">
         <v>27.35833333333331</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2949,18 +3167,21 @@
         <v>6400</v>
       </c>
       <c r="G65" t="n">
+        <v>27.73333333333334</v>
+      </c>
+      <c r="H65" t="n">
         <v>27.36666666666664</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,18 +3205,21 @@
         <v>8600</v>
       </c>
       <c r="G66" t="n">
+        <v>27.72666666666668</v>
+      </c>
+      <c r="H66" t="n">
         <v>27.37499999999998</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3019,18 +3243,21 @@
         <v>225488.7964</v>
       </c>
       <c r="G67" t="n">
+        <v>27.72000000000001</v>
+      </c>
+      <c r="H67" t="n">
         <v>27.38499999999998</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3054,18 +3281,21 @@
         <v>8691.758</v>
       </c>
       <c r="G68" t="n">
+        <v>27.70666666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>27.39333333333331</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3089,18 +3319,21 @@
         <v>10</v>
       </c>
       <c r="G69" t="n">
+        <v>27.69333333333334</v>
+      </c>
+      <c r="H69" t="n">
         <v>27.40333333333331</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3124,18 +3357,21 @@
         <v>1406.2968</v>
       </c>
       <c r="G70" t="n">
+        <v>27.66666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>27.41166666666664</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3159,18 +3395,21 @@
         <v>23823.5192</v>
       </c>
       <c r="G71" t="n">
+        <v>27.65333333333334</v>
+      </c>
+      <c r="H71" t="n">
         <v>27.42166666666664</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3194,18 +3433,21 @@
         <v>3865.2932</v>
       </c>
       <c r="G72" t="n">
+        <v>27.62666666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>27.42499999999997</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3229,18 +3471,21 @@
         <v>10661.3525</v>
       </c>
       <c r="G73" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="H73" t="n">
         <v>27.42833333333331</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3264,18 +3509,21 @@
         <v>118485.5596</v>
       </c>
       <c r="G74" t="n">
+        <v>27.56666666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>27.42499999999997</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3299,18 +3547,21 @@
         <v>33571.3254</v>
       </c>
       <c r="G75" t="n">
+        <v>27.51333333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>27.41999999999997</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,18 +3585,21 @@
         <v>17335.8794</v>
       </c>
       <c r="G76" t="n">
+        <v>27.47333333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>27.42666666666664</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3369,18 +3623,21 @@
         <v>2031.0653</v>
       </c>
       <c r="G77" t="n">
+        <v>27.44666666666666</v>
+      </c>
+      <c r="H77" t="n">
         <v>27.43166666666665</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3404,18 +3661,21 @@
         <v>27124.7375</v>
       </c>
       <c r="G78" t="n">
+        <v>27.42666666666666</v>
+      </c>
+      <c r="H78" t="n">
         <v>27.42999999999997</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3439,18 +3699,21 @@
         <v>14084.2124</v>
       </c>
       <c r="G79" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="H79" t="n">
         <v>27.42999999999997</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3474,18 +3737,21 @@
         <v>7000</v>
       </c>
       <c r="G80" t="n">
+        <v>27.38666666666666</v>
+      </c>
+      <c r="H80" t="n">
         <v>27.42999999999997</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3509,18 +3775,21 @@
         <v>12963.9999</v>
       </c>
       <c r="G81" t="n">
+        <v>27.37333333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>27.42999999999997</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3544,18 +3813,21 @@
         <v>11582.2102</v>
       </c>
       <c r="G82" t="n">
+        <v>27.36</v>
+      </c>
+      <c r="H82" t="n">
         <v>27.43166666666664</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3579,18 +3851,21 @@
         <v>9604.2912</v>
       </c>
       <c r="G83" t="n">
+        <v>27.35333333333334</v>
+      </c>
+      <c r="H83" t="n">
         <v>27.43499999999998</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3614,18 +3889,21 @@
         <v>42933.1122</v>
       </c>
       <c r="G84" t="n">
+        <v>27.32666666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>27.43333333333331</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3649,18 +3927,21 @@
         <v>2442.6187</v>
       </c>
       <c r="G85" t="n">
+        <v>27.32</v>
+      </c>
+      <c r="H85" t="n">
         <v>27.43666666666664</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3684,18 +3965,21 @@
         <v>19497</v>
       </c>
       <c r="G86" t="n">
+        <v>27.31333333333334</v>
+      </c>
+      <c r="H86" t="n">
         <v>27.43833333333331</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3719,18 +4003,21 @@
         <v>7287.1636</v>
       </c>
       <c r="G87" t="n">
+        <v>27.31333333333334</v>
+      </c>
+      <c r="H87" t="n">
         <v>27.44333333333331</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3754,18 +4041,21 @@
         <v>3964.7432</v>
       </c>
       <c r="G88" t="n">
+        <v>27.31333333333334</v>
+      </c>
+      <c r="H88" t="n">
         <v>27.44833333333332</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3789,18 +4079,21 @@
         <v>3376.8789</v>
       </c>
       <c r="G89" t="n">
+        <v>27.32</v>
+      </c>
+      <c r="H89" t="n">
         <v>27.45166666666665</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3824,18 +4117,21 @@
         <v>46587.0745</v>
       </c>
       <c r="G90" t="n">
+        <v>27.33333333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>27.45333333333332</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3859,18 +4155,21 @@
         <v>9375.844800000001</v>
       </c>
       <c r="G91" t="n">
+        <v>27.33333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>27.45499999999999</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3894,18 +4193,21 @@
         <v>9936.7816</v>
       </c>
       <c r="G92" t="n">
+        <v>27.33333333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>27.45499999999999</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3929,18 +4231,21 @@
         <v>5259.1263</v>
       </c>
       <c r="G93" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="H93" t="n">
         <v>27.45833333333332</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,18 +4269,21 @@
         <v>10035.0976</v>
       </c>
       <c r="G94" t="n">
+        <v>27.34666666666666</v>
+      </c>
+      <c r="H94" t="n">
         <v>27.45999999999999</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3999,18 +4307,21 @@
         <v>78171.17110000001</v>
       </c>
       <c r="G95" t="n">
+        <v>27.35333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>27.46333333333332</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4034,18 +4345,21 @@
         <v>16818.7826</v>
       </c>
       <c r="G96" t="n">
+        <v>27.35999999999999</v>
+      </c>
+      <c r="H96" t="n">
         <v>27.46833333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,18 +4383,21 @@
         <v>3778.4091</v>
       </c>
       <c r="G97" t="n">
+        <v>27.36666666666666</v>
+      </c>
+      <c r="H97" t="n">
         <v>27.47</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4104,18 +4421,21 @@
         <v>10</v>
       </c>
       <c r="G98" t="n">
+        <v>27.39333333333332</v>
+      </c>
+      <c r="H98" t="n">
         <v>27.47666666666667</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4139,18 +4459,21 @@
         <v>5929.1998</v>
       </c>
       <c r="G99" t="n">
+        <v>27.41333333333332</v>
+      </c>
+      <c r="H99" t="n">
         <v>27.47666666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4174,18 +4497,21 @@
         <v>16904.4151</v>
       </c>
       <c r="G100" t="n">
+        <v>27.41333333333332</v>
+      </c>
+      <c r="H100" t="n">
         <v>27.475</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4209,18 +4535,21 @@
         <v>1301.1475</v>
       </c>
       <c r="G101" t="n">
+        <v>27.40666666666665</v>
+      </c>
+      <c r="H101" t="n">
         <v>27.47333333333333</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4244,18 +4573,21 @@
         <v>15718.7765</v>
       </c>
       <c r="G102" t="n">
+        <v>27.39999999999999</v>
+      </c>
+      <c r="H102" t="n">
         <v>27.47166666666666</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4279,18 +4611,21 @@
         <v>3755.7862</v>
       </c>
       <c r="G103" t="n">
+        <v>27.39333333333332</v>
+      </c>
+      <c r="H103" t="n">
         <v>27.46833333333332</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,18 +4649,21 @@
         <v>682.5018</v>
       </c>
       <c r="G104" t="n">
+        <v>27.38666666666666</v>
+      </c>
+      <c r="H104" t="n">
         <v>27.46666666666665</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4349,18 +4687,21 @@
         <v>8474</v>
       </c>
       <c r="G105" t="n">
+        <v>27.38</v>
+      </c>
+      <c r="H105" t="n">
         <v>27.46499999999999</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4384,18 +4725,21 @@
         <v>3726.37</v>
       </c>
       <c r="G106" t="n">
+        <v>27.36666666666666</v>
+      </c>
+      <c r="H106" t="n">
         <v>27.46333333333332</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4419,18 +4763,21 @@
         <v>8402.567300000001</v>
       </c>
       <c r="G107" t="n">
+        <v>27.36</v>
+      </c>
+      <c r="H107" t="n">
         <v>27.45999999999999</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4454,18 +4801,21 @@
         <v>13503.9765</v>
       </c>
       <c r="G108" t="n">
+        <v>27.35333333333334</v>
+      </c>
+      <c r="H108" t="n">
         <v>27.45999999999999</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4489,18 +4839,21 @@
         <v>1532.9071</v>
       </c>
       <c r="G109" t="n">
+        <v>27.34666666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>27.45666666666665</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4524,18 +4877,21 @@
         <v>14600</v>
       </c>
       <c r="G110" t="n">
+        <v>27.33333333333334</v>
+      </c>
+      <c r="H110" t="n">
         <v>27.45166666666665</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4559,18 +4915,21 @@
         <v>1659</v>
       </c>
       <c r="G111" t="n">
+        <v>27.32666666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>27.44666666666665</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4594,18 +4953,21 @@
         <v>5830.9069</v>
       </c>
       <c r="G112" t="n">
+        <v>27.32000000000001</v>
+      </c>
+      <c r="H112" t="n">
         <v>27.44166666666666</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4629,18 +4991,21 @@
         <v>37632.139</v>
       </c>
       <c r="G113" t="n">
+        <v>27.28666666666668</v>
+      </c>
+      <c r="H113" t="n">
         <v>27.43499999999999</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4664,18 +5029,21 @@
         <v>8769.0931</v>
       </c>
       <c r="G114" t="n">
+        <v>27.28666666666668</v>
+      </c>
+      <c r="H114" t="n">
         <v>27.42999999999999</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4699,18 +5067,21 @@
         <v>10</v>
       </c>
       <c r="G115" t="n">
+        <v>27.30666666666668</v>
+      </c>
+      <c r="H115" t="n">
         <v>27.42666666666666</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4734,18 +5105,21 @@
         <v>4903.6038</v>
       </c>
       <c r="G116" t="n">
+        <v>27.31333333333334</v>
+      </c>
+      <c r="H116" t="n">
         <v>27.42166666666666</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4769,18 +5143,21 @@
         <v>10</v>
       </c>
       <c r="G117" t="n">
+        <v>27.33333333333334</v>
+      </c>
+      <c r="H117" t="n">
         <v>27.41833333333333</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4804,18 +5181,21 @@
         <v>10</v>
       </c>
       <c r="G118" t="n">
+        <v>27.32666666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>27.40833333333332</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4839,18 +5219,21 @@
         <v>15810</v>
       </c>
       <c r="G119" t="n">
+        <v>27.32</v>
+      </c>
+      <c r="H119" t="n">
         <v>27.39833333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4874,18 +5257,21 @@
         <v>70</v>
       </c>
       <c r="G120" t="n">
+        <v>27.34000000000001</v>
+      </c>
+      <c r="H120" t="n">
         <v>27.39166666666666</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4909,18 +5295,21 @@
         <v>2188.4025</v>
       </c>
       <c r="G121" t="n">
+        <v>27.36666666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>27.38499999999999</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4944,18 +5333,21 @@
         <v>400</v>
       </c>
       <c r="G122" t="n">
+        <v>27.39333333333334</v>
+      </c>
+      <c r="H122" t="n">
         <v>27.38333333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4979,18 +5371,21 @@
         <v>1323.7978</v>
       </c>
       <c r="G123" t="n">
+        <v>27.42000000000001</v>
+      </c>
+      <c r="H123" t="n">
         <v>27.38499999999999</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5014,18 +5409,21 @@
         <v>20</v>
       </c>
       <c r="G124" t="n">
+        <v>27.43333333333334</v>
+      </c>
+      <c r="H124" t="n">
         <v>27.38166666666666</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5049,18 +5447,21 @@
         <v>30</v>
       </c>
       <c r="G125" t="n">
+        <v>27.46</v>
+      </c>
+      <c r="H125" t="n">
         <v>27.38333333333333</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5084,18 +5485,21 @@
         <v>20</v>
       </c>
       <c r="G126" t="n">
+        <v>27.46666666666667</v>
+      </c>
+      <c r="H126" t="n">
         <v>27.38166666666666</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5119,18 +5523,21 @@
         <v>60</v>
       </c>
       <c r="G127" t="n">
+        <v>27.48666666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>27.38333333333333</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5154,18 +5561,21 @@
         <v>40</v>
       </c>
       <c r="G128" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="H128" t="n">
         <v>27.38333333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5189,18 +5599,21 @@
         <v>20</v>
       </c>
       <c r="G129" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="H129" t="n">
         <v>27.38166666666666</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5224,18 +5637,21 @@
         <v>3587.5181</v>
       </c>
       <c r="G130" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="H130" t="n">
         <v>27.38499999999999</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5259,18 +5675,21 @@
         <v>20</v>
       </c>
       <c r="G131" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="H131" t="n">
         <v>27.38333333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5294,18 +5713,21 @@
         <v>39499.0397</v>
       </c>
       <c r="G132" t="n">
+        <v>27.48666666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>27.38333333333333</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5329,18 +5751,21 @@
         <v>10</v>
       </c>
       <c r="G133" t="n">
+        <v>27.50666666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>27.38499999999999</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5364,18 +5789,21 @@
         <v>15300</v>
       </c>
       <c r="G134" t="n">
+        <v>27.55333333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>27.39499999999999</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5399,18 +5827,21 @@
         <v>20</v>
       </c>
       <c r="G135" t="n">
+        <v>27.58</v>
+      </c>
+      <c r="H135" t="n">
         <v>27.40833333333332</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5434,18 +5865,21 @@
         <v>20</v>
       </c>
       <c r="G136" t="n">
+        <v>27.58</v>
+      </c>
+      <c r="H136" t="n">
         <v>27.41166666666665</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5469,18 +5903,21 @@
         <v>10</v>
       </c>
       <c r="G137" t="n">
+        <v>27.56666666666667</v>
+      </c>
+      <c r="H137" t="n">
         <v>27.41333333333332</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5504,18 +5941,21 @@
         <v>90</v>
       </c>
       <c r="G138" t="n">
+        <v>27.58666666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>27.42499999999999</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5539,18 +5979,21 @@
         <v>10</v>
       </c>
       <c r="G139" t="n">
+        <v>27.60666666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>27.43333333333332</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5574,18 +6017,401 @@
         <v>95002.1182</v>
       </c>
       <c r="G140" t="n">
+        <v>27.62666666666667</v>
+      </c>
+      <c r="H140" t="n">
         <v>27.44333333333332</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C141" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D141" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E141" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F141" t="n">
+        <v>20</v>
+      </c>
+      <c r="G141" t="n">
+        <v>27.64</v>
+      </c>
+      <c r="H141" t="n">
+        <v>27.44833333333332</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C142" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D142" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E142" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F142" t="n">
+        <v>20</v>
+      </c>
+      <c r="G142" t="n">
+        <v>27.64</v>
+      </c>
+      <c r="H142" t="n">
+        <v>27.45333333333332</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C143" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D143" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E143" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1960.7926</v>
+      </c>
+      <c r="G143" t="n">
+        <v>27.64666666666667</v>
+      </c>
+      <c r="H143" t="n">
+        <v>27.45666666666666</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C144" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D144" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E144" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F144" t="n">
+        <v>10</v>
+      </c>
+      <c r="G144" t="n">
+        <v>27.65333333333334</v>
+      </c>
+      <c r="H144" t="n">
+        <v>27.46333333333332</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C145" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D145" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E145" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F145" t="n">
+        <v>41017.6023</v>
+      </c>
+      <c r="G145" t="n">
+        <v>27.63333333333334</v>
+      </c>
+      <c r="H145" t="n">
+        <v>27.46333333333332</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C146" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D146" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E146" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F146" t="n">
+        <v>21</v>
+      </c>
+      <c r="G146" t="n">
+        <v>27.65333333333334</v>
+      </c>
+      <c r="H146" t="n">
+        <v>27.46833333333332</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C147" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D147" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E147" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F147" t="n">
+        <v>10</v>
+      </c>
+      <c r="G147" t="n">
+        <v>27.65333333333334</v>
+      </c>
+      <c r="H147" t="n">
+        <v>27.46833333333332</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C148" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D148" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E148" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F148" t="n">
+        <v>100</v>
+      </c>
+      <c r="G148" t="n">
+        <v>27.64</v>
+      </c>
+      <c r="H148" t="n">
+        <v>27.46666666666665</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C149" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D149" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E149" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F149" t="n">
+        <v>100</v>
+      </c>
+      <c r="G149" t="n">
+        <v>27.60000000000001</v>
+      </c>
+      <c r="H149" t="n">
+        <v>27.46499999999999</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C150" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D150" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E150" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1796.607</v>
+      </c>
+      <c r="G150" t="n">
+        <v>27.55333333333334</v>
+      </c>
+      <c r="H150" t="n">
+        <v>27.46333333333332</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-01 BackTest LOOM.xlsx
+++ b/BackTest/2019-11-01 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M179"/>
+  <dimension ref="A1:N137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="C2" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="D2" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="E2" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="F2" t="n">
-        <v>7796.2745</v>
+        <v>63321.3636</v>
       </c>
       <c r="G2" t="n">
-        <v>101149.5922748147</v>
+        <v>-93640.6684251853</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="E3" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="F3" t="n">
-        <v>68</v>
+        <v>3227.905</v>
       </c>
       <c r="G3" t="n">
-        <v>101217.5922748147</v>
+        <v>-96868.5734251853</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -506,19 +513,19 @@
         <v>27.1</v>
       </c>
       <c r="C4" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="D4" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E4" t="n">
         <v>27.1</v>
       </c>
       <c r="F4" t="n">
-        <v>40932</v>
+        <v>90</v>
       </c>
       <c r="G4" t="n">
-        <v>101217.5922748147</v>
+        <v>-96778.5734251853</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C5" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D5" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E5" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F5" t="n">
-        <v>1382</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>101217.5922748147</v>
+        <v>-96768.5734251853</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -585,10 +594,10 @@
         <v>27.3</v>
       </c>
       <c r="F6" t="n">
-        <v>1000</v>
+        <v>25713.3522</v>
       </c>
       <c r="G6" t="n">
-        <v>101217.5922748147</v>
+        <v>-122481.9256251853</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="D7" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="E7" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="F7" t="n">
-        <v>42948</v>
+        <v>1759.1752</v>
       </c>
       <c r="G7" t="n">
-        <v>58269.59227481471</v>
+        <v>-122481.9256251853</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C8" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D8" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E8" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F8" t="n">
-        <v>10100</v>
+        <v>643.1135</v>
       </c>
       <c r="G8" t="n">
-        <v>68369.59227481471</v>
+        <v>-122481.9256251853</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="C9" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="D9" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="E9" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="F9" t="n">
-        <v>29700</v>
+        <v>43210.8471</v>
       </c>
       <c r="G9" t="n">
-        <v>68369.59227481471</v>
+        <v>-165692.7727251853</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="C10" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="D10" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="E10" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="F10" t="n">
-        <v>3062.2382</v>
+        <v>24593.1517</v>
       </c>
       <c r="G10" t="n">
-        <v>65307.35407481471</v>
+        <v>-190285.9244251853</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="C11" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="D11" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="E11" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="F11" t="n">
-        <v>35671.342</v>
+        <v>1835.9674</v>
       </c>
       <c r="G11" t="n">
-        <v>65307.35407481471</v>
+        <v>-188449.9570251853</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="C12" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="D12" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="E12" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="F12" t="n">
-        <v>3000</v>
+        <v>15004.4183</v>
       </c>
       <c r="G12" t="n">
-        <v>68307.35407481471</v>
+        <v>-203454.3753251853</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C13" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D13" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E13" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F13" t="n">
-        <v>1583.138686131387</v>
+        <v>380</v>
       </c>
       <c r="G13" t="n">
-        <v>68307.35407481471</v>
+        <v>-203074.3753251853</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="C14" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="D14" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="E14" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="F14" t="n">
-        <v>17990.7664</v>
+        <v>18885.9131</v>
       </c>
       <c r="G14" t="n">
-        <v>68307.35407481471</v>
+        <v>-221960.2884251853</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="C15" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="D15" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="E15" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="F15" t="n">
-        <v>4363.6392</v>
+        <v>17524</v>
       </c>
       <c r="G15" t="n">
-        <v>68307.35407481471</v>
+        <v>-221960.2884251853</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="C16" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="D16" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="E16" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="F16" t="n">
-        <v>40</v>
+        <v>35100</v>
       </c>
       <c r="G16" t="n">
-        <v>68347.35407481471</v>
+        <v>-186860.2884251853</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C17" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D17" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E17" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F17" t="n">
-        <v>4794.5726</v>
+        <v>7900</v>
       </c>
       <c r="G17" t="n">
-        <v>63552.78147481471</v>
+        <v>-178960.2884251853</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C18" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="D18" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E18" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F18" t="n">
-        <v>40</v>
+        <v>2900</v>
       </c>
       <c r="G18" t="n">
-        <v>63592.78147481471</v>
+        <v>-178960.2884251853</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C19" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D19" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E19" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F19" t="n">
-        <v>10807.4816</v>
+        <v>87266</v>
       </c>
       <c r="G19" t="n">
-        <v>63592.78147481471</v>
+        <v>-91694.28842518531</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="C20" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="D20" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="E20" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>6600</v>
       </c>
       <c r="G20" t="n">
-        <v>63582.78147481471</v>
+        <v>-98294.28842518531</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1110,10 +1134,10 @@
         <v>27.3</v>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>8180</v>
       </c>
       <c r="G21" t="n">
-        <v>63572.78147481471</v>
+        <v>-90114.28842518531</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="C22" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="D22" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="E22" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="F22" t="n">
-        <v>5501.529</v>
+        <v>1898.1989</v>
       </c>
       <c r="G22" t="n">
-        <v>58071.2524748147</v>
+        <v>-92012.48732518531</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="C23" t="n">
         <v>27.1</v>
       </c>
       <c r="D23" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="E23" t="n">
         <v>27.1</v>
       </c>
       <c r="F23" t="n">
-        <v>1579.1809</v>
+        <v>35908.672</v>
       </c>
       <c r="G23" t="n">
-        <v>58071.2524748147</v>
+        <v>-127921.1593251853</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="C24" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="D24" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="E24" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="F24" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>58071.2524748147</v>
+        <v>-127911.1593251853</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C25" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D25" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E25" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F25" t="n">
-        <v>35.8823</v>
+        <v>23952.6623</v>
       </c>
       <c r="G25" t="n">
-        <v>58107.1347748147</v>
+        <v>-127911.1593251853</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="C26" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="D26" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="E26" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="F26" t="n">
-        <v>964.1177</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>58107.1347748147</v>
+        <v>-127901.1593251853</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="C27" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="D27" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="E27" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="F27" t="n">
-        <v>9035.882299999999</v>
+        <v>19373.6496</v>
       </c>
       <c r="G27" t="n">
-        <v>58107.1347748147</v>
+        <v>-127901.1593251853</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="C28" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="D28" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="E28" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="F28" t="n">
-        <v>97832.65850000001</v>
+        <v>2000</v>
       </c>
       <c r="G28" t="n">
-        <v>-39725.5237251853</v>
+        <v>-127901.1593251853</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="C29" t="n">
-        <v>27</v>
+        <v>27.4</v>
       </c>
       <c r="D29" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="E29" t="n">
-        <v>27</v>
+        <v>27.4</v>
       </c>
       <c r="F29" t="n">
-        <v>9786.326800000001</v>
+        <v>6616.3776</v>
       </c>
       <c r="G29" t="n">
-        <v>-49511.85052518531</v>
+        <v>-127901.1593251853</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="C30" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="D30" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="E30" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="F30" t="n">
-        <v>1871.9412</v>
+        <v>19293.2642</v>
       </c>
       <c r="G30" t="n">
-        <v>-47639.9093251853</v>
+        <v>-108607.8951251853</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>27</v>
+        <v>27.4</v>
       </c>
       <c r="C31" t="n">
-        <v>27</v>
+        <v>27.4</v>
       </c>
       <c r="D31" t="n">
-        <v>27</v>
+        <v>27.4</v>
       </c>
       <c r="E31" t="n">
-        <v>27</v>
+        <v>27.4</v>
       </c>
       <c r="F31" t="n">
-        <v>19200</v>
+        <v>21725.1739</v>
       </c>
       <c r="G31" t="n">
-        <v>-66839.9093251853</v>
+        <v>-130333.0690251853</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="C32" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="D32" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="E32" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>6089.1131</v>
       </c>
       <c r="G32" t="n">
-        <v>-66829.9093251853</v>
+        <v>-130333.0690251853</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="C33" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="D33" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="E33" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="F33" t="n">
-        <v>28927.7509</v>
+        <v>10751</v>
       </c>
       <c r="G33" t="n">
-        <v>-95757.6602251853</v>
+        <v>-141084.0690251853</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>27</v>
+        <v>27.4</v>
       </c>
       <c r="C34" t="n">
-        <v>27</v>
+        <v>27.5</v>
       </c>
       <c r="D34" t="n">
-        <v>27</v>
+        <v>27.5</v>
       </c>
       <c r="E34" t="n">
-        <v>27</v>
+        <v>27.4</v>
       </c>
       <c r="F34" t="n">
-        <v>41839.5571</v>
+        <v>22600</v>
       </c>
       <c r="G34" t="n">
-        <v>-95757.6602251853</v>
+        <v>-118484.0690251853</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="C35" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="D35" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="E35" t="n">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="F35" t="n">
-        <v>22000</v>
+        <v>35.7568</v>
       </c>
       <c r="G35" t="n">
-        <v>-95757.6602251853</v>
+        <v>-118519.8258251853</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>27</v>
+        <v>27.5</v>
       </c>
       <c r="C36" t="n">
-        <v>26.9</v>
+        <v>27.5</v>
       </c>
       <c r="D36" t="n">
-        <v>27</v>
+        <v>27.5</v>
       </c>
       <c r="E36" t="n">
-        <v>26.9</v>
+        <v>27.5</v>
       </c>
       <c r="F36" t="n">
-        <v>9034.5209</v>
+        <v>9588</v>
       </c>
       <c r="G36" t="n">
-        <v>-104792.1811251853</v>
+        <v>-108931.8258251853</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>26.9</v>
+        <v>27.5</v>
       </c>
       <c r="C37" t="n">
-        <v>26.9</v>
+        <v>27.5</v>
       </c>
       <c r="D37" t="n">
-        <v>26.9</v>
+        <v>27.5</v>
       </c>
       <c r="E37" t="n">
-        <v>26.9</v>
+        <v>27.5</v>
       </c>
       <c r="F37" t="n">
-        <v>77813.2205</v>
+        <v>83167</v>
       </c>
       <c r="G37" t="n">
-        <v>-104792.1811251853</v>
+        <v>-108931.8258251853</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>26.9</v>
+        <v>27.5</v>
       </c>
       <c r="C38" t="n">
-        <v>26.9</v>
+        <v>27.6</v>
       </c>
       <c r="D38" t="n">
-        <v>26.9</v>
+        <v>27.6</v>
       </c>
       <c r="E38" t="n">
-        <v>26.9</v>
+        <v>27.5</v>
       </c>
       <c r="F38" t="n">
-        <v>27823.9204</v>
+        <v>17800</v>
       </c>
       <c r="G38" t="n">
-        <v>-104792.1811251853</v>
+        <v>-91131.82582518531</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>26.9</v>
+        <v>27.6</v>
       </c>
       <c r="C39" t="n">
-        <v>26.9</v>
+        <v>27.6</v>
       </c>
       <c r="D39" t="n">
-        <v>26.9</v>
+        <v>27.6</v>
       </c>
       <c r="E39" t="n">
-        <v>26.9</v>
+        <v>27.6</v>
       </c>
       <c r="F39" t="n">
-        <v>1116.9144</v>
+        <v>5400</v>
       </c>
       <c r="G39" t="n">
-        <v>-104792.1811251853</v>
+        <v>-91131.82582518531</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>26.9</v>
+        <v>27.6</v>
       </c>
       <c r="C40" t="n">
-        <v>26.9</v>
+        <v>27.6</v>
       </c>
       <c r="D40" t="n">
-        <v>26.9</v>
+        <v>27.6</v>
       </c>
       <c r="E40" t="n">
-        <v>26.9</v>
+        <v>27.6</v>
       </c>
       <c r="F40" t="n">
-        <v>1808.2998</v>
+        <v>22.7009</v>
       </c>
       <c r="G40" t="n">
-        <v>-104792.1811251853</v>
+        <v>-91131.82582518531</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>26.9</v>
+        <v>27.7</v>
       </c>
       <c r="C41" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="D41" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="E41" t="n">
-        <v>26.9</v>
+        <v>27.7</v>
       </c>
       <c r="F41" t="n">
-        <v>3833</v>
+        <v>500</v>
       </c>
       <c r="G41" t="n">
-        <v>-100959.1811251853</v>
+        <v>-90631.82582518531</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="C42" t="n">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="D42" t="n">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="E42" t="n">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="F42" t="n">
-        <v>7881.3308</v>
+        <v>25065.2158</v>
       </c>
       <c r="G42" t="n">
-        <v>-100959.1811251853</v>
+        <v>-65566.61002518531</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="C43" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="D43" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="E43" t="n">
-        <v>26.9</v>
+        <v>27.7</v>
       </c>
       <c r="F43" t="n">
-        <v>7318.5127</v>
+        <v>588.7641</v>
       </c>
       <c r="G43" t="n">
-        <v>-93640.6684251853</v>
+        <v>-66155.37412518531</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="C44" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="D44" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="E44" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="F44" t="n">
-        <v>63321.3636</v>
+        <v>2059</v>
       </c>
       <c r="G44" t="n">
-        <v>-93640.6684251853</v>
+        <v>-64096.37412518531</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>27</v>
+        <v>27.8</v>
       </c>
       <c r="C45" t="n">
-        <v>27</v>
+        <v>27.8</v>
       </c>
       <c r="D45" t="n">
-        <v>27</v>
+        <v>27.8</v>
       </c>
       <c r="E45" t="n">
-        <v>27</v>
+        <v>27.8</v>
       </c>
       <c r="F45" t="n">
-        <v>3227.905</v>
+        <v>63400</v>
       </c>
       <c r="G45" t="n">
-        <v>-96868.5734251853</v>
+        <v>-64096.37412518531</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,34 +2015,35 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>27.1</v>
+        <v>27.9</v>
       </c>
       <c r="C46" t="n">
-        <v>27.1</v>
+        <v>27.8</v>
       </c>
       <c r="D46" t="n">
-        <v>27.4</v>
+        <v>28</v>
       </c>
       <c r="E46" t="n">
-        <v>27.1</v>
+        <v>27.8</v>
       </c>
       <c r="F46" t="n">
-        <v>90</v>
+        <v>32659.75</v>
       </c>
       <c r="G46" t="n">
-        <v>-96778.5734251853</v>
+        <v>-64096.37412518531</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2002,34 +2051,35 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>27.4</v>
+        <v>28</v>
       </c>
       <c r="C47" t="n">
-        <v>27.4</v>
+        <v>28</v>
       </c>
       <c r="D47" t="n">
-        <v>27.4</v>
+        <v>28</v>
       </c>
       <c r="E47" t="n">
-        <v>27.4</v>
+        <v>28</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>1409.8214</v>
       </c>
       <c r="G47" t="n">
-        <v>-96768.5734251853</v>
+        <v>-62686.55272518531</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2037,34 +2087,35 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>27.3</v>
+        <v>27.9</v>
       </c>
       <c r="C48" t="n">
-        <v>27.3</v>
+        <v>28</v>
       </c>
       <c r="D48" t="n">
-        <v>27.3</v>
+        <v>28</v>
       </c>
       <c r="E48" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="F48" t="n">
-        <v>25713.3522</v>
+        <v>74609.68610000001</v>
       </c>
       <c r="G48" t="n">
-        <v>-122481.9256251853</v>
+        <v>-62686.55272518531</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2072,34 +2123,35 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>27.3</v>
+        <v>27.9</v>
       </c>
       <c r="C49" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="D49" t="n">
-        <v>27.3</v>
+        <v>27.9</v>
       </c>
       <c r="E49" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="F49" t="n">
-        <v>1759.1752</v>
+        <v>1040</v>
       </c>
       <c r="G49" t="n">
-        <v>-122481.9256251853</v>
+        <v>-63726.55272518531</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2107,34 +2159,35 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="C50" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="D50" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="E50" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="F50" t="n">
-        <v>643.1135</v>
+        <v>3800.1499</v>
       </c>
       <c r="G50" t="n">
-        <v>-122481.9256251853</v>
+        <v>-67526.70262518531</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="C51" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="D51" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="E51" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="F51" t="n">
-        <v>43210.8471</v>
+        <v>10</v>
       </c>
       <c r="G51" t="n">
-        <v>-165692.7727251853</v>
+        <v>-67516.70262518531</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="C52" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="D52" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="E52" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="F52" t="n">
-        <v>24593.1517</v>
+        <v>6400</v>
       </c>
       <c r="G52" t="n">
-        <v>-190285.9244251853</v>
+        <v>-73916.70262518531</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="C53" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="D53" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="E53" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="F53" t="n">
-        <v>1835.9674</v>
+        <v>8600</v>
       </c>
       <c r="G53" t="n">
-        <v>-188449.9570251853</v>
+        <v>-73916.70262518531</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="C54" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="D54" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="E54" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="F54" t="n">
-        <v>15004.4183</v>
+        <v>225488.7964</v>
       </c>
       <c r="G54" t="n">
-        <v>-203454.3753251853</v>
+        <v>-73916.70262518531</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C55" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D55" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E55" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F55" t="n">
-        <v>380</v>
+        <v>8691.758</v>
       </c>
       <c r="G55" t="n">
-        <v>-203074.3753251853</v>
+        <v>-82608.46062518531</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="C56" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="D56" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="E56" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="F56" t="n">
-        <v>18885.9131</v>
+        <v>10</v>
       </c>
       <c r="G56" t="n">
-        <v>-221960.2884251853</v>
+        <v>-82598.46062518531</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="C57" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="D57" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="E57" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="F57" t="n">
-        <v>17524</v>
+        <v>1406.2968</v>
       </c>
       <c r="G57" t="n">
-        <v>-221960.2884251853</v>
+        <v>-84004.75742518531</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="C58" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="D58" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="E58" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="F58" t="n">
-        <v>35100</v>
+        <v>23823.5192</v>
       </c>
       <c r="G58" t="n">
-        <v>-186860.2884251853</v>
+        <v>-60181.23822518531</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C59" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D59" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E59" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F59" t="n">
-        <v>7900</v>
+        <v>3865.2932</v>
       </c>
       <c r="G59" t="n">
-        <v>-178960.2884251853</v>
+        <v>-64046.53142518531</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C60" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D60" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E60" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F60" t="n">
-        <v>2900</v>
+        <v>10661.3525</v>
       </c>
       <c r="G60" t="n">
-        <v>-178960.2884251853</v>
+        <v>-64046.53142518531</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,6 +2555,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2501,19 +2565,19 @@
         <v>27.3</v>
       </c>
       <c r="C61" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D61" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E61" t="n">
         <v>27.3</v>
       </c>
       <c r="F61" t="n">
-        <v>87266</v>
+        <v>118485.5596</v>
       </c>
       <c r="G61" t="n">
-        <v>-91694.28842518531</v>
+        <v>-182532.0910251853</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,6 +2591,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2545,10 +2610,10 @@
         <v>27.2</v>
       </c>
       <c r="F62" t="n">
-        <v>6600</v>
+        <v>33571.3254</v>
       </c>
       <c r="G62" t="n">
-        <v>-98294.28842518531</v>
+        <v>-216103.4164251853</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C63" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D63" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E63" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F63" t="n">
-        <v>8180</v>
+        <v>17335.8794</v>
       </c>
       <c r="G63" t="n">
-        <v>-90114.28842518531</v>
+        <v>-198767.5370251853</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="C64" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="D64" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="E64" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="F64" t="n">
-        <v>1898.1989</v>
+        <v>2031.0653</v>
       </c>
       <c r="G64" t="n">
-        <v>-92012.48732518531</v>
+        <v>-198767.5370251853</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C65" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="D65" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E65" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="F65" t="n">
-        <v>35908.672</v>
+        <v>27124.7375</v>
       </c>
       <c r="G65" t="n">
-        <v>-127921.1593251853</v>
+        <v>-225892.2745251853</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,6 +2735,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2685,23 +2754,28 @@
         <v>27.3</v>
       </c>
       <c r="F66" t="n">
-        <v>10</v>
+        <v>14084.2124</v>
       </c>
       <c r="G66" t="n">
-        <v>-127911.1593251853</v>
+        <v>-225892.2745251853</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K66" t="n">
+        <v>27.3</v>
+      </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2720,198 +2794,248 @@
         <v>27.3</v>
       </c>
       <c r="F67" t="n">
-        <v>23952.6623</v>
+        <v>7000</v>
       </c>
       <c r="G67" t="n">
-        <v>-127911.1593251853</v>
+        <v>-225892.2745251853</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K67" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C68" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D68" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E68" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F68" t="n">
-        <v>10</v>
+        <v>12963.9999</v>
       </c>
       <c r="G68" t="n">
-        <v>-127901.1593251853</v>
+        <v>-225892.2745251853</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K68" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C69" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D69" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E69" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F69" t="n">
-        <v>19373.6496</v>
+        <v>11582.2102</v>
       </c>
       <c r="G69" t="n">
-        <v>-127901.1593251853</v>
+        <v>-225892.2745251853</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K69" t="n">
+        <v>27.3</v>
+      </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C70" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D70" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E70" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F70" t="n">
-        <v>2000</v>
+        <v>9604.2912</v>
       </c>
       <c r="G70" t="n">
-        <v>-127901.1593251853</v>
+        <v>-225892.2745251853</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K70" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="C71" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="D71" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="E71" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="F71" t="n">
-        <v>6616.3776</v>
+        <v>42933.1122</v>
       </c>
       <c r="G71" t="n">
-        <v>-127901.1593251853</v>
+        <v>-268825.3867251853</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K71" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C72" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="D72" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E72" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F72" t="n">
-        <v>19293.2642</v>
+        <v>2442.6187</v>
       </c>
       <c r="G72" t="n">
-        <v>-108607.8951251853</v>
+        <v>-266382.7680251853</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2930,103 +3054,130 @@
         <v>27.4</v>
       </c>
       <c r="F73" t="n">
-        <v>21725.1739</v>
+        <v>19497</v>
       </c>
       <c r="G73" t="n">
-        <v>-130333.0690251853</v>
+        <v>-246885.7680251853</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K73" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C74" t="n">
         <v>27.4</v>
       </c>
       <c r="D74" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E74" t="n">
         <v>27.4</v>
       </c>
       <c r="F74" t="n">
-        <v>6089.1131</v>
+        <v>7287.1636</v>
       </c>
       <c r="G74" t="n">
-        <v>-130333.0690251853</v>
+        <v>-246885.7680251853</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K74" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C75" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D75" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="E75" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F75" t="n">
-        <v>10751</v>
+        <v>3964.7432</v>
       </c>
       <c r="G75" t="n">
-        <v>-141084.0690251853</v>
+        <v>-246885.7680251853</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K75" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C76" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D76" t="n">
         <v>27.5</v>
@@ -3035,10 +3186,10 @@
         <v>27.4</v>
       </c>
       <c r="F76" t="n">
-        <v>22600</v>
+        <v>3376.8789</v>
       </c>
       <c r="G76" t="n">
-        <v>-118484.0690251853</v>
+        <v>-246885.7680251853</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3047,33 +3198,40 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C77" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D77" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E77" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F77" t="n">
-        <v>35.7568</v>
+        <v>46587.0745</v>
       </c>
       <c r="G77" t="n">
-        <v>-118519.8258251853</v>
+        <v>-246885.7680251853</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3082,68 +3240,84 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C78" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D78" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E78" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F78" t="n">
-        <v>9588</v>
+        <v>9375.844800000001</v>
       </c>
       <c r="G78" t="n">
-        <v>-108931.8258251853</v>
+        <v>-246885.7680251853</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K78" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C79" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D79" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E79" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F79" t="n">
-        <v>83167</v>
+        <v>9936.7816</v>
       </c>
       <c r="G79" t="n">
-        <v>-108931.8258251853</v>
+        <v>-246885.7680251853</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3152,33 +3326,40 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C80" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D80" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E80" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F80" t="n">
-        <v>17800</v>
+        <v>5259.1263</v>
       </c>
       <c r="G80" t="n">
-        <v>-91131.82582518531</v>
+        <v>-246885.7680251853</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3187,33 +3368,40 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C81" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D81" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E81" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="F81" t="n">
-        <v>5400</v>
+        <v>10035.0976</v>
       </c>
       <c r="G81" t="n">
-        <v>-91131.82582518531</v>
+        <v>-246885.7680251853</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3222,33 +3410,40 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C82" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D82" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E82" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="F82" t="n">
-        <v>22.7009</v>
+        <v>78171.17110000001</v>
       </c>
       <c r="G82" t="n">
-        <v>-91131.82582518531</v>
+        <v>-246885.7680251853</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3257,33 +3452,40 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="C83" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="D83" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="E83" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="F83" t="n">
-        <v>500</v>
+        <v>16818.7826</v>
       </c>
       <c r="G83" t="n">
-        <v>-90631.82582518531</v>
+        <v>-246885.7680251853</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3292,46 +3494,62 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="C84" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="D84" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="E84" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="F84" t="n">
-        <v>25065.2158</v>
+        <v>3778.4091</v>
       </c>
       <c r="G84" t="n">
-        <v>-65566.61002518531</v>
+        <v>-246885.7680251853</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K84" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3350,45 +3568,54 @@
         <v>27.7</v>
       </c>
       <c r="F85" t="n">
-        <v>588.7641</v>
+        <v>10</v>
       </c>
       <c r="G85" t="n">
-        <v>-66155.37412518531</v>
+        <v>-246875.7680251853</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K85" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="C86" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="D86" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="E86" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="F86" t="n">
-        <v>2059</v>
+        <v>5929.1998</v>
       </c>
       <c r="G86" t="n">
-        <v>-64096.37412518531</v>
+        <v>-252804.9678251853</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3397,33 +3624,40 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="C87" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="D87" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="E87" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="F87" t="n">
-        <v>63400</v>
+        <v>16904.4151</v>
       </c>
       <c r="G87" t="n">
-        <v>-64096.37412518531</v>
+        <v>-269709.3829251853</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3432,138 +3666,172 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>27.9</v>
+        <v>27.3</v>
       </c>
       <c r="C88" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="D88" t="n">
-        <v>28</v>
+        <v>27.3</v>
       </c>
       <c r="E88" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="F88" t="n">
-        <v>32659.75</v>
+        <v>1301.1475</v>
       </c>
       <c r="G88" t="n">
-        <v>-64096.37412518531</v>
+        <v>-269709.3829251853</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K88" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>28</v>
+        <v>27.3</v>
       </c>
       <c r="C89" t="n">
-        <v>28</v>
+        <v>27.3</v>
       </c>
       <c r="D89" t="n">
-        <v>28</v>
+        <v>27.3</v>
       </c>
       <c r="E89" t="n">
-        <v>28</v>
+        <v>27.3</v>
       </c>
       <c r="F89" t="n">
-        <v>1409.8214</v>
+        <v>15718.7765</v>
       </c>
       <c r="G89" t="n">
-        <v>-62686.55272518531</v>
+        <v>-269709.3829251853</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K89" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>27.9</v>
+        <v>27.3</v>
       </c>
       <c r="C90" t="n">
-        <v>28</v>
+        <v>27.3</v>
       </c>
       <c r="D90" t="n">
-        <v>28</v>
+        <v>27.3</v>
       </c>
       <c r="E90" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="F90" t="n">
-        <v>74609.68610000001</v>
+        <v>3755.7862</v>
       </c>
       <c r="G90" t="n">
-        <v>-62686.55272518531</v>
+        <v>-269709.3829251853</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K90" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>27.9</v>
+        <v>27.3</v>
       </c>
       <c r="C91" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="D91" t="n">
-        <v>27.9</v>
+        <v>27.3</v>
       </c>
       <c r="E91" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="F91" t="n">
-        <v>1040</v>
+        <v>682.5018</v>
       </c>
       <c r="G91" t="n">
-        <v>-63726.55272518531</v>
+        <v>-269709.3829251853</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3572,33 +3840,40 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="C92" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="D92" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="E92" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="F92" t="n">
-        <v>3800.1499</v>
+        <v>8474</v>
       </c>
       <c r="G92" t="n">
-        <v>-67526.70262518531</v>
+        <v>-269709.3829251853</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3607,33 +3882,40 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="C93" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="D93" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="E93" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="F93" t="n">
-        <v>10</v>
+        <v>3726.37</v>
       </c>
       <c r="G93" t="n">
-        <v>-67516.70262518531</v>
+        <v>-273435.7529251853</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3642,33 +3924,40 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C94" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="D94" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E94" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="F94" t="n">
-        <v>6400</v>
+        <v>8402.567300000001</v>
       </c>
       <c r="G94" t="n">
-        <v>-73916.70262518531</v>
+        <v>-265033.1856251853</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3677,33 +3966,40 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C95" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="D95" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E95" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="F95" t="n">
-        <v>8600</v>
+        <v>13503.9765</v>
       </c>
       <c r="G95" t="n">
-        <v>-73916.70262518531</v>
+        <v>-265033.1856251853</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3712,33 +4008,40 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C96" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="D96" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E96" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="F96" t="n">
-        <v>225488.7964</v>
+        <v>1532.9071</v>
       </c>
       <c r="G96" t="n">
-        <v>-73916.70262518531</v>
+        <v>-265033.1856251853</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3747,33 +4050,40 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="C97" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="D97" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="E97" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="F97" t="n">
-        <v>8691.758</v>
+        <v>14600</v>
       </c>
       <c r="G97" t="n">
-        <v>-82608.46062518531</v>
+        <v>-279633.1856251853</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3782,33 +4092,40 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C98" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="D98" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E98" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="F98" t="n">
-        <v>10</v>
+        <v>1659</v>
       </c>
       <c r="G98" t="n">
-        <v>-82598.46062518531</v>
+        <v>-277974.1856251853</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3817,81 +4134,106 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C99" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D99" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E99" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F99" t="n">
-        <v>1406.2968</v>
+        <v>5830.9069</v>
       </c>
       <c r="G99" t="n">
-        <v>-84004.75742518531</v>
+        <v>-277974.1856251853</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K99" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C100" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="D100" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E100" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="F100" t="n">
-        <v>23823.5192</v>
+        <v>37632.139</v>
       </c>
       <c r="G100" t="n">
-        <v>-60181.23822518531</v>
+        <v>-315606.3246251853</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K100" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3910,80 +4252,96 @@
         <v>27.4</v>
       </c>
       <c r="F101" t="n">
-        <v>3865.2932</v>
+        <v>8769.0931</v>
       </c>
       <c r="G101" t="n">
-        <v>-64046.53142518531</v>
+        <v>-306837.2315251853</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="C102" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="D102" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="E102" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="F102" t="n">
-        <v>10661.3525</v>
+        <v>10</v>
       </c>
       <c r="G102" t="n">
-        <v>-64046.53142518531</v>
+        <v>-306827.2315251853</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K102" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C103" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D103" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E103" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F103" t="n">
-        <v>118485.5596</v>
+        <v>4903.6038</v>
       </c>
       <c r="G103" t="n">
-        <v>-182532.0910251853</v>
+        <v>-311730.8353251853</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3992,46 +4350,62 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="C104" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="D104" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="E104" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="F104" t="n">
-        <v>33571.3254</v>
+        <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>-216103.4164251853</v>
+        <v>-311720.8353251853</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K104" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4041,19 +4415,19 @@
         <v>27.2</v>
       </c>
       <c r="C105" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="D105" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="E105" t="n">
         <v>27.2</v>
       </c>
       <c r="F105" t="n">
-        <v>17335.8794</v>
+        <v>10</v>
       </c>
       <c r="G105" t="n">
-        <v>-198767.5370251853</v>
+        <v>-311730.8353251853</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4062,103 +4436,128 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="C106" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="D106" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="E106" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="F106" t="n">
-        <v>2031.0653</v>
+        <v>15810</v>
       </c>
       <c r="G106" t="n">
-        <v>-198767.5370251853</v>
+        <v>-311730.8353251853</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K106" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C107" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="D107" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="E107" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F107" t="n">
-        <v>27124.7375</v>
+        <v>70</v>
       </c>
       <c r="G107" t="n">
-        <v>-225892.2745251853</v>
+        <v>-311660.8353251853</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K107" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="C108" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="D108" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="E108" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="F108" t="n">
-        <v>14084.2124</v>
+        <v>2188.4025</v>
       </c>
       <c r="G108" t="n">
-        <v>-225892.2745251853</v>
+        <v>-311660.8353251853</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4167,33 +4566,40 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="C109" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="D109" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="E109" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="F109" t="n">
-        <v>7000</v>
+        <v>400</v>
       </c>
       <c r="G109" t="n">
-        <v>-225892.2745251853</v>
+        <v>-311260.8353251853</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4202,33 +4608,40 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="C110" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="D110" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="E110" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="F110" t="n">
-        <v>12963.9999</v>
+        <v>1323.7978</v>
       </c>
       <c r="G110" t="n">
-        <v>-225892.2745251853</v>
+        <v>-311260.8353251853</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4237,158 +4650,166 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="C111" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="D111" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="E111" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="F111" t="n">
-        <v>11582.2102</v>
+        <v>20</v>
       </c>
       <c r="G111" t="n">
-        <v>-225892.2745251853</v>
+        <v>-311280.8353251853</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>27.3</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
         <v>27.3</v>
       </c>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C112" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="D112" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="E112" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F112" t="n">
-        <v>9604.2912</v>
+        <v>30</v>
       </c>
       <c r="G112" t="n">
-        <v>-225892.2745251853</v>
+        <v>-311250.8353251853</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>27.3</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
         <v>27.3</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="C113" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="D113" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="E113" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="F113" t="n">
-        <v>42933.1122</v>
+        <v>20</v>
       </c>
       <c r="G113" t="n">
-        <v>-268825.3867251853</v>
+        <v>-311270.8353251853</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>27.3</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
         <v>27.3</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="C114" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="D114" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="E114" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="F114" t="n">
-        <v>2442.6187</v>
+        <v>60</v>
       </c>
       <c r="G114" t="n">
-        <v>-266382.7680251853</v>
+        <v>-311210.8353251853</v>
       </c>
       <c r="H114" t="n">
         <v>1</v>
@@ -4397,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="K114" t="n">
         <v>27.3</v>
@@ -4410,6 +4831,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4422,16 +4844,16 @@
         <v>27.4</v>
       </c>
       <c r="D115" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="E115" t="n">
         <v>27.4</v>
       </c>
       <c r="F115" t="n">
-        <v>19497</v>
+        <v>40</v>
       </c>
       <c r="G115" t="n">
-        <v>-246885.7680251853</v>
+        <v>-311250.8353251853</v>
       </c>
       <c r="H115" t="n">
         <v>1</v>
@@ -4440,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="K115" t="n">
         <v>27.3</v>
@@ -4453,36 +4875,39 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C116" t="n">
         <v>27.4</v>
       </c>
       <c r="D116" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E116" t="n">
         <v>27.4</v>
       </c>
       <c r="F116" t="n">
-        <v>7287.1636</v>
+        <v>20</v>
       </c>
       <c r="G116" t="n">
-        <v>-246885.7680251853</v>
+        <v>-311250.8353251853</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>27.4</v>
+      </c>
       <c r="K116" t="n">
         <v>27.3</v>
       </c>
@@ -4494,36 +4919,39 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="C117" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="D117" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E117" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="F117" t="n">
-        <v>3964.7432</v>
+        <v>3587.5181</v>
       </c>
       <c r="G117" t="n">
-        <v>-246885.7680251853</v>
+        <v>-307663.3172251853</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>27.4</v>
+      </c>
       <c r="K117" t="n">
         <v>27.3</v>
       </c>
@@ -4535,6 +4963,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4553,10 +4982,10 @@
         <v>27.4</v>
       </c>
       <c r="F118" t="n">
-        <v>3376.8789</v>
+        <v>20</v>
       </c>
       <c r="G118" t="n">
-        <v>-246885.7680251853</v>
+        <v>-307683.3172251853</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4576,28 +5005,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="C119" t="n">
         <v>27.4</v>
       </c>
       <c r="D119" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="E119" t="n">
         <v>27.4</v>
       </c>
       <c r="F119" t="n">
-        <v>46587.0745</v>
+        <v>39499.0397</v>
       </c>
       <c r="G119" t="n">
-        <v>-246885.7680251853</v>
+        <v>-307683.3172251853</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4617,28 +5047,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C120" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D120" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E120" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F120" t="n">
-        <v>9375.844800000001</v>
+        <v>10</v>
       </c>
       <c r="G120" t="n">
-        <v>-246885.7680251853</v>
+        <v>-307673.3172251853</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4658,28 +5089,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="C121" t="n">
-        <v>27.4</v>
+        <v>27.9</v>
       </c>
       <c r="D121" t="n">
-        <v>27.4</v>
+        <v>27.9</v>
       </c>
       <c r="E121" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="F121" t="n">
-        <v>9936.7816</v>
+        <v>15300</v>
       </c>
       <c r="G121" t="n">
-        <v>-246885.7680251853</v>
+        <v>-292373.3172251853</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4699,34 +5131,35 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C122" t="n">
-        <v>27.4</v>
+        <v>28</v>
       </c>
       <c r="D122" t="n">
-        <v>27.4</v>
+        <v>28</v>
       </c>
       <c r="E122" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F122" t="n">
-        <v>5259.1263</v>
+        <v>20</v>
       </c>
       <c r="G122" t="n">
-        <v>-246885.7680251853</v>
+        <v>-292353.3172251853</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
@@ -4734,176 +5167,157 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>1</v>
-      </c>
+        <v>1.020641025641026</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="C123" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="D123" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="E123" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="F123" t="n">
-        <v>10035.0976</v>
+        <v>20</v>
       </c>
       <c r="G123" t="n">
-        <v>-246885.7680251853</v>
+        <v>-292373.3172251853</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C124" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D124" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E124" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F124" t="n">
-        <v>78171.17110000001</v>
+        <v>10</v>
       </c>
       <c r="G124" t="n">
-        <v>-246885.7680251853</v>
+        <v>-292383.3172251853</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C125" t="n">
-        <v>27.4</v>
+        <v>28</v>
       </c>
       <c r="D125" t="n">
-        <v>27.4</v>
+        <v>28</v>
       </c>
       <c r="E125" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F125" t="n">
-        <v>16818.7826</v>
+        <v>90</v>
       </c>
       <c r="G125" t="n">
-        <v>-246885.7680251853</v>
+        <v>-292293.3172251853</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="C126" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="D126" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="E126" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="F126" t="n">
-        <v>3778.4091</v>
+        <v>10</v>
       </c>
       <c r="G126" t="n">
-        <v>-246885.7680251853</v>
+        <v>-292303.3172251853</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4913,38 +5327,33 @@
         <v>27.7</v>
       </c>
       <c r="C127" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="D127" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="E127" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="F127" t="n">
-        <v>10</v>
+        <v>95002.1182</v>
       </c>
       <c r="G127" t="n">
-        <v>-246875.7680251853</v>
+        <v>-197301.1990251853</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4954,19 +5363,19 @@
         <v>27.5</v>
       </c>
       <c r="C128" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="D128" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E128" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F128" t="n">
-        <v>5929.1998</v>
+        <v>20</v>
       </c>
       <c r="G128" t="n">
-        <v>-252804.9678251853</v>
+        <v>-197321.1990251853</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4975,45 +5384,40 @@
         <v>1</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
-        <v>0.9986630036630036</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="C129" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="D129" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="E129" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="F129" t="n">
-        <v>16904.4151</v>
+        <v>20</v>
       </c>
       <c r="G129" t="n">
-        <v>-269709.3829251853</v>
+        <v>-197321.1990251853</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -5021,34 +5425,35 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="C130" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="D130" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="E130" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="F130" t="n">
-        <v>1301.1475</v>
+        <v>1960.7926</v>
       </c>
       <c r="G130" t="n">
-        <v>-269709.3829251853</v>
+        <v>-199281.9916251853</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -5056,34 +5461,35 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="C131" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="D131" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="E131" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="F131" t="n">
-        <v>15718.7765</v>
+        <v>10</v>
       </c>
       <c r="G131" t="n">
-        <v>-269709.3829251853</v>
+        <v>-199281.9916251853</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5091,34 +5497,35 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="C132" t="n">
         <v>27.3</v>
       </c>
       <c r="D132" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="E132" t="n">
         <v>27.3</v>
       </c>
       <c r="F132" t="n">
-        <v>3755.7862</v>
+        <v>41017.6023</v>
       </c>
       <c r="G132" t="n">
-        <v>-269709.3829251853</v>
+        <v>-240299.5939251853</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5126,28 +5533,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C133" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="D133" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="E133" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F133" t="n">
-        <v>682.5018</v>
+        <v>21</v>
       </c>
       <c r="G133" t="n">
-        <v>-269709.3829251853</v>
+        <v>-240278.5939251853</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5161,34 +5569,35 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C134" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D134" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E134" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F134" t="n">
-        <v>8474</v>
+        <v>10</v>
       </c>
       <c r="G134" t="n">
-        <v>-269709.3829251853</v>
+        <v>-240288.5939251853</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -5196,6 +5605,7 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5205,19 +5615,19 @@
         <v>27.3</v>
       </c>
       <c r="C135" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D135" t="n">
         <v>27.3</v>
       </c>
       <c r="E135" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F135" t="n">
-        <v>3726.37</v>
+        <v>100</v>
       </c>
       <c r="G135" t="n">
-        <v>-273435.7529251853</v>
+        <v>-240388.5939251853</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5231,6 +5641,7 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5249,10 +5660,10 @@
         <v>27.3</v>
       </c>
       <c r="F136" t="n">
-        <v>8402.567300000001</v>
+        <v>100</v>
       </c>
       <c r="G136" t="n">
-        <v>-265033.1856251853</v>
+        <v>-240388.5939251853</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5266,28 +5677,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C137" t="n">
         <v>27.3</v>
       </c>
       <c r="D137" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="E137" t="n">
         <v>27.3</v>
       </c>
       <c r="F137" t="n">
-        <v>13503.9765</v>
+        <v>1796.607</v>
       </c>
       <c r="G137" t="n">
-        <v>-265033.1856251853</v>
+        <v>-240388.5939251853</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5301,1476 +5713,7 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C138" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D138" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E138" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1532.9071</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-265033.1856251853</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="C139" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D139" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E139" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F139" t="n">
-        <v>14600</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-279633.1856251853</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C140" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D140" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E140" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F140" t="n">
-        <v>1659</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-277974.1856251853</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C141" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D141" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E141" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F141" t="n">
-        <v>5830.9069</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-277974.1856251853</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C142" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D142" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E142" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F142" t="n">
-        <v>37632.139</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-315606.3246251853</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C143" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D143" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E143" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F143" t="n">
-        <v>8769.0931</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-306837.2315251853</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C144" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D144" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E144" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F144" t="n">
-        <v>10</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-306827.2315251853</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C145" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D145" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E145" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F145" t="n">
-        <v>4903.6038</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-311730.8353251853</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C146" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D146" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E146" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F146" t="n">
-        <v>10</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-311720.8353251853</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="C147" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D147" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E147" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F147" t="n">
-        <v>10</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-311730.8353251853</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C148" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D148" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E148" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F148" t="n">
-        <v>15810</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-311730.8353251853</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="C149" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D149" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E149" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F149" t="n">
-        <v>70</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-311660.8353251853</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C150" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D150" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E150" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F150" t="n">
-        <v>2188.4025</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-311660.8353251853</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C151" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D151" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E151" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F151" t="n">
-        <v>400</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-311260.8353251853</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C152" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D152" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E152" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F152" t="n">
-        <v>1323.7978</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-311260.8353251853</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C153" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D153" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E153" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F153" t="n">
-        <v>20</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-311280.8353251853</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C154" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D154" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E154" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F154" t="n">
-        <v>30</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-311250.8353251853</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C155" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D155" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E155" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F155" t="n">
-        <v>20</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-311270.8353251853</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C156" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D156" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E156" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F156" t="n">
-        <v>60</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-311210.8353251853</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C157" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D157" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E157" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F157" t="n">
-        <v>40</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-311250.8353251853</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C158" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D158" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E158" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F158" t="n">
-        <v>20</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-311250.8353251853</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C159" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D159" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E159" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F159" t="n">
-        <v>3587.5181</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-307663.3172251853</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C160" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D160" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E160" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F160" t="n">
-        <v>20</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-307683.3172251853</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C161" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D161" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E161" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F161" t="n">
-        <v>39499.0397</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-307683.3172251853</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C162" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D162" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E162" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F162" t="n">
-        <v>10</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-307673.3172251853</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C163" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D163" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E163" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F163" t="n">
-        <v>15300</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-292373.3172251853</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C164" t="n">
-        <v>28</v>
-      </c>
-      <c r="D164" t="n">
-        <v>28</v>
-      </c>
-      <c r="E164" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F164" t="n">
-        <v>20</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-292353.3172251853</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C165" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D165" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E165" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F165" t="n">
-        <v>20</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-292373.3172251853</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C166" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D166" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E166" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F166" t="n">
-        <v>10</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-292383.3172251853</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C167" t="n">
-        <v>28</v>
-      </c>
-      <c r="D167" t="n">
-        <v>28</v>
-      </c>
-      <c r="E167" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F167" t="n">
-        <v>90</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-292293.3172251853</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C168" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D168" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E168" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F168" t="n">
-        <v>10</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-292303.3172251853</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C169" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D169" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E169" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F169" t="n">
-        <v>95002.1182</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-197301.1990251853</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C170" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D170" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E170" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F170" t="n">
-        <v>20</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-197321.1990251853</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C171" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D171" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E171" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F171" t="n">
-        <v>20</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-197321.1990251853</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C172" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D172" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E172" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F172" t="n">
-        <v>1960.7926</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-199281.9916251853</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C173" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D173" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E173" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F173" t="n">
-        <v>10</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-199281.9916251853</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C174" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D174" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E174" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F174" t="n">
-        <v>41017.6023</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-240299.5939251853</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C175" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D175" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E175" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F175" t="n">
-        <v>21</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-240278.5939251853</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C176" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D176" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E176" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F176" t="n">
-        <v>10</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-240288.5939251853</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C177" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D177" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E177" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F177" t="n">
-        <v>100</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-240388.5939251853</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C178" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D178" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E178" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F178" t="n">
-        <v>100</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-240388.5939251853</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C179" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="D179" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E179" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F179" t="n">
-        <v>1796.607</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-240388.5939251853</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
+      <c r="N137" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-01 BackTest LOOM.xlsx
+++ b/BackTest/2019-11-01 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N137"/>
+  <dimension ref="A1:N208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="C2" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="D2" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="E2" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="F2" t="n">
-        <v>63321.3636</v>
+        <v>60</v>
       </c>
       <c r="G2" t="n">
-        <v>-93640.6684251853</v>
+        <v>-323860.6504251852</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="D3" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="E3" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="F3" t="n">
-        <v>3227.905</v>
+        <v>145</v>
       </c>
       <c r="G3" t="n">
-        <v>-96868.5734251853</v>
+        <v>-323860.6504251852</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="C4" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="D4" t="n">
         <v>27.4</v>
       </c>
       <c r="E4" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="F4" t="n">
-        <v>90</v>
+        <v>1372</v>
       </c>
       <c r="G4" t="n">
-        <v>-96778.5734251853</v>
+        <v>-322488.6504251852</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -549,19 +549,19 @@
         <v>27.4</v>
       </c>
       <c r="C5" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D5" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E5" t="n">
         <v>27.4</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>28142.799</v>
       </c>
       <c r="G5" t="n">
-        <v>-96768.5734251853</v>
+        <v>-294345.8514251852</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="C6" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="D6" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="E6" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="F6" t="n">
-        <v>25713.3522</v>
+        <v>13812.0435</v>
       </c>
       <c r="G6" t="n">
-        <v>-122481.9256251853</v>
+        <v>-308157.8949251852</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="E7" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="F7" t="n">
-        <v>1759.1752</v>
+        <v>15100</v>
       </c>
       <c r="G7" t="n">
-        <v>-122481.9256251853</v>
+        <v>-323257.8949251852</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="E8" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="F8" t="n">
-        <v>643.1135</v>
+        <v>13500</v>
       </c>
       <c r="G8" t="n">
-        <v>-122481.9256251853</v>
+        <v>-323257.8949251852</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -696,16 +696,16 @@
         <v>27.2</v>
       </c>
       <c r="D9" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E9" t="n">
         <v>27.2</v>
       </c>
       <c r="F9" t="n">
-        <v>43210.8471</v>
+        <v>528519.9809</v>
       </c>
       <c r="G9" t="n">
-        <v>-165692.7727251853</v>
+        <v>205262.0859748147</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="C10" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="D10" t="n">
         <v>27.3</v>
       </c>
       <c r="E10" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="F10" t="n">
-        <v>24593.1517</v>
+        <v>63026.896</v>
       </c>
       <c r="G10" t="n">
-        <v>-190285.9244251853</v>
+        <v>205262.0859748147</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="C11" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="D11" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="E11" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="F11" t="n">
-        <v>1835.9674</v>
+        <v>61136.1001</v>
       </c>
       <c r="G11" t="n">
-        <v>-188449.9570251853</v>
+        <v>144125.9858748147</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="D12" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="E12" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="F12" t="n">
-        <v>15004.4183</v>
+        <v>7696.1486</v>
       </c>
       <c r="G12" t="n">
-        <v>-203454.3753251853</v>
+        <v>144125.9858748147</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="C13" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="D13" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="E13" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="F13" t="n">
-        <v>380</v>
+        <v>10941.9871</v>
       </c>
       <c r="G13" t="n">
-        <v>-203074.3753251853</v>
+        <v>144125.9858748147</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>27.1</v>
       </c>
       <c r="F14" t="n">
-        <v>18885.9131</v>
+        <v>1753.7221</v>
       </c>
       <c r="G14" t="n">
-        <v>-221960.2884251853</v>
+        <v>145879.7079748147</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>27.1</v>
       </c>
       <c r="F15" t="n">
-        <v>17524</v>
+        <v>42800.6923</v>
       </c>
       <c r="G15" t="n">
-        <v>-221960.2884251853</v>
+        <v>145879.7079748147</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C16" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D16" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E16" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F16" t="n">
-        <v>35100</v>
+        <v>35870.9945</v>
       </c>
       <c r="G16" t="n">
-        <v>-186860.2884251853</v>
+        <v>181750.7024748147</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>27.3</v>
       </c>
       <c r="F17" t="n">
-        <v>7900</v>
+        <v>9630.9157</v>
       </c>
       <c r="G17" t="n">
-        <v>-178960.2884251853</v>
+        <v>181750.7024748147</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="C18" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="D18" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="E18" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="F18" t="n">
-        <v>2900</v>
+        <v>100</v>
       </c>
       <c r="G18" t="n">
-        <v>-178960.2884251853</v>
+        <v>181650.7024748147</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         <v>27.3</v>
       </c>
       <c r="C19" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D19" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E19" t="n">
         <v>27.3</v>
       </c>
       <c r="F19" t="n">
-        <v>87266</v>
+        <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>-91694.28842518531</v>
+        <v>181660.7024748147</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1089,19 +1089,19 @@
         <v>27.2</v>
       </c>
       <c r="C20" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="D20" t="n">
         <v>27.2</v>
       </c>
       <c r="E20" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="F20" t="n">
-        <v>6600</v>
+        <v>33746.2405</v>
       </c>
       <c r="G20" t="n">
-        <v>-98294.28842518531</v>
+        <v>147914.4619748147</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>27.3</v>
       </c>
       <c r="F21" t="n">
-        <v>8180</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>-90114.28842518531</v>
+        <v>147924.4619748147</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C22" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D22" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E22" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F22" t="n">
-        <v>1898.1989</v>
+        <v>32570.0202</v>
       </c>
       <c r="G22" t="n">
-        <v>-92012.48732518531</v>
+        <v>147924.4619748147</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="C23" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="D23" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="E23" t="n">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="F23" t="n">
-        <v>35908.672</v>
+        <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>-127921.1593251853</v>
+        <v>147934.4619748147</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>-127911.1593251853</v>
+        <v>147924.4619748147</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1269,19 +1269,19 @@
         <v>27.3</v>
       </c>
       <c r="C25" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="D25" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="E25" t="n">
         <v>27.3</v>
       </c>
       <c r="F25" t="n">
-        <v>23952.6623</v>
+        <v>7900</v>
       </c>
       <c r="G25" t="n">
-        <v>-127911.1593251853</v>
+        <v>155824.4619748147</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="C26" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="D26" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="E26" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>32488.5952</v>
       </c>
       <c r="G26" t="n">
-        <v>-127901.1593251853</v>
+        <v>123335.8667748147</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C27" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D27" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E27" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F27" t="n">
-        <v>19373.6496</v>
+        <v>10</v>
       </c>
       <c r="G27" t="n">
-        <v>-127901.1593251853</v>
+        <v>123345.8667748147</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C28" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D28" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E28" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F28" t="n">
-        <v>2000</v>
+        <v>3069.913</v>
       </c>
       <c r="G28" t="n">
-        <v>-127901.1593251853</v>
+        <v>123345.8667748147</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C29" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="D29" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E29" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="F29" t="n">
-        <v>6616.3776</v>
+        <v>14400</v>
       </c>
       <c r="G29" t="n">
-        <v>-127901.1593251853</v>
+        <v>108945.8667748147</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C30" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="D30" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="E30" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F30" t="n">
-        <v>19293.2642</v>
+        <v>1829.0228</v>
       </c>
       <c r="G30" t="n">
-        <v>-108607.8951251853</v>
+        <v>108945.8667748147</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="C31" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="D31" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="E31" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="F31" t="n">
-        <v>21725.1739</v>
+        <v>7796.2745</v>
       </c>
       <c r="G31" t="n">
-        <v>-130333.0690251853</v>
+        <v>101149.5922748147</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C32" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D32" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E32" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F32" t="n">
-        <v>6089.1131</v>
+        <v>68</v>
       </c>
       <c r="G32" t="n">
-        <v>-130333.0690251853</v>
+        <v>101217.5922748147</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="C33" t="n">
         <v>27.3</v>
@@ -1563,13 +1563,13 @@
         <v>27.3</v>
       </c>
       <c r="E33" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="F33" t="n">
-        <v>10751</v>
+        <v>40932</v>
       </c>
       <c r="G33" t="n">
-        <v>-141084.0690251853</v>
+        <v>101217.5922748147</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C34" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="D34" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E34" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F34" t="n">
-        <v>22600</v>
+        <v>1382</v>
       </c>
       <c r="G34" t="n">
-        <v>-118484.0690251853</v>
+        <v>101217.5922748147</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1638,10 +1638,10 @@
         <v>27.3</v>
       </c>
       <c r="F35" t="n">
-        <v>35.7568</v>
+        <v>1000</v>
       </c>
       <c r="G35" t="n">
-        <v>-118519.8258251853</v>
+        <v>101217.5922748147</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="C36" t="n">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="D36" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="E36" t="n">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="F36" t="n">
-        <v>9588</v>
+        <v>42948</v>
       </c>
       <c r="G36" t="n">
-        <v>-108931.8258251853</v>
+        <v>58269.59227481471</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="C37" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D37" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E37" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="F37" t="n">
-        <v>83167</v>
+        <v>10100</v>
       </c>
       <c r="G37" t="n">
-        <v>-108931.8258251853</v>
+        <v>68369.59227481471</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="C38" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D38" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E38" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="F38" t="n">
-        <v>17800</v>
+        <v>29700</v>
       </c>
       <c r="G38" t="n">
-        <v>-91131.82582518531</v>
+        <v>68369.59227481471</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="C39" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="D39" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="E39" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="F39" t="n">
-        <v>5400</v>
+        <v>3062.2382</v>
       </c>
       <c r="G39" t="n">
-        <v>-91131.82582518531</v>
+        <v>65307.35407481471</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="C40" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="D40" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="E40" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="F40" t="n">
-        <v>22.7009</v>
+        <v>35671.342</v>
       </c>
       <c r="G40" t="n">
-        <v>-91131.82582518531</v>
+        <v>65307.35407481471</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="C41" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="D41" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="E41" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="F41" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G41" t="n">
-        <v>-90631.82582518531</v>
+        <v>68307.35407481471</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="C42" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="D42" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="E42" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="F42" t="n">
-        <v>25065.2158</v>
+        <v>1583.138686131387</v>
       </c>
       <c r="G42" t="n">
-        <v>-65566.61002518531</v>
+        <v>68307.35407481471</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="C43" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="D43" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="E43" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="F43" t="n">
-        <v>588.7641</v>
+        <v>17990.7664</v>
       </c>
       <c r="G43" t="n">
-        <v>-66155.37412518531</v>
+        <v>68307.35407481471</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="C44" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="D44" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="E44" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="F44" t="n">
-        <v>2059</v>
+        <v>4363.6392</v>
       </c>
       <c r="G44" t="n">
-        <v>-64096.37412518531</v>
+        <v>68307.35407481471</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="C45" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="D45" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="E45" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="F45" t="n">
-        <v>63400</v>
+        <v>40</v>
       </c>
       <c r="G45" t="n">
-        <v>-64096.37412518531</v>
+        <v>68347.35407481471</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,28 +2022,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>27.9</v>
+        <v>27.4</v>
       </c>
       <c r="C46" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="D46" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="E46" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="F46" t="n">
-        <v>32659.75</v>
+        <v>4794.5726</v>
       </c>
       <c r="G46" t="n">
-        <v>-64096.37412518531</v>
+        <v>63552.78147481471</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2058,28 +2058,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>28</v>
+        <v>27.4</v>
       </c>
       <c r="C47" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="D47" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="E47" t="n">
-        <v>28</v>
+        <v>27.4</v>
       </c>
       <c r="F47" t="n">
-        <v>1409.8214</v>
+        <v>40</v>
       </c>
       <c r="G47" t="n">
-        <v>-62686.55272518531</v>
+        <v>63592.78147481471</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2094,28 +2094,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>27.9</v>
+        <v>27.4</v>
       </c>
       <c r="C48" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="D48" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="E48" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="F48" t="n">
-        <v>74609.68610000001</v>
+        <v>10807.4816</v>
       </c>
       <c r="G48" t="n">
-        <v>-62686.55272518531</v>
+        <v>63592.78147481471</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2130,28 +2130,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>27.9</v>
+        <v>27.4</v>
       </c>
       <c r="C49" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="D49" t="n">
-        <v>27.9</v>
+        <v>27.4</v>
       </c>
       <c r="E49" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="F49" t="n">
-        <v>1040</v>
+        <v>10</v>
       </c>
       <c r="G49" t="n">
-        <v>-63726.55272518531</v>
+        <v>63582.78147481471</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2166,28 +2166,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="C50" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="D50" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="E50" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="F50" t="n">
-        <v>3800.1499</v>
+        <v>10</v>
       </c>
       <c r="G50" t="n">
-        <v>-67526.70262518531</v>
+        <v>63572.78147481471</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="C51" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="D51" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="E51" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="F51" t="n">
-        <v>10</v>
+        <v>5501.529</v>
       </c>
       <c r="G51" t="n">
-        <v>-67516.70262518531</v>
+        <v>58071.2524748147</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="C52" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="D52" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="E52" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="F52" t="n">
-        <v>6400</v>
+        <v>1579.1809</v>
       </c>
       <c r="G52" t="n">
-        <v>-73916.70262518531</v>
+        <v>58071.2524748147</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="C53" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="D53" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="E53" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="F53" t="n">
-        <v>8600</v>
+        <v>1000</v>
       </c>
       <c r="G53" t="n">
-        <v>-73916.70262518531</v>
+        <v>58071.2524748147</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="C54" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="D54" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="E54" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="F54" t="n">
-        <v>225488.7964</v>
+        <v>35.8823</v>
       </c>
       <c r="G54" t="n">
-        <v>-73916.70262518531</v>
+        <v>58107.1347748147</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="C55" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="D55" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="E55" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="F55" t="n">
-        <v>8691.758</v>
+        <v>964.1177</v>
       </c>
       <c r="G55" t="n">
-        <v>-82608.46062518531</v>
+        <v>58107.1347748147</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="C56" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="D56" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="E56" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="F56" t="n">
-        <v>10</v>
+        <v>9035.882299999999</v>
       </c>
       <c r="G56" t="n">
-        <v>-82598.46062518531</v>
+        <v>58107.1347748147</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="C57" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="D57" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="E57" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="F57" t="n">
-        <v>1406.2968</v>
+        <v>97832.65850000001</v>
       </c>
       <c r="G57" t="n">
-        <v>-84004.75742518531</v>
+        <v>-39725.5237251853</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="C58" t="n">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="D58" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="E58" t="n">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="F58" t="n">
-        <v>23823.5192</v>
+        <v>9786.326800000001</v>
       </c>
       <c r="G58" t="n">
-        <v>-60181.23822518531</v>
+        <v>-49511.85052518531</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="C59" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="D59" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="E59" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="F59" t="n">
-        <v>3865.2932</v>
+        <v>1871.9412</v>
       </c>
       <c r="G59" t="n">
-        <v>-64046.53142518531</v>
+        <v>-47639.9093251853</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="C60" t="n">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="D60" t="n">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="E60" t="n">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="F60" t="n">
-        <v>10661.3525</v>
+        <v>19200</v>
       </c>
       <c r="G60" t="n">
-        <v>-64046.53142518531</v>
+        <v>-66839.9093251853</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C61" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D61" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E61" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F61" t="n">
-        <v>118485.5596</v>
+        <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>-182532.0910251853</v>
+        <v>-66829.9093251853</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="C62" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="D62" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="E62" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="F62" t="n">
-        <v>33571.3254</v>
+        <v>28927.7509</v>
       </c>
       <c r="G62" t="n">
-        <v>-216103.4164251853</v>
+        <v>-95757.6602251853</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="C63" t="n">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="D63" t="n">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="E63" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="F63" t="n">
-        <v>17335.8794</v>
+        <v>41839.5571</v>
       </c>
       <c r="G63" t="n">
-        <v>-198767.5370251853</v>
+        <v>-95757.6602251853</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="C64" t="n">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="D64" t="n">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="E64" t="n">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="F64" t="n">
-        <v>2031.0653</v>
+        <v>22000</v>
       </c>
       <c r="G64" t="n">
-        <v>-198767.5370251853</v>
+        <v>-95757.6602251853</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="D65" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="E65" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="F65" t="n">
-        <v>27124.7375</v>
+        <v>9034.5209</v>
       </c>
       <c r="G65" t="n">
-        <v>-225892.2745251853</v>
+        <v>-104792.1811251853</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,35 +2742,31 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="C66" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="D66" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="E66" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="F66" t="n">
-        <v>14084.2124</v>
+        <v>77813.2205</v>
       </c>
       <c r="G66" t="n">
-        <v>-225892.2745251853</v>
+        <v>-104792.1811251853</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K66" t="n">
-        <v>27.3</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
@@ -2782,40 +2778,32 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="C67" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="D67" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="E67" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="F67" t="n">
-        <v>7000</v>
+        <v>27823.9204</v>
       </c>
       <c r="G67" t="n">
-        <v>-225892.2745251853</v>
+        <v>-104792.1811251853</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K67" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2826,40 +2814,32 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="C68" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="D68" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="E68" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="F68" t="n">
-        <v>12963.9999</v>
+        <v>1116.9144</v>
       </c>
       <c r="G68" t="n">
-        <v>-225892.2745251853</v>
+        <v>-104792.1811251853</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K68" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2870,35 +2850,31 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="C69" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="D69" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="E69" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="F69" t="n">
-        <v>11582.2102</v>
+        <v>1808.2998</v>
       </c>
       <c r="G69" t="n">
-        <v>-225892.2745251853</v>
+        <v>-104792.1811251853</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K69" t="n">
-        <v>27.3</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
@@ -2910,40 +2886,32 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="C70" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D70" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E70" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="F70" t="n">
-        <v>9604.2912</v>
+        <v>3833</v>
       </c>
       <c r="G70" t="n">
-        <v>-225892.2745251853</v>
+        <v>-100959.1811251853</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K70" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2957,37 +2925,29 @@
         <v>27.2</v>
       </c>
       <c r="C71" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="D71" t="n">
         <v>27.2</v>
       </c>
       <c r="E71" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="F71" t="n">
-        <v>42933.1122</v>
+        <v>7881.3308</v>
       </c>
       <c r="G71" t="n">
-        <v>-268825.3867251853</v>
+        <v>-100959.1811251853</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K71" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2998,40 +2958,32 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C72" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="D72" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="E72" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="F72" t="n">
-        <v>2442.6187</v>
+        <v>7318.5127</v>
       </c>
       <c r="G72" t="n">
-        <v>-266382.7680251853</v>
+        <v>-93640.6684251853</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K72" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3042,40 +2994,32 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C73" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D73" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E73" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F73" t="n">
-        <v>19497</v>
+        <v>63321.3636</v>
       </c>
       <c r="G73" t="n">
-        <v>-246885.7680251853</v>
+        <v>-93640.6684251853</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K73" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3086,40 +3030,32 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="C74" t="n">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="D74" t="n">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="E74" t="n">
-        <v>27.4</v>
+        <v>27</v>
       </c>
       <c r="F74" t="n">
-        <v>7287.1636</v>
+        <v>3227.905</v>
       </c>
       <c r="G74" t="n">
-        <v>-246885.7680251853</v>
+        <v>-96868.5734251853</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K74" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3130,40 +3066,32 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="C75" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="D75" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E75" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="F75" t="n">
-        <v>3964.7432</v>
+        <v>90</v>
       </c>
       <c r="G75" t="n">
-        <v>-246885.7680251853</v>
+        <v>-96778.5734251853</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K75" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3174,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C76" t="n">
         <v>27.4</v>
       </c>
       <c r="D76" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E76" t="n">
         <v>27.4</v>
       </c>
       <c r="F76" t="n">
-        <v>3376.8789</v>
+        <v>10</v>
       </c>
       <c r="G76" t="n">
-        <v>-246885.7680251853</v>
+        <v>-96768.5734251853</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3198,14 +3126,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3216,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C77" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D77" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E77" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F77" t="n">
-        <v>46587.0745</v>
+        <v>25713.3522</v>
       </c>
       <c r="G77" t="n">
-        <v>-246885.7680251853</v>
+        <v>-122481.9256251853</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3240,14 +3162,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3258,40 +3174,32 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C78" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D78" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E78" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F78" t="n">
-        <v>9375.844800000001</v>
+        <v>1759.1752</v>
       </c>
       <c r="G78" t="n">
-        <v>-246885.7680251853</v>
+        <v>-122481.9256251853</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K78" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3302,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C79" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D79" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E79" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F79" t="n">
-        <v>9936.7816</v>
+        <v>643.1135</v>
       </c>
       <c r="G79" t="n">
-        <v>-246885.7680251853</v>
+        <v>-122481.9256251853</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3326,14 +3234,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3344,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="C80" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="D80" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="E80" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="F80" t="n">
-        <v>5259.1263</v>
+        <v>43210.8471</v>
       </c>
       <c r="G80" t="n">
-        <v>-246885.7680251853</v>
+        <v>-165692.7727251853</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3368,14 +3270,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3386,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="C81" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="D81" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E81" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="F81" t="n">
-        <v>10035.0976</v>
+        <v>24593.1517</v>
       </c>
       <c r="G81" t="n">
-        <v>-246885.7680251853</v>
+        <v>-190285.9244251853</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3410,14 +3306,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3428,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="C82" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="D82" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="E82" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="F82" t="n">
-        <v>78171.17110000001</v>
+        <v>1835.9674</v>
       </c>
       <c r="G82" t="n">
-        <v>-246885.7680251853</v>
+        <v>-188449.9570251853</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3452,14 +3342,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3470,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="C83" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="D83" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="E83" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="F83" t="n">
-        <v>16818.7826</v>
+        <v>15004.4183</v>
       </c>
       <c r="G83" t="n">
-        <v>-246885.7680251853</v>
+        <v>-203454.3753251853</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3494,14 +3378,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3512,40 +3390,32 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C84" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D84" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E84" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F84" t="n">
-        <v>3778.4091</v>
+        <v>380</v>
       </c>
       <c r="G84" t="n">
-        <v>-246885.7680251853</v>
+        <v>-203074.3753251853</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K84" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3556,40 +3426,32 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="C85" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="D85" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="E85" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="F85" t="n">
-        <v>10</v>
+        <v>18885.9131</v>
       </c>
       <c r="G85" t="n">
-        <v>-246875.7680251853</v>
+        <v>-221960.2884251853</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K85" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3600,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="C86" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="D86" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
       <c r="E86" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="F86" t="n">
-        <v>5929.1998</v>
+        <v>17524</v>
       </c>
       <c r="G86" t="n">
-        <v>-252804.9678251853</v>
+        <v>-221960.2884251853</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3624,14 +3486,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3642,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C87" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D87" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E87" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F87" t="n">
-        <v>16904.4151</v>
+        <v>35100</v>
       </c>
       <c r="G87" t="n">
-        <v>-269709.3829251853</v>
+        <v>-186860.2884251853</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3666,14 +3522,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3696,28 +3546,20 @@
         <v>27.3</v>
       </c>
       <c r="F88" t="n">
-        <v>1301.1475</v>
+        <v>7900</v>
       </c>
       <c r="G88" t="n">
-        <v>-269709.3829251853</v>
+        <v>-178960.2884251853</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K88" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3740,28 +3582,20 @@
         <v>27.3</v>
       </c>
       <c r="F89" t="n">
-        <v>15718.7765</v>
+        <v>2900</v>
       </c>
       <c r="G89" t="n">
-        <v>-269709.3829251853</v>
+        <v>-178960.2884251853</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K89" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3775,37 +3609,29 @@
         <v>27.3</v>
       </c>
       <c r="C90" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D90" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E90" t="n">
         <v>27.3</v>
       </c>
       <c r="F90" t="n">
-        <v>3755.7862</v>
+        <v>87266</v>
       </c>
       <c r="G90" t="n">
-        <v>-269709.3829251853</v>
+        <v>-91694.28842518531</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K90" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3816,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C91" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D91" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E91" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="F91" t="n">
-        <v>682.5018</v>
+        <v>6600</v>
       </c>
       <c r="G91" t="n">
-        <v>-269709.3829251853</v>
+        <v>-98294.28842518531</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3840,14 +3666,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3870,10 +3690,10 @@
         <v>27.3</v>
       </c>
       <c r="F92" t="n">
-        <v>8474</v>
+        <v>8180</v>
       </c>
       <c r="G92" t="n">
-        <v>-269709.3829251853</v>
+        <v>-90114.28842518531</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3882,14 +3702,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3900,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C93" t="n">
         <v>27.2</v>
       </c>
       <c r="D93" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E93" t="n">
         <v>27.2</v>
       </c>
       <c r="F93" t="n">
-        <v>3726.37</v>
+        <v>1898.1989</v>
       </c>
       <c r="G93" t="n">
-        <v>-273435.7529251853</v>
+        <v>-92012.48732518531</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3924,14 +3738,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3942,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="C94" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="D94" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E94" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="F94" t="n">
-        <v>8402.567300000001</v>
+        <v>35908.672</v>
       </c>
       <c r="G94" t="n">
-        <v>-265033.1856251853</v>
+        <v>-127921.1593251853</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3966,14 +3774,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3996,10 +3798,10 @@
         <v>27.3</v>
       </c>
       <c r="F95" t="n">
-        <v>13503.9765</v>
+        <v>10</v>
       </c>
       <c r="G95" t="n">
-        <v>-265033.1856251853</v>
+        <v>-127911.1593251853</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4008,14 +3810,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4038,10 +3834,10 @@
         <v>27.3</v>
       </c>
       <c r="F96" t="n">
-        <v>1532.9071</v>
+        <v>23952.6623</v>
       </c>
       <c r="G96" t="n">
-        <v>-265033.1856251853</v>
+        <v>-127911.1593251853</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4050,14 +3846,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4068,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="C97" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="D97" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="E97" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="F97" t="n">
-        <v>14600</v>
+        <v>10</v>
       </c>
       <c r="G97" t="n">
-        <v>-279633.1856251853</v>
+        <v>-127901.1593251853</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4092,14 +3882,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4110,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C98" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D98" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E98" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F98" t="n">
-        <v>1659</v>
+        <v>19373.6496</v>
       </c>
       <c r="G98" t="n">
-        <v>-277974.1856251853</v>
+        <v>-127901.1593251853</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4134,14 +3918,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4152,40 +3930,32 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C99" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D99" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E99" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F99" t="n">
-        <v>5830.9069</v>
+        <v>2000</v>
       </c>
       <c r="G99" t="n">
-        <v>-277974.1856251853</v>
+        <v>-127901.1593251853</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K99" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4196,40 +3966,32 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C100" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="D100" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E100" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="F100" t="n">
-        <v>37632.139</v>
+        <v>6616.3776</v>
       </c>
       <c r="G100" t="n">
-        <v>-315606.3246251853</v>
+        <v>-127901.1593251853</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K100" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4240,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C101" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D101" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E101" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F101" t="n">
-        <v>8769.0931</v>
+        <v>19293.2642</v>
       </c>
       <c r="G101" t="n">
-        <v>-306837.2315251853</v>
+        <v>-108607.8951251853</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4264,14 +4026,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4282,40 +4038,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C102" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D102" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E102" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="F102" t="n">
-        <v>10</v>
+        <v>21725.1739</v>
       </c>
       <c r="G102" t="n">
-        <v>-306827.2315251853</v>
+        <v>-130333.0690251853</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K102" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4338,10 +4086,10 @@
         <v>27.4</v>
       </c>
       <c r="F103" t="n">
-        <v>4903.6038</v>
+        <v>6089.1131</v>
       </c>
       <c r="G103" t="n">
-        <v>-311730.8353251853</v>
+        <v>-130333.0690251853</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4350,14 +4098,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4368,40 +4110,32 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="C104" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="D104" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="E104" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="F104" t="n">
-        <v>10</v>
+        <v>10751</v>
       </c>
       <c r="G104" t="n">
-        <v>-311720.8353251853</v>
+        <v>-141084.0690251853</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K104" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4412,22 +4146,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="C105" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="D105" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="E105" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="F105" t="n">
-        <v>10</v>
+        <v>22600</v>
       </c>
       <c r="G105" t="n">
-        <v>-311730.8353251853</v>
+        <v>-118484.0690251853</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4436,14 +4170,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4454,40 +4182,32 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="C106" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D106" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="E106" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F106" t="n">
-        <v>15810</v>
+        <v>35.7568</v>
       </c>
       <c r="G106" t="n">
-        <v>-311730.8353251853</v>
+        <v>-118519.8258251853</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K106" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4498,40 +4218,32 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="C107" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="D107" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E107" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="F107" t="n">
-        <v>70</v>
+        <v>9588</v>
       </c>
       <c r="G107" t="n">
-        <v>-311660.8353251853</v>
+        <v>-108931.8258251853</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K107" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4542,22 +4254,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C108" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="D108" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E108" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F108" t="n">
-        <v>2188.4025</v>
+        <v>83167</v>
       </c>
       <c r="G108" t="n">
-        <v>-311660.8353251853</v>
+        <v>-108931.8258251853</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4566,14 +4278,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4584,22 +4290,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C109" t="n">
         <v>27.6</v>
       </c>
-      <c r="C109" t="n">
-        <v>27.7</v>
-      </c>
       <c r="D109" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E109" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F109" t="n">
-        <v>400</v>
+        <v>17800</v>
       </c>
       <c r="G109" t="n">
-        <v>-311260.8353251853</v>
+        <v>-91131.82582518531</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4608,14 +4314,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4626,22 +4326,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="C110" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="D110" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E110" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F110" t="n">
-        <v>1323.7978</v>
+        <v>5400</v>
       </c>
       <c r="G110" t="n">
-        <v>-311260.8353251853</v>
+        <v>-91131.82582518531</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4650,14 +4350,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4671,35 +4365,29 @@
         <v>27.6</v>
       </c>
       <c r="C111" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D111" t="n">
         <v>27.6</v>
       </c>
       <c r="E111" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F111" t="n">
-        <v>20</v>
+        <v>22.7009</v>
       </c>
       <c r="G111" t="n">
-        <v>-311280.8353251853</v>
+        <v>-91131.82582518531</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4710,38 +4398,32 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="C112" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D112" t="n">
         <v>27.7</v>
       </c>
       <c r="E112" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="F112" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="G112" t="n">
-        <v>-311250.8353251853</v>
+        <v>-90631.82582518531</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4752,38 +4434,32 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="C113" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="D113" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="E113" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="F113" t="n">
-        <v>20</v>
+        <v>25065.2158</v>
       </c>
       <c r="G113" t="n">
-        <v>-311270.8353251853</v>
+        <v>-65566.61002518531</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4794,40 +4470,32 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="C114" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D114" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E114" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="F114" t="n">
-        <v>60</v>
+        <v>588.7641</v>
       </c>
       <c r="G114" t="n">
-        <v>-311210.8353251853</v>
+        <v>-66155.37412518531</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K114" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4838,40 +4506,32 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="C115" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="D115" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="E115" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="F115" t="n">
-        <v>40</v>
+        <v>2059</v>
       </c>
       <c r="G115" t="n">
-        <v>-311250.8353251853</v>
+        <v>-64096.37412518531</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K115" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4882,40 +4542,32 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="C116" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="D116" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="E116" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="F116" t="n">
-        <v>20</v>
+        <v>63400</v>
       </c>
       <c r="G116" t="n">
-        <v>-311250.8353251853</v>
+        <v>-64096.37412518531</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K116" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4926,40 +4578,32 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="C117" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="D117" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="E117" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="F117" t="n">
-        <v>3587.5181</v>
+        <v>32659.75</v>
       </c>
       <c r="G117" t="n">
-        <v>-307663.3172251853</v>
+        <v>-64096.37412518531</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K117" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4970,38 +4614,32 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>27.5</v>
+        <v>28</v>
       </c>
       <c r="C118" t="n">
-        <v>27.4</v>
+        <v>28</v>
       </c>
       <c r="D118" t="n">
-        <v>27.5</v>
+        <v>28</v>
       </c>
       <c r="E118" t="n">
-        <v>27.4</v>
+        <v>28</v>
       </c>
       <c r="F118" t="n">
-        <v>20</v>
+        <v>1409.8214</v>
       </c>
       <c r="G118" t="n">
-        <v>-307683.3172251853</v>
+        <v>-62686.55272518531</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5012,38 +4650,32 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="C119" t="n">
-        <v>27.4</v>
+        <v>28</v>
       </c>
       <c r="D119" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="E119" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="F119" t="n">
-        <v>39499.0397</v>
+        <v>74609.68610000001</v>
       </c>
       <c r="G119" t="n">
-        <v>-307683.3172251853</v>
+        <v>-62686.55272518531</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5054,38 +4686,32 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>27.5</v>
+        <v>27.9</v>
       </c>
       <c r="C120" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="D120" t="n">
-        <v>27.5</v>
+        <v>27.9</v>
       </c>
       <c r="E120" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="F120" t="n">
-        <v>10</v>
+        <v>1040</v>
       </c>
       <c r="G120" t="n">
-        <v>-307673.3172251853</v>
+        <v>-63726.55272518531</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5099,35 +4725,29 @@
         <v>27.8</v>
       </c>
       <c r="C121" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="D121" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="E121" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="F121" t="n">
-        <v>15300</v>
+        <v>3800.1499</v>
       </c>
       <c r="G121" t="n">
-        <v>-292373.3172251853</v>
+        <v>-67526.70262518531</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5138,40 +4758,34 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="C122" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="D122" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="E122" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="F122" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G122" t="n">
-        <v>-292353.3172251853</v>
+        <v>-67516.70262518531</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>1.020641025641026</v>
+        <v>1</v>
       </c>
       <c r="N122" t="inlineStr"/>
     </row>
@@ -5180,28 +4794,28 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="C123" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="D123" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="E123" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F123" t="n">
-        <v>20</v>
+        <v>6400</v>
       </c>
       <c r="G123" t="n">
-        <v>-292373.3172251853</v>
+        <v>-73916.70262518531</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -5228,16 +4842,16 @@
         <v>27.5</v>
       </c>
       <c r="F124" t="n">
-        <v>10</v>
+        <v>8600</v>
       </c>
       <c r="G124" t="n">
-        <v>-292383.3172251853</v>
+        <v>-73916.70262518531</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -5255,25 +4869,25 @@
         <v>27.5</v>
       </c>
       <c r="C125" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="D125" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="E125" t="n">
         <v>27.5</v>
       </c>
       <c r="F125" t="n">
-        <v>90</v>
+        <v>225488.7964</v>
       </c>
       <c r="G125" t="n">
-        <v>-292293.3172251853</v>
+        <v>-73916.70262518531</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -5288,28 +4902,28 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="C126" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="D126" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="E126" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="F126" t="n">
-        <v>10</v>
+        <v>8691.758</v>
       </c>
       <c r="G126" t="n">
-        <v>-292303.3172251853</v>
+        <v>-82608.46062518531</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5324,28 +4938,28 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="C127" t="n">
-        <v>27.9</v>
+        <v>27.5</v>
       </c>
       <c r="D127" t="n">
-        <v>27.9</v>
+        <v>27.5</v>
       </c>
       <c r="E127" t="n">
         <v>27.5</v>
       </c>
       <c r="F127" t="n">
-        <v>95002.1182</v>
+        <v>10</v>
       </c>
       <c r="G127" t="n">
-        <v>-197301.1990251853</v>
+        <v>-82598.46062518531</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -5360,28 +4974,28 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C128" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D128" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E128" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F128" t="n">
-        <v>20</v>
+        <v>1406.2968</v>
       </c>
       <c r="G128" t="n">
-        <v>-197321.1990251853</v>
+        <v>-84004.75742518531</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -5396,28 +5010,28 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="C129" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="D129" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="E129" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F129" t="n">
-        <v>20</v>
+        <v>23823.5192</v>
       </c>
       <c r="G129" t="n">
-        <v>-197321.1990251853</v>
+        <v>-60181.23822518531</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -5432,28 +5046,28 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C130" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D130" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E130" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F130" t="n">
-        <v>1960.7926</v>
+        <v>3865.2932</v>
       </c>
       <c r="G130" t="n">
-        <v>-199281.9916251853</v>
+        <v>-64046.53142518531</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -5468,28 +5082,28 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C131" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D131" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E131" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F131" t="n">
-        <v>10</v>
+        <v>10661.3525</v>
       </c>
       <c r="G131" t="n">
-        <v>-199281.9916251853</v>
+        <v>-64046.53142518531</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5504,28 +5118,28 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C132" t="n">
         <v>27.3</v>
       </c>
       <c r="D132" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E132" t="n">
         <v>27.3</v>
       </c>
       <c r="F132" t="n">
-        <v>41017.6023</v>
+        <v>118485.5596</v>
       </c>
       <c r="G132" t="n">
-        <v>-240299.5939251853</v>
+        <v>-182532.0910251853</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5540,22 +5154,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="C133" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="D133" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="E133" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="F133" t="n">
-        <v>21</v>
+        <v>33571.3254</v>
       </c>
       <c r="G133" t="n">
-        <v>-240278.5939251853</v>
+        <v>-216103.4164251853</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5576,7 +5190,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="C134" t="n">
         <v>27.4</v>
@@ -5585,19 +5199,19 @@
         <v>27.4</v>
       </c>
       <c r="E134" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="F134" t="n">
-        <v>10</v>
+        <v>17335.8794</v>
       </c>
       <c r="G134" t="n">
-        <v>-240288.5939251853</v>
+        <v>-198767.5370251853</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -5612,22 +5226,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C135" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D135" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E135" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F135" t="n">
-        <v>100</v>
+        <v>2031.0653</v>
       </c>
       <c r="G135" t="n">
-        <v>-240388.5939251853</v>
+        <v>-198767.5370251853</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5660,10 +5274,10 @@
         <v>27.3</v>
       </c>
       <c r="F136" t="n">
-        <v>100</v>
+        <v>27124.7375</v>
       </c>
       <c r="G136" t="n">
-        <v>-240388.5939251853</v>
+        <v>-225892.2745251853</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5684,22 +5298,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C137" t="n">
         <v>27.3</v>
       </c>
       <c r="D137" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E137" t="n">
         <v>27.3</v>
       </c>
       <c r="F137" t="n">
-        <v>1796.607</v>
+        <v>14084.2124</v>
       </c>
       <c r="G137" t="n">
-        <v>-240388.5939251853</v>
+        <v>-225892.2745251853</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5715,6 +5329,3046 @@
       </c>
       <c r="N137" t="inlineStr"/>
     </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C138" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D138" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E138" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F138" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-225892.2745251853</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C139" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D139" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E139" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F139" t="n">
+        <v>12963.9999</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-225892.2745251853</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K139" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C140" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D140" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E140" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F140" t="n">
+        <v>11582.2102</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-225892.2745251853</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K140" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C141" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D141" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E141" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F141" t="n">
+        <v>9604.2912</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-225892.2745251853</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K141" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C142" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E142" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="F142" t="n">
+        <v>42933.1122</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-268825.3867251853</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K142" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C143" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D143" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E143" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2442.6187</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-266382.7680251853</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K143" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C144" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D144" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E144" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F144" t="n">
+        <v>19497</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-246885.7680251853</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K144" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C145" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D145" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E145" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F145" t="n">
+        <v>7287.1636</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-246885.7680251853</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K145" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C146" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D146" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E146" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F146" t="n">
+        <v>3964.7432</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-246885.7680251853</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K146" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C147" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D147" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E147" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F147" t="n">
+        <v>3376.8789</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-246885.7680251853</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K147" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C148" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D148" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E148" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F148" t="n">
+        <v>46587.0745</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-246885.7680251853</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C149" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D149" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E149" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F149" t="n">
+        <v>9375.844800000001</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-246885.7680251853</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K149" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C150" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D150" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E150" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F150" t="n">
+        <v>9936.7816</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-246885.7680251853</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K150" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C151" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D151" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E151" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F151" t="n">
+        <v>5259.1263</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-246885.7680251853</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K151" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C152" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D152" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E152" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F152" t="n">
+        <v>10035.0976</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-246885.7680251853</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K152" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C153" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D153" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E153" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F153" t="n">
+        <v>78171.17110000001</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-246885.7680251853</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K153" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C154" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D154" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E154" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F154" t="n">
+        <v>16818.7826</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-246885.7680251853</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K154" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C155" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D155" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E155" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F155" t="n">
+        <v>3778.4091</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-246885.7680251853</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K155" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C156" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D156" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E156" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F156" t="n">
+        <v>10</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-246875.7680251853</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K156" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C157" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D157" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E157" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F157" t="n">
+        <v>5929.1998</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-252804.9678251853</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C158" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D158" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E158" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F158" t="n">
+        <v>16904.4151</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-269709.3829251853</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C159" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D159" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E159" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1301.1475</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-269709.3829251853</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K159" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C160" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D160" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E160" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F160" t="n">
+        <v>15718.7765</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-269709.3829251853</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K160" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C161" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D161" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E161" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F161" t="n">
+        <v>3755.7862</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-269709.3829251853</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K161" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C162" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D162" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E162" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F162" t="n">
+        <v>682.5018</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-269709.3829251853</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K162" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C163" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D163" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E163" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F163" t="n">
+        <v>8474</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-269709.3829251853</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K163" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C164" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D164" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E164" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F164" t="n">
+        <v>3726.37</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-273435.7529251853</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K164" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C165" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D165" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E165" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F165" t="n">
+        <v>8402.567300000001</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-265033.1856251853</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K165" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C166" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D166" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E166" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F166" t="n">
+        <v>13503.9765</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-265033.1856251853</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K166" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C167" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D167" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E167" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1532.9071</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-265033.1856251853</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K167" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C168" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D168" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E168" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F168" t="n">
+        <v>14600</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-279633.1856251853</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K168" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C169" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D169" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E169" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1659</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-277974.1856251853</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K169" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C170" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D170" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E170" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F170" t="n">
+        <v>5830.9069</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-277974.1856251853</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K170" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C171" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D171" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E171" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F171" t="n">
+        <v>37632.139</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-315606.3246251853</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K171" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C172" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D172" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E172" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F172" t="n">
+        <v>8769.0931</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-306837.2315251853</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C173" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D173" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E173" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F173" t="n">
+        <v>10</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-306827.2315251853</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C174" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D174" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E174" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F174" t="n">
+        <v>4903.6038</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-311730.8353251853</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C175" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D175" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E175" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F175" t="n">
+        <v>10</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-311720.8353251853</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C176" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D176" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E176" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F176" t="n">
+        <v>10</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-311730.8353251853</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C177" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D177" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E177" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F177" t="n">
+        <v>15810</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-311730.8353251853</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K177" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C178" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D178" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E178" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F178" t="n">
+        <v>70</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-311660.8353251853</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C179" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D179" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E179" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2188.4025</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-311660.8353251853</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C180" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D180" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E180" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F180" t="n">
+        <v>400</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-311260.8353251853</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C181" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D181" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E181" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1323.7978</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-311260.8353251853</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C182" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D182" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E182" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F182" t="n">
+        <v>20</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-311280.8353251853</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C183" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D183" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E183" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F183" t="n">
+        <v>30</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-311250.8353251853</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C184" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D184" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E184" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F184" t="n">
+        <v>20</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-311270.8353251853</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C185" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D185" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E185" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F185" t="n">
+        <v>60</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-311210.8353251853</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K185" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C186" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D186" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E186" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F186" t="n">
+        <v>40</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-311250.8353251853</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C187" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D187" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E187" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F187" t="n">
+        <v>20</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-311250.8353251853</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K187" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C188" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D188" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E188" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F188" t="n">
+        <v>3587.5181</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-307663.3172251853</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C189" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D189" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E189" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F189" t="n">
+        <v>20</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-307683.3172251853</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C190" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D190" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E190" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F190" t="n">
+        <v>39499.0397</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-307683.3172251853</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C191" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D191" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E191" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F191" t="n">
+        <v>10</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-307673.3172251853</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K191" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C192" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D192" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E192" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F192" t="n">
+        <v>15300</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-292373.3172251853</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C193" t="n">
+        <v>28</v>
+      </c>
+      <c r="D193" t="n">
+        <v>28</v>
+      </c>
+      <c r="E193" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F193" t="n">
+        <v>20</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-292353.3172251853</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C194" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D194" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E194" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F194" t="n">
+        <v>20</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-292373.3172251853</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C195" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D195" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E195" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F195" t="n">
+        <v>10</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-292383.3172251853</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C196" t="n">
+        <v>28</v>
+      </c>
+      <c r="D196" t="n">
+        <v>28</v>
+      </c>
+      <c r="E196" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F196" t="n">
+        <v>90</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-292293.3172251853</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C197" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D197" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E197" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F197" t="n">
+        <v>10</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-292303.3172251853</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C198" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D198" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E198" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F198" t="n">
+        <v>95002.1182</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-197301.1990251853</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C199" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D199" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E199" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F199" t="n">
+        <v>20</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-197321.1990251853</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C200" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D200" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E200" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F200" t="n">
+        <v>20</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-197321.1990251853</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C201" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D201" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E201" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1960.7926</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-199281.9916251853</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C202" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D202" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E202" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F202" t="n">
+        <v>10</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-199281.9916251853</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C203" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D203" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E203" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F203" t="n">
+        <v>41017.6023</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-240299.5939251853</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C204" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D204" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E204" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F204" t="n">
+        <v>21</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-240278.5939251853</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C205" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D205" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E205" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F205" t="n">
+        <v>10</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-240288.5939251853</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C206" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D206" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E206" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F206" t="n">
+        <v>100</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-240388.5939251853</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C207" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D207" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E207" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F207" t="n">
+        <v>100</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-240388.5939251853</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C208" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D208" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E208" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1796.607</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-240388.5939251853</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-01 BackTest LOOM.xlsx
+++ b/BackTest/2019-11-01 BackTest LOOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N208"/>
+  <dimension ref="A1:M208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-294345.8514251852</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-308157.8949251852</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-323257.8949251852</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-323257.8949251852</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>205262.0859748147</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2167,19 @@
         <v>58107.1347748147</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
+        <v>27.1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>27.1</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2206,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2245,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2284,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2317,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2350,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2383,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2416,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2449,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2482,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2513,19 @@
         <v>-95757.6602251853</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="J64" t="n">
+        <v>27</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2550,23 @@
         <v>-104792.1811251853</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="J65" t="n">
+        <v>27</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,18 +2591,23 @@
         <v>-104792.1811251853</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="J66" t="n">
+        <v>27</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2632,23 @@
         <v>-104792.1811251853</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="J67" t="n">
+        <v>27</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2673,23 @@
         <v>-104792.1811251853</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="J68" t="n">
+        <v>27</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2714,23 @@
         <v>-104792.1811251853</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="J69" t="n">
+        <v>27</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2755,23 @@
         <v>-100959.1811251853</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="J70" t="n">
+        <v>27</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2940,18 +2796,23 @@
         <v>-100959.1811251853</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>27.2</v>
+      </c>
+      <c r="J71" t="n">
+        <v>27</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,18 +2837,23 @@
         <v>-93640.6684251853</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>27.2</v>
+      </c>
+      <c r="J72" t="n">
+        <v>27</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2880,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>27</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2919,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>27</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2958,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>27</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2997,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>27</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +3036,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>27</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +3075,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>27</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +3114,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>27</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3153,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>27</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3192,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>27</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3231,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>27</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3270,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>27</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3309,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>27</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3348,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>27</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3387,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>27</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3426,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>27</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3465,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>27</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3504,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>27</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3543,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>27</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3582,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>27</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3621,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>27</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3660,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>27</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3699,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>27</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3738,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>27</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3777,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>27</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3816,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>27</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3855,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>27</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3894,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>27</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3933,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>27</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3972,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>27</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +4011,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>27</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +4050,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>27</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +4089,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>27</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +4128,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>27</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +4167,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>27</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +4206,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>27</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +4245,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>27</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +4284,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>27</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4323,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>27</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4362,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>27</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4401,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>27</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4440,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>27</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4479,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>27</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4518,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>27</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4557,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>27</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4596,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>27</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4632,18 +4633,21 @@
         <v>-62686.55272518531</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>27</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1.032037037037037</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4668,18 +4672,15 @@
         <v>-62686.55272518531</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4704,18 +4705,15 @@
         <v>-63726.55272518531</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4740,18 +4738,15 @@
         <v>-67526.70262518531</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4776,18 +4771,15 @@
         <v>-67516.70262518531</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4812,18 +4804,15 @@
         <v>-73916.70262518531</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4839,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4872,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4905,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4938,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4971,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +5004,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +5037,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +5070,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +5103,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +5136,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +5169,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +5202,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +5235,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +5268,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +5301,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5388,22 +5332,15 @@
         <v>-225892.2745251853</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K139" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5428,26 +5365,15 @@
         <v>-225892.2745251853</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K140" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5472,26 +5398,15 @@
         <v>-225892.2745251853</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K141" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5516,26 +5431,15 @@
         <v>-268825.3867251853</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K142" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5560,26 +5464,15 @@
         <v>-266382.7680251853</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K143" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5604,26 +5497,15 @@
         <v>-246885.7680251853</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K144" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5648,26 +5530,15 @@
         <v>-246885.7680251853</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K145" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5692,26 +5563,15 @@
         <v>-246885.7680251853</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K146" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5736,26 +5596,15 @@
         <v>-246885.7680251853</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K147" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5782,22 +5631,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5822,26 +5662,15 @@
         <v>-246885.7680251853</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K149" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5866,26 +5695,15 @@
         <v>-246885.7680251853</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K150" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5910,26 +5728,15 @@
         <v>-246885.7680251853</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K151" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5954,26 +5761,15 @@
         <v>-246885.7680251853</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K152" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5998,26 +5794,15 @@
         <v>-246885.7680251853</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K153" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6042,26 +5827,15 @@
         <v>-246885.7680251853</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K154" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6086,26 +5860,15 @@
         <v>-246885.7680251853</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K155" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6130,26 +5893,15 @@
         <v>-246875.7680251853</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K156" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6176,22 +5928,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6218,22 +5961,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6258,26 +5992,15 @@
         <v>-269709.3829251853</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K159" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6302,26 +6025,15 @@
         <v>-269709.3829251853</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K160" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6346,26 +6058,15 @@
         <v>-269709.3829251853</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K161" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6390,26 +6091,15 @@
         <v>-269709.3829251853</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K162" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6434,26 +6124,15 @@
         <v>-269709.3829251853</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K163" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6478,26 +6157,15 @@
         <v>-273435.7529251853</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K164" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6522,26 +6190,15 @@
         <v>-265033.1856251853</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K165" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6566,26 +6223,15 @@
         <v>-265033.1856251853</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K166" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6610,26 +6256,15 @@
         <v>-265033.1856251853</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K167" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6654,26 +6289,15 @@
         <v>-279633.1856251853</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K168" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6698,26 +6322,15 @@
         <v>-277974.1856251853</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K169" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6742,26 +6355,15 @@
         <v>-277974.1856251853</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K170" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6786,26 +6388,15 @@
         <v>-315606.3246251853</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K171" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6832,22 +6423,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6874,22 +6456,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6916,22 +6489,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6958,22 +6522,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7000,22 +6555,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7040,26 +6586,15 @@
         <v>-311730.8353251853</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K177" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7086,22 +6621,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7128,22 +6654,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7170,22 +6687,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7212,22 +6720,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7254,22 +6753,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7296,22 +6786,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7338,22 +6819,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7378,26 +6850,15 @@
         <v>-311210.8353251853</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K185" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7424,22 +6885,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7464,26 +6916,15 @@
         <v>-311250.8353251853</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K187" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7510,22 +6951,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7552,22 +6984,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7594,22 +7017,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7634,26 +7048,15 @@
         <v>-307673.3172251853</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K191" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7680,22 +7083,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7722,22 +7116,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7764,22 +7149,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7806,22 +7182,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7848,22 +7215,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7890,22 +7248,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7932,22 +7281,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7974,22 +7314,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8016,22 +7347,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8058,22 +7380,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8100,22 +7413,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8142,22 +7446,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8184,22 +7479,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8226,22 +7512,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8268,22 +7545,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8310,22 +7578,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8352,24 +7611,15 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest LOOM.xlsx
+++ b/BackTest/2019-11-01 BackTest LOOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>-294345.8514251852</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-308157.8949251852</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-323257.8949251852</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-323257.8949251852</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>205262.0859748147</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>145879.7079748147</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>145879.7079748147</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>181750.7024748147</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>181750.7024748147</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>181650.7024748147</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>181660.7024748147</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>147914.4619748147</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>147924.4619748147</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>147924.4619748147</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>147934.4619748147</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>147924.4619748147</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>155824.4619748147</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>123335.8667748147</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>123345.8667748147</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>123345.8667748147</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>101217.5922748147</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>68369.59227481471</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>63592.78147481471</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>63592.78147481471</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2167,14 +2167,10 @@
         <v>58107.1347748147</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="J54" t="n">
-        <v>27.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
@@ -2207,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2246,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2480,7 +2464,7 @@
         <v>-95757.6602251853</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2513,14 +2497,10 @@
         <v>-95757.6602251853</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>27</v>
-      </c>
-      <c r="J64" t="n">
-        <v>27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
@@ -2550,19 +2530,11 @@
         <v>-104792.1811251853</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>27</v>
-      </c>
-      <c r="J65" t="n">
-        <v>27</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2591,19 +2563,11 @@
         <v>-104792.1811251853</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J66" t="n">
-        <v>27</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2632,19 +2596,11 @@
         <v>-104792.1811251853</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J67" t="n">
-        <v>27</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2673,19 +2629,11 @@
         <v>-104792.1811251853</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J68" t="n">
-        <v>27</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2714,19 +2662,11 @@
         <v>-104792.1811251853</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J69" t="n">
-        <v>27</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2755,19 +2695,11 @@
         <v>-100959.1811251853</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J70" t="n">
-        <v>27</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2796,19 +2728,11 @@
         <v>-100959.1811251853</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J71" t="n">
-        <v>27</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2837,19 +2761,11 @@
         <v>-93640.6684251853</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J72" t="n">
-        <v>27</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2881,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>27</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2920,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>27</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2959,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>27</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2998,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>27</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3037,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>27</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3076,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>27</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3115,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>27</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3154,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>27</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3193,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>27</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3232,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>27</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3271,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>27</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3310,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>27</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3349,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>27</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3388,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>27</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3427,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>27</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3466,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>27</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3505,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>27</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3544,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>27</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3583,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>27</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3622,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>27</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3661,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>27</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3700,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>27</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3739,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>27</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3778,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>27</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3817,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>27</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3856,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>27</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3895,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>27</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3934,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>27</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3973,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>27</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4012,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>27</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4051,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>27</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4090,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>27</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4129,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>27</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4168,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>27</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4207,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>27</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4246,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>27</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4285,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>27</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4324,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>27</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4363,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>27</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4402,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>27</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4441,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>27</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4480,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>27</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4519,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>27</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4558,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>27</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4597,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>27</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4633,19 +4279,13 @@
         <v>-62686.55272518531</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>27</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
-        <v>1.032037037037037</v>
+        <v>1</v>
       </c>
       <c r="M118" t="inlineStr"/>
     </row>
@@ -4672,7 +4312,7 @@
         <v>-62686.55272518531</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4705,7 +4345,7 @@
         <v>-63726.55272518531</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4738,7 +4378,7 @@
         <v>-67526.70262518531</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4771,7 +4411,7 @@
         <v>-67516.70262518531</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4804,7 +4444,7 @@
         <v>-73916.70262518531</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -6586,11 +6226,17 @@
         <v>-311730.8353251853</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>27.2</v>
+      </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6623,7 +6269,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6652,11 +6302,17 @@
         <v>-311660.8353251853</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>27.6</v>
+      </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6689,7 +6345,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6722,7 +6382,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6755,7 +6419,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6788,7 +6456,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6817,11 +6489,17 @@
         <v>-311270.8353251853</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>27.6</v>
+      </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6850,11 +6528,17 @@
         <v>-311210.8353251853</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>27.4</v>
+      </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6883,11 +6567,17 @@
         <v>-311250.8353251853</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>27.6</v>
+      </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6916,11 +6606,17 @@
         <v>-311250.8353251853</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>27.4</v>
+      </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6949,11 +6645,17 @@
         <v>-307663.3172251853</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>27.4</v>
+      </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6982,11 +6684,17 @@
         <v>-307683.3172251853</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>27.6</v>
+      </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7015,11 +6723,17 @@
         <v>-307683.3172251853</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>27.4</v>
+      </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7048,11 +6762,17 @@
         <v>-307673.3172251853</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>27.4</v>
+      </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7081,11 +6801,17 @@
         <v>-292373.3172251853</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>27.5</v>
+      </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7118,7 +6844,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7151,7 +6881,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7184,7 +6918,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7213,11 +6951,17 @@
         <v>-292293.3172251853</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>27.5</v>
+      </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7250,7 +6994,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7283,7 +7031,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7316,7 +7068,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7349,7 +7105,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7382,7 +7142,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7415,7 +7179,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7448,7 +7216,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7481,7 +7253,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7514,7 +7290,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7547,7 +7327,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7580,7 +7364,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7613,13 +7401,17 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
       <c r="M208" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest LOOM.xlsx
+++ b/BackTest/2019-11-01 BackTest LOOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -847,7 +847,7 @@
         <v>145879.7079748147</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>145879.7079748147</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>181750.7024748147</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>147924.4619748147</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>147924.4619748147</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>147934.4619748147</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>147924.4619748147</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>155824.4619748147</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>123335.8667748147</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>123345.8667748147</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>123345.8667748147</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>101217.5922748147</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>68369.59227481471</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>63592.78147481471</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>63592.78147481471</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-95757.6602251853</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -5962,10 +5962,14 @@
         <v>-277974.1856251853</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="J169" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
@@ -5995,11 +5999,19 @@
         <v>-277974.1856251853</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="J170" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6028,11 +6040,19 @@
         <v>-315606.3246251853</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="J171" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6064,8 +6084,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6097,8 +6123,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6130,8 +6162,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6160,11 +6198,19 @@
         <v>-311720.8353251853</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="J175" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6196,8 +6242,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6226,15 +6278,15 @@
         <v>-311730.8353251853</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L177" t="n">
@@ -6268,7 +6320,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6302,12 +6356,12 @@
         <v>-311660.8353251853</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6344,7 +6398,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6381,7 +6437,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6418,7 +6476,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6455,7 +6515,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6489,12 +6551,12 @@
         <v>-311270.8353251853</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6528,12 +6590,12 @@
         <v>-311210.8353251853</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6567,12 +6629,12 @@
         <v>-311250.8353251853</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6606,12 +6668,12 @@
         <v>-311250.8353251853</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6645,12 +6707,12 @@
         <v>-307663.3172251853</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6684,12 +6746,12 @@
         <v>-307683.3172251853</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6723,12 +6785,12 @@
         <v>-307683.3172251853</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6762,12 +6824,12 @@
         <v>-307673.3172251853</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6801,12 +6863,12 @@
         <v>-292373.3172251853</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6843,7 +6905,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6880,7 +6944,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6917,7 +6983,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6951,12 +7019,12 @@
         <v>-292293.3172251853</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6993,7 +7061,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7030,7 +7100,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7067,7 +7139,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7104,7 +7178,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7141,7 +7217,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7178,7 +7256,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7215,7 +7295,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7252,7 +7334,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7289,7 +7373,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7326,7 +7412,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7363,7 +7451,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7400,7 +7490,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>27.2</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7412,6 +7504,6 @@
       <c r="M208" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest LOOM.xlsx
+++ b/BackTest/2019-11-01 BackTest LOOM.xlsx
@@ -946,7 +946,7 @@
         <v>181750.7024748147</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>181650.7024748147</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>181660.7024748147</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>147914.4619748147</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-64096.37412518531</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-62686.55272518531</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-62686.55272518531</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-63726.55272518531</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-67526.70262518531</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-67516.70262518531</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5764,10 +5764,14 @@
         <v>-269709.3829251853</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="J163" t="n">
+        <v>27.3</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
@@ -5797,11 +5801,19 @@
         <v>-273435.7529251853</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="J164" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +5842,19 @@
         <v>-265033.1856251853</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="J165" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5863,11 +5883,19 @@
         <v>-265033.1856251853</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="J166" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5896,11 +5924,19 @@
         <v>-265033.1856251853</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="J167" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5929,11 +5965,19 @@
         <v>-279633.1856251853</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="J168" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5968,9 +6012,13 @@
         <v>27.2</v>
       </c>
       <c r="J169" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K169" t="inlineStr"/>
+        <v>27.3</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6005,11 +6053,11 @@
         <v>27.3</v>
       </c>
       <c r="J170" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L170" t="n">
@@ -6046,11 +6094,11 @@
         <v>27.3</v>
       </c>
       <c r="J171" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L171" t="n">
@@ -6081,11 +6129,13 @@
         <v>-306837.2315251853</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>27.2</v>
+      </c>
       <c r="J172" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6120,11 +6170,13 @@
         <v>-306827.2315251853</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>27.4</v>
+      </c>
       <c r="J173" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6163,7 +6215,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6204,7 +6256,7 @@
         <v>27.4</v>
       </c>
       <c r="J175" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6239,11 +6291,13 @@
         <v>-311730.8353251853</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>27.6</v>
+      </c>
       <c r="J176" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6278,11 +6332,13 @@
         <v>-311730.8353251853</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>27.2</v>
+      </c>
       <c r="J177" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6317,11 +6373,13 @@
         <v>-311660.8353251853</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>27.2</v>
+      </c>
       <c r="J178" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6356,11 +6414,13 @@
         <v>-311660.8353251853</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>27.6</v>
+      </c>
       <c r="J179" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6395,11 +6455,13 @@
         <v>-311260.8353251853</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>27.6</v>
+      </c>
       <c r="J180" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6438,7 +6500,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6477,7 +6539,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6512,11 +6574,13 @@
         <v>-311250.8353251853</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>27.5</v>
+      </c>
       <c r="J183" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6551,11 +6615,13 @@
         <v>-311270.8353251853</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>27.6</v>
+      </c>
       <c r="J184" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6590,11 +6656,13 @@
         <v>-311210.8353251853</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>27.4</v>
+      </c>
       <c r="J185" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6629,11 +6697,13 @@
         <v>-311250.8353251853</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>27.6</v>
+      </c>
       <c r="J186" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6668,11 +6738,13 @@
         <v>-311250.8353251853</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>27.4</v>
+      </c>
       <c r="J187" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6707,11 +6779,13 @@
         <v>-307663.3172251853</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>27.4</v>
+      </c>
       <c r="J188" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6746,11 +6820,13 @@
         <v>-307683.3172251853</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>27.6</v>
+      </c>
       <c r="J189" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -6785,11 +6861,13 @@
         <v>-307683.3172251853</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>27.4</v>
+      </c>
       <c r="J190" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -6824,11 +6902,13 @@
         <v>-307673.3172251853</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>27.4</v>
+      </c>
       <c r="J191" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -6863,11 +6943,13 @@
         <v>-292373.3172251853</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>27.5</v>
+      </c>
       <c r="J192" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -6906,7 +6988,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -6945,7 +7027,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -6980,11 +7062,13 @@
         <v>-292383.3172251853</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>27.6</v>
+      </c>
       <c r="J195" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7019,11 +7103,13 @@
         <v>-292293.3172251853</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>27.5</v>
+      </c>
       <c r="J196" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7062,7 +7148,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7101,7 +7187,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7140,7 +7226,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7179,7 +7265,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7218,7 +7304,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7257,7 +7343,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7296,7 +7382,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7335,7 +7421,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7370,11 +7456,13 @@
         <v>-240288.5939251853</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>27.7</v>
+      </c>
       <c r="J205" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7409,11 +7497,13 @@
         <v>-240388.5939251853</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>27.4</v>
+      </c>
       <c r="J206" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7448,11 +7538,13 @@
         <v>-240388.5939251853</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>27.3</v>
+      </c>
       <c r="J207" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7491,7 +7583,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>

--- a/BackTest/2019-11-01 BackTest LOOM.xlsx
+++ b/BackTest/2019-11-01 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M208"/>
+  <dimension ref="A1:L208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>60</v>
       </c>
       <c r="G2" t="n">
-        <v>-323860.6504251852</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>145</v>
       </c>
       <c r="G3" t="n">
-        <v>-323860.6504251852</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>1372</v>
       </c>
       <c r="G4" t="n">
-        <v>-322488.6504251852</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>28142.799</v>
       </c>
       <c r="G5" t="n">
-        <v>-294345.8514251852</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>13812.0435</v>
       </c>
       <c r="G6" t="n">
-        <v>-308157.8949251852</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>15100</v>
       </c>
       <c r="G7" t="n">
-        <v>-323257.8949251852</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>13500</v>
       </c>
       <c r="G8" t="n">
-        <v>-323257.8949251852</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>528519.9809</v>
       </c>
       <c r="G9" t="n">
-        <v>205262.0859748147</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>63026.896</v>
       </c>
       <c r="G10" t="n">
-        <v>205262.0859748147</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>61136.1001</v>
       </c>
       <c r="G11" t="n">
-        <v>144125.9858748147</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>7696.1486</v>
       </c>
       <c r="G12" t="n">
-        <v>144125.9858748147</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>10941.9871</v>
       </c>
       <c r="G13" t="n">
-        <v>144125.9858748147</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>1753.7221</v>
       </c>
       <c r="G14" t="n">
-        <v>145879.7079748147</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>42800.6923</v>
       </c>
       <c r="G15" t="n">
-        <v>145879.7079748147</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>35870.9945</v>
       </c>
       <c r="G16" t="n">
-        <v>181750.7024748147</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>9630.9157</v>
       </c>
       <c r="G17" t="n">
-        <v>181750.7024748147</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>100</v>
       </c>
       <c r="G18" t="n">
-        <v>181650.7024748147</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>181660.7024748147</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>33746.2405</v>
       </c>
       <c r="G20" t="n">
-        <v>147914.4619748147</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>147924.4619748147</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>32570.0202</v>
       </c>
       <c r="G22" t="n">
-        <v>147924.4619748147</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>147934.4619748147</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>147924.4619748147</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>7900</v>
       </c>
       <c r="G25" t="n">
-        <v>155824.4619748147</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>32488.5952</v>
       </c>
       <c r="G26" t="n">
-        <v>123335.8667748147</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>10</v>
       </c>
       <c r="G27" t="n">
-        <v>123345.8667748147</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>3069.913</v>
       </c>
       <c r="G28" t="n">
-        <v>123345.8667748147</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>14400</v>
       </c>
       <c r="G29" t="n">
-        <v>108945.8667748147</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>1829.0228</v>
       </c>
       <c r="G30" t="n">
-        <v>108945.8667748147</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>7796.2745</v>
       </c>
       <c r="G31" t="n">
-        <v>101149.5922748147</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>68</v>
       </c>
       <c r="G32" t="n">
-        <v>101217.5922748147</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>40932</v>
       </c>
       <c r="G33" t="n">
-        <v>101217.5922748147</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>1382</v>
       </c>
       <c r="G34" t="n">
-        <v>101217.5922748147</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>1000</v>
       </c>
       <c r="G35" t="n">
-        <v>101217.5922748147</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>42948</v>
       </c>
       <c r="G36" t="n">
-        <v>58269.59227481471</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>10100</v>
       </c>
       <c r="G37" t="n">
-        <v>68369.59227481471</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>29700</v>
       </c>
       <c r="G38" t="n">
-        <v>68369.59227481471</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>3062.2382</v>
       </c>
       <c r="G39" t="n">
-        <v>65307.35407481471</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>35671.342</v>
       </c>
       <c r="G40" t="n">
-        <v>65307.35407481471</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>3000</v>
       </c>
       <c r="G41" t="n">
-        <v>68307.35407481471</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>1583.138686131387</v>
       </c>
       <c r="G42" t="n">
-        <v>68307.35407481471</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>17990.7664</v>
       </c>
       <c r="G43" t="n">
-        <v>68307.35407481471</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>4363.6392</v>
       </c>
       <c r="G44" t="n">
-        <v>68307.35407481471</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>40</v>
       </c>
       <c r="G45" t="n">
-        <v>68347.35407481471</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>4794.5726</v>
       </c>
       <c r="G46" t="n">
-        <v>63552.78147481471</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>40</v>
       </c>
       <c r="G47" t="n">
-        <v>63592.78147481471</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>10807.4816</v>
       </c>
       <c r="G48" t="n">
-        <v>63592.78147481471</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>10</v>
       </c>
       <c r="G49" t="n">
-        <v>63582.78147481471</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>10</v>
       </c>
       <c r="G50" t="n">
-        <v>63572.78147481471</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>5501.529</v>
       </c>
       <c r="G51" t="n">
-        <v>58071.2524748147</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>1579.1809</v>
       </c>
       <c r="G52" t="n">
-        <v>58071.2524748147</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>1000</v>
       </c>
       <c r="G53" t="n">
-        <v>58071.2524748147</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>35.8823</v>
       </c>
       <c r="G54" t="n">
-        <v>58107.1347748147</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>964.1177</v>
       </c>
       <c r="G55" t="n">
-        <v>58107.1347748147</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>9035.882299999999</v>
       </c>
       <c r="G56" t="n">
-        <v>58107.1347748147</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>97832.65850000001</v>
       </c>
       <c r="G57" t="n">
-        <v>-39725.5237251853</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>9786.326800000001</v>
       </c>
       <c r="G58" t="n">
-        <v>-49511.85052518531</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>1871.9412</v>
       </c>
       <c r="G59" t="n">
-        <v>-47639.9093251853</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>19200</v>
       </c>
       <c r="G60" t="n">
-        <v>-66839.9093251853</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>-66829.9093251853</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>28927.7509</v>
       </c>
       <c r="G62" t="n">
-        <v>-95757.6602251853</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,19 @@
         <v>41839.5571</v>
       </c>
       <c r="G63" t="n">
-        <v>-95757.6602251853</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="I63" t="n">
+        <v>27</v>
+      </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2307,23 @@
         <v>22000</v>
       </c>
       <c r="G64" t="n">
-        <v>-95757.6602251853</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="I64" t="n">
+        <v>27</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2345,21 @@
         <v>9034.5209</v>
       </c>
       <c r="G65" t="n">
-        <v>-104792.1811251853</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>27</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2381,23 @@
         <v>77813.2205</v>
       </c>
       <c r="G66" t="n">
-        <v>-104792.1811251853</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="I66" t="n">
+        <v>27</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2419,21 @@
         <v>27823.9204</v>
       </c>
       <c r="G67" t="n">
-        <v>-104792.1811251853</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>27</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2455,21 @@
         <v>1116.9144</v>
       </c>
       <c r="G68" t="n">
-        <v>-104792.1811251853</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>27</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2491,21 @@
         <v>1808.2998</v>
       </c>
       <c r="G69" t="n">
-        <v>-104792.1811251853</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>27</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2527,23 @@
         <v>3833</v>
       </c>
       <c r="G70" t="n">
-        <v>-100959.1811251853</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>26.9</v>
+      </c>
+      <c r="I70" t="n">
+        <v>27</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2565,21 @@
         <v>7881.3308</v>
       </c>
       <c r="G71" t="n">
-        <v>-100959.1811251853</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>27</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2601,21 @@
         <v>7318.5127</v>
       </c>
       <c r="G72" t="n">
-        <v>-93640.6684251853</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>27</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2637,21 @@
         <v>63321.3636</v>
       </c>
       <c r="G73" t="n">
-        <v>-93640.6684251853</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>27</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2673,21 @@
         <v>3227.905</v>
       </c>
       <c r="G74" t="n">
-        <v>-96868.5734251853</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>27</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2709,23 @@
         <v>90</v>
       </c>
       <c r="G75" t="n">
-        <v>-96778.5734251853</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="I75" t="n">
+        <v>27</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2747,21 @@
         <v>10</v>
       </c>
       <c r="G76" t="n">
-        <v>-96768.5734251853</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>27</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2783,21 @@
         <v>25713.3522</v>
       </c>
       <c r="G77" t="n">
-        <v>-122481.9256251853</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>27</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2819,21 @@
         <v>1759.1752</v>
       </c>
       <c r="G78" t="n">
-        <v>-122481.9256251853</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>27</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2855,21 @@
         <v>643.1135</v>
       </c>
       <c r="G79" t="n">
-        <v>-122481.9256251853</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>27</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2891,21 @@
         <v>43210.8471</v>
       </c>
       <c r="G80" t="n">
-        <v>-165692.7727251853</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>27</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2927,21 @@
         <v>24593.1517</v>
       </c>
       <c r="G81" t="n">
-        <v>-190285.9244251853</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>27</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2963,21 @@
         <v>1835.9674</v>
       </c>
       <c r="G82" t="n">
-        <v>-188449.9570251853</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>27</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2999,21 @@
         <v>15004.4183</v>
       </c>
       <c r="G83" t="n">
-        <v>-203454.3753251853</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>27</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3035,21 @@
         <v>380</v>
       </c>
       <c r="G84" t="n">
-        <v>-203074.3753251853</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>27</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3071,23 @@
         <v>18885.9131</v>
       </c>
       <c r="G85" t="n">
-        <v>-221960.2884251853</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>27.3</v>
+      </c>
+      <c r="I85" t="n">
+        <v>27</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3109,21 @@
         <v>17524</v>
       </c>
       <c r="G86" t="n">
-        <v>-221960.2884251853</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>27</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3145,23 @@
         <v>35100</v>
       </c>
       <c r="G87" t="n">
-        <v>-186860.2884251853</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>27.1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>27</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3183,21 @@
         <v>7900</v>
       </c>
       <c r="G88" t="n">
-        <v>-178960.2884251853</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>27</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3219,21 @@
         <v>2900</v>
       </c>
       <c r="G89" t="n">
-        <v>-178960.2884251853</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>27</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3255,21 @@
         <v>87266</v>
       </c>
       <c r="G90" t="n">
-        <v>-91694.28842518531</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>27</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3291,21 @@
         <v>6600</v>
       </c>
       <c r="G91" t="n">
-        <v>-98294.28842518531</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>27</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3327,21 @@
         <v>8180</v>
       </c>
       <c r="G92" t="n">
-        <v>-90114.28842518531</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>27</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3363,21 @@
         <v>1898.1989</v>
       </c>
       <c r="G93" t="n">
-        <v>-92012.48732518531</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>27</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3399,21 @@
         <v>35908.672</v>
       </c>
       <c r="G94" t="n">
-        <v>-127921.1593251853</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>27</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3435,21 @@
         <v>10</v>
       </c>
       <c r="G95" t="n">
-        <v>-127911.1593251853</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>27</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3471,21 @@
         <v>23952.6623</v>
       </c>
       <c r="G96" t="n">
-        <v>-127911.1593251853</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>27</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3507,21 @@
         <v>10</v>
       </c>
       <c r="G97" t="n">
-        <v>-127901.1593251853</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>27</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3543,21 @@
         <v>19373.6496</v>
       </c>
       <c r="G98" t="n">
-        <v>-127901.1593251853</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>27</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3579,21 @@
         <v>2000</v>
       </c>
       <c r="G99" t="n">
-        <v>-127901.1593251853</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>27</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3615,21 @@
         <v>6616.3776</v>
       </c>
       <c r="G100" t="n">
-        <v>-127901.1593251853</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>27</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3651,21 @@
         <v>19293.2642</v>
       </c>
       <c r="G101" t="n">
-        <v>-108607.8951251853</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>27</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3687,21 @@
         <v>21725.1739</v>
       </c>
       <c r="G102" t="n">
-        <v>-130333.0690251853</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>27</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3723,21 @@
         <v>6089.1131</v>
       </c>
       <c r="G103" t="n">
-        <v>-130333.0690251853</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>27</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3759,21 @@
         <v>10751</v>
       </c>
       <c r="G104" t="n">
-        <v>-141084.0690251853</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>27</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3795,21 @@
         <v>22600</v>
       </c>
       <c r="G105" t="n">
-        <v>-118484.0690251853</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>27</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3831,21 @@
         <v>35.7568</v>
       </c>
       <c r="G106" t="n">
-        <v>-118519.8258251853</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>27</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3867,21 @@
         <v>9588</v>
       </c>
       <c r="G107" t="n">
-        <v>-108931.8258251853</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>27</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3903,21 @@
         <v>83167</v>
       </c>
       <c r="G108" t="n">
-        <v>-108931.8258251853</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>27</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3939,21 @@
         <v>17800</v>
       </c>
       <c r="G109" t="n">
-        <v>-91131.82582518531</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>27</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3975,21 @@
         <v>5400</v>
       </c>
       <c r="G110" t="n">
-        <v>-91131.82582518531</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>27</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +4011,21 @@
         <v>22.7009</v>
       </c>
       <c r="G111" t="n">
-        <v>-91131.82582518531</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>27</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +4047,21 @@
         <v>500</v>
       </c>
       <c r="G112" t="n">
-        <v>-90631.82582518531</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>27</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +4083,21 @@
         <v>25065.2158</v>
       </c>
       <c r="G113" t="n">
-        <v>-65566.61002518531</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>27</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4119,21 @@
         <v>588.7641</v>
       </c>
       <c r="G114" t="n">
-        <v>-66155.37412518531</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>27</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4155,21 @@
         <v>2059</v>
       </c>
       <c r="G115" t="n">
-        <v>-64096.37412518531</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>27</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4191,21 @@
         <v>63400</v>
       </c>
       <c r="G116" t="n">
-        <v>-64096.37412518531</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>27</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4227,21 @@
         <v>32659.75</v>
       </c>
       <c r="G117" t="n">
-        <v>-64096.37412518531</v>
-      </c>
-      <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>27</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4263,21 @@
         <v>1409.8214</v>
       </c>
       <c r="G118" t="n">
-        <v>-62686.55272518531</v>
-      </c>
-      <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>27</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4299,21 @@
         <v>74609.68610000001</v>
       </c>
       <c r="G119" t="n">
-        <v>-62686.55272518531</v>
-      </c>
-      <c r="H119" t="n">
         <v>2</v>
       </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>27</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1.032037037037037</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4335,15 @@
         <v>1040</v>
       </c>
       <c r="G120" t="n">
-        <v>-63726.55272518531</v>
-      </c>
-      <c r="H120" t="n">
         <v>2</v>
       </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4365,15 @@
         <v>3800.1499</v>
       </c>
       <c r="G121" t="n">
-        <v>-67526.70262518531</v>
-      </c>
-      <c r="H121" t="n">
         <v>2</v>
       </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4395,15 @@
         <v>10</v>
       </c>
       <c r="G122" t="n">
-        <v>-67516.70262518531</v>
-      </c>
-      <c r="H122" t="n">
         <v>2</v>
       </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4425,15 @@
         <v>6400</v>
       </c>
       <c r="G123" t="n">
-        <v>-73916.70262518531</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4455,15 @@
         <v>8600</v>
       </c>
       <c r="G124" t="n">
-        <v>-73916.70262518531</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4485,15 @@
         <v>225488.7964</v>
       </c>
       <c r="G125" t="n">
-        <v>-73916.70262518531</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4515,15 @@
         <v>8691.758</v>
       </c>
       <c r="G126" t="n">
-        <v>-82608.46062518531</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4545,15 @@
         <v>10</v>
       </c>
       <c r="G127" t="n">
-        <v>-82598.46062518531</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4575,15 @@
         <v>1406.2968</v>
       </c>
       <c r="G128" t="n">
-        <v>-84004.75742518531</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4605,15 @@
         <v>23823.5192</v>
       </c>
       <c r="G129" t="n">
-        <v>-60181.23822518531</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4635,15 @@
         <v>3865.2932</v>
       </c>
       <c r="G130" t="n">
-        <v>-64046.53142518531</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4665,15 @@
         <v>10661.3525</v>
       </c>
       <c r="G131" t="n">
-        <v>-64046.53142518531</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4695,15 @@
         <v>118485.5596</v>
       </c>
       <c r="G132" t="n">
-        <v>-182532.0910251853</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4725,15 @@
         <v>33571.3254</v>
       </c>
       <c r="G133" t="n">
-        <v>-216103.4164251853</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4755,21 @@
         <v>17335.8794</v>
       </c>
       <c r="G134" t="n">
-        <v>-198767.5370251853</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4791,21 @@
         <v>2031.0653</v>
       </c>
       <c r="G135" t="n">
-        <v>-198767.5370251853</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>27.4</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4827,21 @@
         <v>27124.7375</v>
       </c>
       <c r="G136" t="n">
-        <v>-225892.2745251853</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>27.4</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4863,19 @@
         <v>14084.2124</v>
       </c>
       <c r="G137" t="n">
-        <v>-225892.2745251853</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4897,21 @@
         <v>7000</v>
       </c>
       <c r="G138" t="n">
-        <v>-225892.2745251853</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>27.3</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4933,21 @@
         <v>12963.9999</v>
       </c>
       <c r="G139" t="n">
-        <v>-225892.2745251853</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>27.3</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4969,21 @@
         <v>11582.2102</v>
       </c>
       <c r="G140" t="n">
-        <v>-225892.2745251853</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>27.3</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +5005,21 @@
         <v>9604.2912</v>
       </c>
       <c r="G141" t="n">
-        <v>-225892.2745251853</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>27.3</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +5041,21 @@
         <v>42933.1122</v>
       </c>
       <c r="G142" t="n">
-        <v>-268825.3867251853</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>27.3</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +5077,21 @@
         <v>2442.6187</v>
       </c>
       <c r="G143" t="n">
-        <v>-266382.7680251853</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>27.1</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +5113,21 @@
         <v>19497</v>
       </c>
       <c r="G144" t="n">
-        <v>-246885.7680251853</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>27.3</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +5149,21 @@
         <v>7287.1636</v>
       </c>
       <c r="G145" t="n">
-        <v>-246885.7680251853</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>27.4</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +5185,21 @@
         <v>3964.7432</v>
       </c>
       <c r="G146" t="n">
-        <v>-246885.7680251853</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>27.4</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +5221,21 @@
         <v>3376.8789</v>
       </c>
       <c r="G147" t="n">
-        <v>-246885.7680251853</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>27.4</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +5257,21 @@
         <v>46587.0745</v>
       </c>
       <c r="G148" t="n">
-        <v>-246885.7680251853</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>27.4</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +5293,21 @@
         <v>9375.844800000001</v>
       </c>
       <c r="G149" t="n">
-        <v>-246885.7680251853</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>27.4</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +5329,19 @@
         <v>9936.7816</v>
       </c>
       <c r="G150" t="n">
-        <v>-246885.7680251853</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5363,21 @@
         <v>5259.1263</v>
       </c>
       <c r="G151" t="n">
-        <v>-246885.7680251853</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>27.4</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5399,19 @@
         <v>10035.0976</v>
       </c>
       <c r="G152" t="n">
-        <v>-246885.7680251853</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5433,19 @@
         <v>78171.17110000001</v>
       </c>
       <c r="G153" t="n">
-        <v>-246885.7680251853</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5467,21 @@
         <v>16818.7826</v>
       </c>
       <c r="G154" t="n">
-        <v>-246885.7680251853</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>27.4</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5503,21 @@
         <v>3778.4091</v>
       </c>
       <c r="G155" t="n">
-        <v>-246885.7680251853</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>27.4</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5539,21 @@
         <v>10</v>
       </c>
       <c r="G156" t="n">
-        <v>-246875.7680251853</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>27.4</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5575,19 @@
         <v>5929.1998</v>
       </c>
       <c r="G157" t="n">
-        <v>-252804.9678251853</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5609,19 @@
         <v>16904.4151</v>
       </c>
       <c r="G158" t="n">
-        <v>-269709.3829251853</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5643,21 @@
         <v>1301.1475</v>
       </c>
       <c r="G159" t="n">
-        <v>-269709.3829251853</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>27.3</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5679,19 @@
         <v>15718.7765</v>
       </c>
       <c r="G160" t="n">
-        <v>-269709.3829251853</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5713,19 @@
         <v>3755.7862</v>
       </c>
       <c r="G161" t="n">
-        <v>-269709.3829251853</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5747,19 @@
         <v>682.5018</v>
       </c>
       <c r="G162" t="n">
-        <v>-269709.3829251853</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,22 +5781,19 @@
         <v>8474</v>
       </c>
       <c r="G163" t="n">
-        <v>-269709.3829251853</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J163" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5798,26 +5815,19 @@
         <v>3726.37</v>
       </c>
       <c r="G164" t="n">
-        <v>-273435.7529251853</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J164" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5839,26 +5849,19 @@
         <v>8402.567300000001</v>
       </c>
       <c r="G165" t="n">
-        <v>-265033.1856251853</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J165" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5880,26 +5883,19 @@
         <v>13503.9765</v>
       </c>
       <c r="G166" t="n">
-        <v>-265033.1856251853</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J166" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5921,26 +5917,21 @@
         <v>1532.9071</v>
       </c>
       <c r="G167" t="n">
-        <v>-265033.1856251853</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J167" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>27.3</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5962,26 +5953,21 @@
         <v>14600</v>
       </c>
       <c r="G168" t="n">
-        <v>-279633.1856251853</v>
+        <v>1</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J168" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>27.3</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6003,26 +5989,21 @@
         <v>1659</v>
       </c>
       <c r="G169" t="n">
-        <v>-277974.1856251853</v>
+        <v>1</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J169" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>27.2</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6044,26 +6025,21 @@
         <v>5830.9069</v>
       </c>
       <c r="G170" t="n">
-        <v>-277974.1856251853</v>
+        <v>1</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J170" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>27.3</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6085,26 +6061,21 @@
         <v>37632.139</v>
       </c>
       <c r="G171" t="n">
-        <v>-315606.3246251853</v>
+        <v>1</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J171" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>27.3</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6126,26 +6097,21 @@
         <v>8769.0931</v>
       </c>
       <c r="G172" t="n">
-        <v>-306837.2315251853</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J172" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>27.2</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6167,26 +6133,21 @@
         <v>10</v>
       </c>
       <c r="G173" t="n">
-        <v>-306827.2315251853</v>
+        <v>1</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J173" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>27.4</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6208,24 +6169,19 @@
         <v>4903.6038</v>
       </c>
       <c r="G174" t="n">
-        <v>-311730.8353251853</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6247,26 +6203,19 @@
         <v>10</v>
       </c>
       <c r="G175" t="n">
-        <v>-311720.8353251853</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J175" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6288,26 +6237,19 @@
         <v>10</v>
       </c>
       <c r="G176" t="n">
-        <v>-311730.8353251853</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="J176" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6329,26 +6271,19 @@
         <v>15810</v>
       </c>
       <c r="G177" t="n">
-        <v>-311730.8353251853</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J177" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6370,26 +6305,19 @@
         <v>70</v>
       </c>
       <c r="G178" t="n">
-        <v>-311660.8353251853</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="J178" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6411,26 +6339,21 @@
         <v>2188.4025</v>
       </c>
       <c r="G179" t="n">
-        <v>-311660.8353251853</v>
+        <v>1</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
         <v>27.6</v>
       </c>
-      <c r="J179" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6452,26 +6375,19 @@
         <v>400</v>
       </c>
       <c r="G180" t="n">
-        <v>-311260.8353251853</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="J180" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6493,24 +6409,19 @@
         <v>1323.7978</v>
       </c>
       <c r="G181" t="n">
-        <v>-311260.8353251853</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6532,24 +6443,19 @@
         <v>20</v>
       </c>
       <c r="G182" t="n">
-        <v>-311280.8353251853</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6571,26 +6477,19 @@
         <v>30</v>
       </c>
       <c r="G183" t="n">
-        <v>-311250.8353251853</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="J183" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6612,26 +6511,19 @@
         <v>20</v>
       </c>
       <c r="G184" t="n">
-        <v>-311270.8353251853</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="J184" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6653,26 +6545,19 @@
         <v>60</v>
       </c>
       <c r="G185" t="n">
-        <v>-311210.8353251853</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J185" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6694,26 +6579,19 @@
         <v>40</v>
       </c>
       <c r="G186" t="n">
-        <v>-311250.8353251853</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="J186" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6735,26 +6613,19 @@
         <v>20</v>
       </c>
       <c r="G187" t="n">
-        <v>-311250.8353251853</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J187" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6776,26 +6647,19 @@
         <v>3587.5181</v>
       </c>
       <c r="G188" t="n">
-        <v>-307663.3172251853</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J188" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6817,26 +6681,19 @@
         <v>20</v>
       </c>
       <c r="G189" t="n">
-        <v>-307683.3172251853</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="J189" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6858,26 +6715,19 @@
         <v>39499.0397</v>
       </c>
       <c r="G190" t="n">
-        <v>-307683.3172251853</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J190" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6899,26 +6749,19 @@
         <v>10</v>
       </c>
       <c r="G191" t="n">
-        <v>-307673.3172251853</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J191" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6940,26 +6783,19 @@
         <v>15300</v>
       </c>
       <c r="G192" t="n">
-        <v>-292373.3172251853</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="J192" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6981,24 +6817,19 @@
         <v>20</v>
       </c>
       <c r="G193" t="n">
-        <v>-292353.3172251853</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7020,24 +6851,19 @@
         <v>20</v>
       </c>
       <c r="G194" t="n">
-        <v>-292373.3172251853</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7059,26 +6885,19 @@
         <v>10</v>
       </c>
       <c r="G195" t="n">
-        <v>-292383.3172251853</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="J195" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7100,26 +6919,19 @@
         <v>90</v>
       </c>
       <c r="G196" t="n">
-        <v>-292293.3172251853</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="J196" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7141,24 +6953,19 @@
         <v>10</v>
       </c>
       <c r="G197" t="n">
-        <v>-292303.3172251853</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7180,24 +6987,19 @@
         <v>95002.1182</v>
       </c>
       <c r="G198" t="n">
-        <v>-197301.1990251853</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7219,24 +7021,19 @@
         <v>20</v>
       </c>
       <c r="G199" t="n">
-        <v>-197321.1990251853</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7258,24 +7055,19 @@
         <v>20</v>
       </c>
       <c r="G200" t="n">
-        <v>-197321.1990251853</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7297,24 +7089,19 @@
         <v>1960.7926</v>
       </c>
       <c r="G201" t="n">
-        <v>-199281.9916251853</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7336,24 +7123,19 @@
         <v>10</v>
       </c>
       <c r="G202" t="n">
-        <v>-199281.9916251853</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7375,24 +7157,19 @@
         <v>41017.6023</v>
       </c>
       <c r="G203" t="n">
-        <v>-240299.5939251853</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7414,24 +7191,19 @@
         <v>21</v>
       </c>
       <c r="G204" t="n">
-        <v>-240278.5939251853</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7453,26 +7225,19 @@
         <v>10</v>
       </c>
       <c r="G205" t="n">
-        <v>-240288.5939251853</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="J205" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7494,26 +7259,19 @@
         <v>100</v>
       </c>
       <c r="G206" t="n">
-        <v>-240388.5939251853</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J206" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7535,26 +7293,19 @@
         <v>100</v>
       </c>
       <c r="G207" t="n">
-        <v>-240388.5939251853</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J207" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7576,24 +7327,19 @@
         <v>1796.607</v>
       </c>
       <c r="G208" t="n">
-        <v>-240388.5939251853</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
